--- a/eltiempo.xlsx
+++ b/eltiempo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,16 +424,301 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-aumenta-la-cantidad-de-sismos-segun-sgc-771277
+</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruíz: aumenta la cantidad de sismos según SGC</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano (SGC) anunció a través de un comunicado, de este 24 de mayo, que la actividad sísmica relacionada con el movimiento de fluidos aumentó en comparación con los registros realizados el pasado 22 de mayo.(Le puede interesar: Nevado del Ruiz: estas son las veredas excluidas de la evacuación inmediata).“Se registró actividad sísmica asociada a fracturamiento de roca al interior del edificio volcánico, la cual mostró aumento en el número de sismos y niveles similares en la energía sísmica”, señaló el SGC.
+También explicó que la actividad del volcán Nevado del Ruíz sigue siendo muy inestable, por ello, la alerta se mantiene en naranja.(También: MinTIC anuncia más de 50 nuevas antenas para municipios cercanos al Nevado del Ruiz).Por esta razón, el Servicio Geológico Colombiano reiteró: “Es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros”.
+En el monitoreo de este miércoles 24 de mayo se reiteró que existe una probabilidad de que en los próximos días o semanas haga una erupción mayor a las que ha hecho en los últimos 10 años.Además, el SGC mencionó que para retornar a nivel de alerta amarillo se requiere un tiempo prudencial, en el cual se puedan observar tendencias y patrones que permitan deducir alguna disminucion de actividad sismica.
+“En cuanto a la actividad superficial, la altura máxima de la columna de gases y/o ceniza fue de 1800 m medidos desde la cima del volcán y ha presentado una dirección preferencial de dispersión hacia el nororiente. Continúan las variaciones en la desgasificación de dióxido de azufre y la salida de vapor de agua desde el cráter a la atmósfera”, señaló el informe.
+Por último, el Sistema Geológico Colombiano indicó que recomienda a la comunidad mantener la calma, seguir las instrucciones de las autoridades locales y mantenerse informado.(Además: Olor a azufre cerca a volcán Nevado del Ruiz: ¿por qué se ha reportado y qué significa?).Nevado del Ruiz: Gestión del Riesgo excluye a Risaralda de la zona de riesgo del volcánVolcán Nevado del Ruiz: ¿cómo son las condiciones ahora que es menor la zona de riesgo?Volcán Nevado del Ruiz: leve aumento en actividad sísmica del volcánREDACCIÓN ÚLTIMAS NOTICIAS
+VANESSA PÉREZ¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/volcan-nevado-del-ruiz-actualizacion-23-de-mayo-770891
+</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: aumento de sismos en los sectores nororiente, norte y sur</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano (SGC) informó que desde las 9 a. m. de ayer (22 de mayo) y durante lo corrido del 23 de mayo, “la actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos presentó aumento en el número de sismos y continuó mostrando niveles de energía sísmica liberada similares a los del día anterior (21 de mayo)”.La sismicidad se produjo en los sectores nororiente, norte y sur del volcán y en el cráter Arenas, a una distancia máxima de 6 km a partir de este y a profundidades que oscilaron entre 1 y 7 km.
+“En cuanto a la actividad superficial, la altura máxima de la columna de gases y/o ceniza fue de 1300 metros medidos desde la cima del volcán y ha presentado una dirección preferencial de dispersión hacia el nororiente”, agregó el comunicado.
+Más noticias: SGC aclara si los gases que salen de Cerro Bravo son volcánicos
+Ahora bien, es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza disminuyan o sean oscilatorios; es decir que pueden aumentar unos días y disminuir otros.
+“Sin embargo, esto no implica que el volcán haya retornado a sus niveles normales de actividad, por lo que se recomienda no acostumbrarse a estos cambios oscilatorios de actividad y pensar que es una actividad normal del volcán”.
+Entre tanto, indicaron que la actividad del volcán Nevado del Ruiz continúa en nivel naranja.¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-como-ha-afectado-la-economia-de-caldas-la-alerta-naranja-770533
+</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>La esperanza del turismo de Caldas para resistir la crisis por el nevado del Ruiz</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Hace 10 días la Unidad Nacional para la Gestión del Riesgo (UNGRD) aceptó la solicitud de Caldas de reducir de 15 a 10 kilómetros la zona de riesgo alto por la actividad del volcán Nevado del Ruiz. Con la determinación, la mayoría de negocios de la zona aledaña reabrieron y, aunque el balance a hoy es positivo, aún no está en valores normales.
+(Le recomendamos leer: 'Será trabajar en call center', comerciantes de Caldas, en quiebra por el volcán)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/vida/medio-ambiente/nevado-del-ruiz-estas-son-las-veredas-excluidas-de-la-evacuacion-inmediata-770215
+</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nevado del Ruiz: estas son las veredas excluidas de la evacuación inmediata</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>El director de la Unidad Nacional de Gestión de Riesgos y Desastres (UNGRD), Olmedo López, anunció un cambio en la manera cómo se precisará el área de evacuación alrededor del volcán Nevado del Ruiz.
+"Inicialmente se habían definido 15 kilómetros en un radio completo, en donde se trabajó intensamente en la evacuación, pero hoy se cambia a un modelo establecido por el Servicio Geológico Colombiano en el año 2015", explicó López.
+(Lea además: Nevado del Ruiz: Gestión del Riesgo excluye a Risaralda de la zona de riesgo del volcán).La entidad explica que dado que una posible erupción del Nevado del Ruiz generaría varios fenómenos volcánicos con consecuencias diferentes, se indicó que es necesario discriminarlos a partir de su severidad, velocidad y alcance.
+"Para ello, se tuvo en cuenta el mapa de Amenaza Volcánica del Volcán Nevado del Ruiz, elaborado por el SGC en el 2015, que identificó una zona en donde podrían coexistir los siguientes fenómenos volcánicos: corrientes de densidad piroclástica (CDP), flujos de lodo (lahares), avalanchas de escombros, gases volcánicos, proyectiles balísticos, flujos de lava, ondas de choque y caída de piroclastos (ceniza y lapilli)", detalla la entidad. En esta zona se presentarían los fenómenos más severos y de alta letalidad, con las más altas velocidades de viaje que alcanzarían decenas de kilómetros de distancia en tiempos muy cortos, señala la Unidad del Gestión del Riesgo. 
+Y agrega: "Esto obliga a adoptar esa nueva área como la de mayor relevancia para definir los tiempos de respuesta y el perímetro de evacuación inmediata mientras el volcán se encuentre en el nivel de actividad naranja". 
+(Siga leyendo: Nevado del Ruiz: Gestión del Riesgo excluye a Risaralda de la zona de riesgo del volcán).Por otra parte, debido a la forma irregular de la zona, este polígono permite excluir algunas zonas de la evacuación inmediata, como es el caso del municipio de Santa Rosa de Cabal (Risaralda).
+En cambio, en otros lugares se deberá ampliar el área a evacuar, como ocurre en inmediaciones de los cauces de los ríos Gualí, Azufrado, Lagunilla y Recio en el departamento del Tolima, y del río Claro, en el departamento de Caldas.
+Tras el anuncio del polígono como nueva área de priorización, la UNGRD excluyó las siguientes veredas del proceso de evacuación inmediata: El Oso (Murillo, Tolima); Potosí, La Laguna Alta, El Páramo, Valles, Romeral, La Guayana, Santo Domingo, Papayal, Termales, Montaño, El Pindo y Gallinazo (Villamaría, Caldas); y San Ramón, Páramo Santa Rosa, Potreros, Cortaderal Zona, Santa Rita, Yarumal y Las Brisas (Risaralda, Santa Rosa de Cabal).
+REDACCIÓN MEDIOAMBIENTE MinTIC anuncia más de 50 nuevas antenas para municipios cercanos al Nevado del RuizSGC realizó estudios sobre el gas que sale de Cerro Bravo y descartó origen volcánicoNevado del Ruiz: ¿qué son las cenizas volcánicas y por qué son nocivas?</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/tecnosfera/novedades-tecnologia/antenas-para-municipios-cercanos-al-nevado-del-ruiz-769791
+</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MinTIC anuncia más de 50 nuevas antenas para municipios cercanos al Nevado del Ruiz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Desde el municipio de Villamaría, Caldas, el ministro TIC Mauricio Lizcano anunció la instalación de más de 50 nuevas antenas para dar cobertura en materia de comunicación a los habitantes de municipios aledaños al volcán Nevado del Ruiz.
+(Lea también: Apple prohíbe a sus empleados usar modelos de inteligencia artificial , según informe)La medida corresponde a la estrategia que MinTIC creó con empresas de
+telecomunicaciones móviles, satelitales y de radio. Entre estas se encuentra Tigo, Wom, Claro, entre otras. 
+(Le podría interesar: Profesor utiliza ChatGPT para saber si sus estudiantes hacen tareas con IA)“Hoy anunciamos 50 puntos de conexión para conectar a toda la región a través de antenas de los cuatro operadores de telefonía móvil. Dios quiera nunca pase nada, pero estás comunicaciones les sirven a los ciudadanos. Además, entregaremos antenas a los organismos de socorro para que se puedan comunicar en caso de una eventual erupción”, explicó durante su anuncio el ministro Lizcano.- La inteligencia artificial creará una forma de trabajar completamente nueva
+- Así funcionan las alertas de sismos en su celular
+- Las primeras declaraciones de Linda Yaccarino, nueva directora de Twitter¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-cerro-bravo-sgc-dice-que-gases-no-son-de-origen-volcanico-770223
+</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SGC realizó estudios sobre el gas que sale de Cerro Bravo y descartó origen volcánico</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano logró determinar que la salida de gases y vapor del volcán Cerro Bravo ubicado en la vía que conecta a Bogotá con Manizales, no tiene origen volcánico.
+"Por un lado, durante las inspecciones realizadas se encontró que el gas metano que está saliendo de la ladera de este volcán tiene concentraciones muy superiores a las que suele tener en áreas volcánicas e incluso a las que actualmente tiene en el volcán Nevado del Ruiz", puntualiza la entidad."Así mismo, el análisis y evaluación integral de los parámetros de monitoreo del volcán Cerro Bravo muestra estabilidad a lo largo del tiempo y tampoco se han visto variaciones en los últimos días", según el SGC desde septiembre de 1995, cuando comenzó a monitorearse, se encuentra en nivel de actividad verde, el cual indica que es un volcán activo, pero en reposo, con muy poca actividad.
+"Con base en esto, desde el SGC podemos inferir que esta anomalía no está relacionada con la actividad del volcán Cerro Bravo, debido a la superficialidad del fenómeno, a que se presenta en una zona puntual del volcán", puntualiza la entidad.Por su parte,Transportadora de Gas Internacional (TGI) también descartó la posibilidad de una fuga de gas del gasoducto que pasa por ese sector. Las entidades abren la posibilidad de que el origen de este fenómeno esté relacionado a la degradación de materia orgánicaExótico ‘emprendimiento’: venden un kilo de ceniza de volcán por casi $3 millonesOlor a azufre cerca a volcán Nevado del Ruiz: ¿por qué se ha reportado y qué significa?¿Monserrate es un volcán dormido y la iglesia está sobre un cráter? SGC aclara</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/vida/medio-ambiente/nevado-del-ruiz-gestion-del-riesgo-excluye-a-risaralda-de-la-zona-de-riesgo-del-volcan-770087
+</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nevado del Ruiz: Gestión del Riesgo excluye a Risaralda de la zona de riesgo del volcán</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>El director de la Unidad Nacional de Gestión de Riesgos y Desastres (UNGRD), Olmedo López, anunció en rueda de prensa un cambio en la manera cómo se precisará el área de evacuación alrededor del volcán Nevado del Ruiz.
+“Inicialmente se habían definido 15 kilómetros en un radio completo, en donde se trabajó intensamente en la evacuación, pero hoy se cambia a un modelo establecido por el Servicio Geológico Colombiano en el año 2015”, explicó López.
+Lea además: (Los rostros de los habitantes de la boca del volcán Nevado del Ruiz)En palabras del director, esto significa que "cambia la forma de medición a un polígono establecido en 2015, medido en riesgo por los afluentes que vienen de la cordillera Central". En ese sentido, el departamento de Risaralda (municipio de Santa Rosa de Cabal) quedará excluido de la zona de evacuación inmediata. 
+La entidad explicó que este cambio se generó para intensificar las zonas de mayor amenaza, en donde puede coexistir fenómenos volcánicos como corrientes de densidad piroclástica, flujos de lodo, avalanchas de escombros, gases volcánicos, proyectiles balísticos, entre otros.
+"Se concentrarán los esfuerzos en el departamento del Tolima en cinco municipios y 40 veredas, y en un municipio del departamento de Caldas (Villamaría)", agregó el director de la entidad.
+Le puede interesar: (Volcán Nevado del Ruiz: el plan del Gobierno para lograr evacuación de civiles)
+Si bien en la zona adoptada no se encuentra ninguna cabecera municipal o centro poblado, sí existen algunos sectores rurales de Caldas y Tolima en donde se requiere una evacuación inmediata, particularmente en aquellas zonas más cercanas a los ríos Gualí, Azufrado, Lagunilla y Recio.
+"En aquellos lugares ya definidos entre Caldas, Risaralda y un sector del Tolima donde puede caer ceniza y lapilli, y formar acumulaciones con más de 10 centímetros no es necesaria una evacuación inmediata, pero sí es importante adoptar medidas particulares, como los preparativos para la respuesta que están definidos por cada autoridad municipal y las recomendaciones emitidas por las diferentes entidades del SNGRD", detalló López.REDACCIÓN MEDIOAMBIENTE¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/tecnosfera/novedades-tecnologia/claro-fortalece-su-senal-alrededor-del-volcan-nevado-del-ruiz-769709
+</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Claro fortalece su señal alrededor del volcán Nevado del Ruíz</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>La empresa de servicios de telefonía Claro anunció que se encuentra realizando labores de refuerzo y ampliación de cobertura en zonas aledañas al Volcán Nevado del Ruíz. La medida espera impactar directamente en tres municipios del departamento de Caldas. 
+(Lea también: La inteligencia artificial creará una forma de trabajar completamente nueva)Esta estrategia de ampliación de la red  beneficiará a los municipios de Manizales, Chinchiná y Palestina, con el fin de que puedan mantenerse en contacto con las autoridades y su familiares en cualquier momento.  
+(Le podría interesar: Las primeras declaraciones de Linda Yaccarino, nueva directora de Twitter)“En Claro estamos trabajando con las autoridades locales y el Gobierno nacional para garantizar la prestación de un servicio estable en el departamento y en las zonas aledañas del Volcán Nevado del Ruíz. Hemos desarrollado un Plan de Emergencia y de Desastres que atenderá cualquier situación que pueda afectar el servicio, y dentro de las acciones se está realizando la ampliación de cobertura que quedará implementada en las próximas semanas”, indicó Diego Marín, director regional de Claro Colombia.
+(Otras noticias: Así funcionan las alertas de sismos en su celular)
+La compañía reportó que a la fecha ha ampliado la cobertura en 24 sectores rurales de Caldas y 17 de Risaralda, además de los trabajos adelantados en 13 zonas rurales del Tolima.- ¿Se deberían regular los filtros que alteran los rostros en redes sociales?
+- Netflix reportó cómo le ha ido con las suscripciones ‘baratas’ con publicidad
+- Capacitarán gratis en tecnología a 120 víctimas del conflicto armado¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-que-significa-el-olor-azufre-en-manizales-768621
+</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Olor a azufre cerca a volcán Nevado del Ruiz: ¿por qué se ha reportado y qué significa?</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>El volcán Nevado del Ruiz ha registrado oscilaciones en el número y la energía de sismos, así como en la salida de ceniza. Además, transcurridos más de un mes y medio con el nivel de actividad en naranja, el Servicio Geológico Colombiano (SGC) recibió reportes de olor a azufre durante el Día de la Madre.(Puede leer: Volcán Nevado del Ruiz: ¿cómo son las condiciones ahora que es menor la zona de riesgo?).Habitantes de Manizales dijeron percibir el fuerte olor el domingo 14 de mayo y en jornadas anteriores. Al respecto, la entidad explicó la razón por la que se estaría notando a varios kilómetros del complejo volcánico. Vale recordar que no solo se tiene prevista la salida de ceniza en un volcán con este tipo de actividad, pues también hay emisión de dióxido de azufre. Para el SGC, "indica que el sistema del volcán no está cerrado completamente". Si estuviera cerrado, los gases en su interior "se acumularían haciendo que la probabilidad de una erupción aumente exponencialmente".(Siga leyendo: Antes de Armero, otras tragedias marcadas por la erupción del Nevado del Ruiz).Durante el fin de semana del Día de la Madre es posible que el volcán haya emitido una alta concentración de dióxido de azufre, al cual se sumaron los componentes de la ceniza que, en conjunto, "pudieron reaccionar con la humedad en el ambiente y percibirse olor y sensación irritante similar a compuestos azufrados".Eso no quiere decir que haya un "cambio relevante en la actividad del volcán", como explica la entidad. Es un aspecto que se tiene contemplado en activad naranja. Sencillamente la concentración de dióxido de azufre y alta humedad lo permitieron en esta ocasión.¿Cuándo resulta nocivo para la salud? El SGC indica solo si hay una exposición directa y prolongada a tal olor de azufre habría una afectación. Sin embargo, en Manizales no fue así, "pues las concentraciones de dióxido de azufre van disminuyendo a medida que estas se dispersan en la atmósfera".(Lea también: Llamado clave sobre volcán Nevado del Ruiz: ¿por qué no hay que acostumbrarse?).El comportamiento del volcán es muy inestable. Por tanto, "continúa la probabilidad de que en días o semanas haga una erupción mayor a las que ha hecho en los últimos 10 años", dice el SGC.El cambio de nivel naranja a amarillo requiere de "un tiempo prudencial donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad, el cual puede extenderse a varias semana".El llamado de las autoridades es a mantenerse informados, "no bajar la guardia" y seguir las recomendaciones de los organismos de socorro.- Volcán Nevado del Ruiz: ¿qué es el punto rojo que se ve desde el espacio?- Un mes del volcán Nevado del Ruiz en actividad naranja: las impactantes imágenes.- Video: así esquiaban los colombianos en el Nevado del Ruiz en los años 50.- Mapa: si volcán Nevado del Ruiz hace erupción, estos lugares estarían en riesgo.REDACCIÓN ÚLTIMAS NOTICIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-hoy-video-de-supuestas-emisiones-de-vapor-en-montanas-768581
+</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: analizan video de supuestas emisiones de vapores en montañas</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Un fuerte olor a azufre, acompañado de intensa caída de ceniza, son las señales de actividad que ha dado durante la mañana de este lunes el volcán Nevado del Ruiz. Además, las autoridades se encuentran evaluando una situación reportada en un video en el que se muestran supuestos vapores emanando de una de las montañas cercanas al volcán Nevado del Ruiz.
+(Le recomendamos leer: SGC aclara si los gases que salen de Cerro Bravo son volcánicos).El video habría sido grabado por algunas personas que circulaban por la vía que de Manizales conduce a Bogotá, a la altura de ‘Cerro bravo’, zona cercana al Ruiz.
+En el video se ve que emanan de la tierra lo que serían supuestos vapores.Las autoridades han informado que se desplazan al lugar para verificar la situación.
+(Le puede interesar: Volcán Nevado del Ruiz: continúa la alerta naranja, advierten caída de ceniza en Tolima)"Tenemos el reporte de un video en el sector de Cerro Bravo, en el que se evidencia emisión de gases y vapores. Hay varias hipótesis, pero ya el Servicio Geológico Colombiano y la Corporación Autónoma Regional (Corpocaldas) enviaron una comisión técnica para hacer una medición y tratar de identificar la génesis de estos gases", explicó Félix Ricardo Giraldo, jefe de la Unidad de Gestión del Riesgo de Caldas.
+Los manizaleños también han reportado un fuerte olor azufre desde tempranas horas de la mañana, además de ceniza en calles, plantas ventanas y vehículos. Todo esto se pudo percibir luego de un fuerte aguacero que se presentó en la madrugada en la capital.
+(Además: Así se ve el volcán Nevado del Ruiz desde los satélites en el espacio)Al respecto, desde Gestión del Riesgo de Caldas señalaron que estas situaciones son normales por la inestabilidad en la que se encuentra el volcán desde que se decretó su nivel de actividad naranja, en marzo.
+"La emisión de ceniza que se presentó sobre las 6:23 de la mañana fue dispersada por los vientos y la lluvia a Manizales y Villamaría y sus áreas urbanas, lo que se vio reflejado en los vehículos y calles . En cuanto al olor a azufre, se están realizando monitoreos con las estaciones ambientales para determinar los niveles que están en la atmósfera y determinar si es necesario emitir alguna alerta", explicó el jefe de la Unidad.
+(Lea también: Volcán Nevado del Ruiz: ¿por qué la emisión de ceniza es un signo que preocupa?)
+Las autoridades han hecho también un llamado a la calma y a no difundir fotos o videos de fuentes desconocidas y estar atentos a las comunicaciones oficiales del Servicio Geológico Colombiano.LAURA USMA CARDONA
+Para EL TIEMPO
+MANIZALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-hoy-emisiones-de-cenizas-y-sismicidad-14-de-mayo-2023-768349
+</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: continúan la sismicidad y las emisiones de cenizas</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Desde hace varias semanas, el volcán Nevado del Ruiz se mantiene en alerta naranja. En vista de que su actividad sigue siendo muy inestable, el Servicio Geológico Colombiano (SGC) ha venido monitoreando, día a día, sus tendencias y patrones. (Lea también: Volcán Nevado del Ruiz presentó disminución leve respecto a los sismos). El último reporte realizado por la institución, encargada de evaluar los riesgos de origen geológico, reveló que la actividad sísmica relacionada con el movimiento de fluidos aumentó levemente con respecto al día anterior. "Se registró actividad sísmica asociada a fracturamiento de roca al interior del edificio
+volcánico, la cual mostró niveles similares en el número de sismos y en la energía sísmica respecto al día anterior (13 de mayo)", detalló el SGC. (Siga leyendo: ¿Monserrate es un volcán dormido y la iglesia está sobre un cráter? SGC aclara). Los sismos se presentaron a una distancia aproximada de 7 kilómetros del cráter Arenas. Las profundidades fueron de entre 3 y 5 km.
+La expulsión de ceniza también se ha mantenido, al igual que las variaciones en la desgasificación de dióxido de azufre y la salida de vapor de agua desde el cráter. El boletín informa que, desde el 11 de mayo hasta el 14 a las 6:59 a. m., la ceniza contó con una altura máxima de 1000 m m, y se dispersó por el noroccidente y nororiente del volcán. (De interés: Volcán Nevado del Ruiz: leve aumento en actividad sísmica del volcán). Los indicadores apuntan a que "es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros. Sin embargo, esto no implica que el volcán haya retornado a sus niveles normales de actividad", afirma el SGC. 
+De allí que resulte importante estar al tanto de las actualizaciones de la institución y seguir las indicaciones tanto de las autoridades locales como de la Unidad
+Nacional para la Gestión del Riesgo de Desastres (UNGRD). John Makario Londoño, director técnico de geoamenazas del Servicio Geológico Colombiano, informó que el volcán continúa, en términos generales, en un estado similar al que ha tenido en días anteriores.
+"Continúa la actividad de fractura, pero en bajos niveles. Algunos sectores del volcán, al oriente y occidente. Son sismos de bajas magnitudes. También la continuación de la salida de ceniza, la columna no alcanza más de un kilómetro", señaló el experto. Londoño hizo un llamado a estar pendientes de la evolución del volcán, pues su estado sigue siendo muy inestable y aún persisten anomalías térmicas. Ofrecen recompensa por asesinato de lideresa transgénero en El Carmen de BolívarMuerte por un cilantro: hombre fue asesinado por oponerse al robo de un manojoEscopolamina, ataques armados y persecuciones: radiografía del robo a turistasVALERIA CASTRO VALENCIA
+REDACCIÓN ALCANCE DIGITAL
+EL TIEMPO¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-condiciones-ahora-que-la-zona-de-alto-riesgo-fue-reducida-768452
+</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: ¿cómo son las condiciones ahora que es menor la zona de riesgo?</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>La Unidad Nacional de Gestión del Riesgo de Desastres (UNGRD) redujo en cinco kilómetros el área alto riesgo del volcán Nevado del Ruiz, que continúa en nivel de actividad naranja por su comportamiento inestable. Ahora el área de alto riesgo ya no es de 15 kilómetros, sino de 10 kilómetros.(Puede leer: Volcán Nevado del Ruiz: continúa la sismicidad y las emisiones de cenizas)
+Las familias que evacuaron y viven en las zonas de entre los 10 y los 15 kilómetros, podrán regresar a sus fincas.La decisión de la UNGRD se debe a una solicitud que el gobernador de Caldas, Luis Carlos Velásquez, le pidió al director de esa entidad, Olmedo López, quien el fin de semana pasado se reunió en Manizales con autoridades locales.
+El Gobernador explicó que el objetivo de la reducción del área de influencia del volcán es aminorar las afectaciones económicas y sociales que ha vivido la región desde el 30 de marzo pasado, cuando la actividad del volcán pasó de amarillo a naranja.
+(Lea también: Huila: gas domiciliario llegará a zonas campesinas de Gigante, La Plata y Garzón)
+"Muchos colegios, no todos, pueden volver a la normalidad; muchas familias pueden volver a integrarse -muchos menores de edad estaban por fuera del área de influencia-, muchos hoteles pueden regresar nuevamente a ofrecer sus diferentes servicios y, por supuesto, tantas cadenas de valor que giran alrededor del volcán Nevado del Ruiz", explicó Velásquez.
+Para el gobernante departamental, la reducción del área de influencia del volcán Nevado del Ruiz es un "regreso a la normalidad", ya que los habitantes podrán retornar sus actividades cotidianas.En total, ocho veredas del departamento de Caldas quedan por fuera de la zona de amenaza. Esas veredas son:
+- La Esperanza
+- Frailes
+- La Laguna
+- Termales
+- Laguna Alta
+- Gallinazo
+- Montaño
+- PotosíOfrecen recompensa por asesinato de lideresa transgénero en El Carmen de BolívarMuerte por un cilantro: hombre fue asesinado por oponerse al robo de un manojoLiberan a dos mujeres que habían sido secuestradas en zona insular de Cartagena</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-aumento-la-sismicidad-dentro-del-volcan-766692
 </t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: reportan leve aumento de actividad sísmica en el volcán</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>El Servicio Geológico Colombiano informó en su más reciente reporte sobre la actividad del volcán Nevado del Ruiz que la actividad sísmica relacionada con el movimiento de fluidos dentro del volcán aumentó levemente con respecto al 7 de mayo, que había aumentado ya con respecto al día anterior.
 (Lea también: Nevado del Ruiz: en 8 años han descubierto 19 volcanes más en tierras de Caldas)"Los sismos se localizaron en el cráter Arenas y de manera dispersa alrededor del mismo, a una distancia máxima de 5 kilómetros y a profundidades entre 1 y 5 kilómetros. Con respecto a la actividad superficial, la altura máxima de la columna de gases y/o ceniza observada fue de 1.000 metros medidos desde la cima del volcán", dijo el SGC.
@@ -443,19 +728,19 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-boletin-del-servicio-geologico-9-de-mayo-766651
 </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: leve aumento en actividad sísmica del volcán</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>El Servicio Geológico Colombiano informó en su boletín de este 9 de mayo, que la actividad sísmica del volcán Nevado del Ruiz ha presentado un leve aumento en el número de sismos y en la energía sísmica liberada. 
 (Le puede interesar: Volcán Nevado del Ruiz | Anomalías térmicas alcanzan valores mayores: qué ocurre). Además, indicó que se ha registrado, por medio de las cámaras que monitorean la zona, emisiones pulsátiles de ceniza que "tienen una altura máxima de la columna de gases y ceniza de 1000 metros medidos desde la cima del volcán y estuvo relacionada a una emisión de ceniza y afirman que fue registrada el 8 de mayo a las 07:27 p.m". 
@@ -466,37 +751,37 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-llaman-a-no-acostumbrarse-a-anomalias-por-que-766469
 </t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Llamado clave sobre volcán Nevado del Ruiz: ¿por qué no hay que acostumbrarse?</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Los ojos de las autoridades y los habitantes han estado puestos sobre el volcán Nevado del Ruiz, el cual completa más de un mes en nivel de actividad naranja. Desde entonces, se tiene la posibilidad de que haga una erupción en cuestión de días o semanas.(Siga leyendo: Volcán Nevado del Ruiz | Anomalías térmicas alcanzan valores mayores: qué ocurre).Con el pasar de las semanas, los reportes del Servicio Geológico Colombiano (SGC) dan cuenta del registro de sismicidad, salida de ceniza y azufre y anomalías térmicas detectadas por las plataformas satelitales. Como tienden a ser recurrentes varios de estos aspectos en el volcán, el SGC insiste en no normalizarlos, pues la comunidad y las autoridades pueden "acostumbrase" a que "no haya variaciones por varios días"."Este comportamiento ha permanecido por varias semanas de una manera muy similar. No quiere decir que el volcán ya retornó a sus niveles normales. Por el contrario, la sismicidad sigue siendo muy alta en comparación con la que tenía meses atrás", comentó John Makario Londoño, director técnico de geoamenazas de la entidad.(Le recomendamos: Volcán Nevado del Ruiz: ¿qué es el punto rojo que se ve desde el espacio?).Una vez más reiteran la inestabilidad, es decir, el volcán presentan condiciones irregulares que ameritaron declararlo en nivel de actividad naranja."El volcán no está normal. Tiene un nivel de actividad demasiado alto. Con los días se va acostumbrado a que salga ceniza... ¡No! Es importante no acostumbrarse a esas situaciones que no están en términos normales", señaló el experto.Incluso, Londoño aseguró que "a veces" el volcán ha mostrado que "cuando se calma mucho después de una actividad alta es cuando ha hecho erupciones". Eso sí, aclaró que no es posible predecir su comportamiento ni tampoco estimar si hará o no erupción.(Lea también: Nevado del Ruiz: ¿qué son las cenizas volcánicas y por qué son nocivas?).Por tanto, le hizo el llamado a la comunidad para que siga las recomendaciones de las autoridades, como lo es la evacuación preventiva.El comportamiento del volcán es muy inestable. Por tanto, "continúa la probabilidad de que en días o semanas haga una erupción mayor a las que ha hecho en los últimos 10 años", dice el SGC.El cambio de nivel naranja a amarillo requiere de "un tiempo prudencial donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad, el cual puede extenderse a varias semanas".- Un mes del volcán Nevado del Ruiz en actividad naranja: las impactantes imágenes.- Nevado del Ruiz: Caldas pide reducir zona de alto riesgo para recuperar trabajos.- Si hay erupción del volcán Nevado del Ruiz, ¿se puede consumir agua de la llave?- Volcán Nevado del Ruiz | ¿Rayos y fallas en telefonía son señal de erupción?REDACCIÓN ÚLTIMAS NOTICIAS</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-registra-anomalias-termicas-mayores-766350
 </t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz | Anomalías térmicas alcanzan valores mayores: qué ocurre</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>El director de Geoamenazas del Servicio Geológico Colombiano, John Makario Londoño, informó que la actividad del volcán Nevado del Ruiz el pasado 7 de mayo y hoy, 8 de mayo, sigue con los mismos niveles que los días anteriores, sin embargo, "se han detectado algunas anomalías térmicas que han alcanzado valores mayores a los que se han podido detectar en días anteriores". 
 (Le puede interesar: Llamado clave sobre volcán Nevado del Ruiz: ¿por qué no hay que acostumbrarse?).Además, Londoño afirmó que la actividad que se ha presentado es similar a las que se presentó en el 2015 con el desplazamiento del domo de lava que se dio en el fondo del cráter.No obstante, aclaró que esto no significa que el cráter haga erupción por la presencia de estas anomalías, sino que es otro parámetro a las que uno espera en un nivel de actividad naranja.
@@ -507,19 +792,19 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-piden-reducir-zona-de-alto-riesgo-en-caldas-766372
 </t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Nevado del Ruiz: Caldas pide reducir zona de alto riesgo para recuperar trabajos</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>El nuevo director de la Unidad Nacional de Gestión del Riesgo de Desastres (UNGRD), Olmedo López Martínez, visitó Caldas en las últimas horas. Allí lideró un Puesto de Mando Unificado en el que desde el departamento le hicieron una contundente solicitud: que reduzcan la zona considerada de mayor riesgo en las inmediaciones del volcán Nevado del Ruiz.
 (Lea también: Volcán Nevado del Ruiz | Último boletín reporta sismos por movimiento de fluido)Dada su declaratoria de actividad naranja -en la que está desde el 31 de marzo- la zona que está cerrada y de donde se solicitó una evacuación preventiva de las familias, corresponde a 15 kilómetros a la redonda del cráter arenas. La solicitud es que se reduzca a 10 y así varios establecimientos comerciales puedan abrir sus puertas y no seguir en pérdida total como hasta ahora."Esos cinco kilómetros de diferencia son fundamentales para la economía del departamento. No es relajarnos, es seguir trabajando como lo estamos haciendo, con el objetivo de que los hoteles termales y otros restaurantes y espacios turísticos puedan tener mejor desempeño económico y agroindustrial, al igual que las familias del sector que dependen de ofrecer bienes y servicios de cara al turismo", explicó el gobernador de Caldas, Luis Carlos Velásquez.
@@ -536,19 +821,19 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-aumento-la-sismicidad-dentro-del-volcan-766343
 </t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: sigue aumentando la actividad sísmica dentro del volcán</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>El Servicio Geológico Colombiano informó en su más reciente reporte sobre la actividad del volcán Nevado del Ruiz que la actividad sísmica relacionada con el movimiento de fluidos dentro del volcán aumentó con respecto al 6 de mayo, que había aumentado ya con respecto al día anterior.
 (Lea también: Nevado del Ruiz: en 8 años han descubierto 19 volcanes más en tierras de Caldas)"Los sismos se localizaron en el cráter Arenas y de manera dispersa alrededor del mismo, a una distancia máxima de 6 km y a profundidades entre 1 y 5 kilómetros. Con respecto a la actividad superficial, la altura máxima de la columna de gases y/o ceniza observada fue de 1800 metros medidos desde la cima del volcán", dijo el SGC.
@@ -558,6 +843,677 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/vida/medio-ambiente/nevado-del-ruiz-que-son-las-cenizas-volcanicas-y-por-que-son-nocivas-766048
+</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nevado del Ruiz: ¿qué son las cenizas volcánicas y por qué son nocivas?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>La actividad del volcán Nevado del Ruiz ya completa 38 días en nivel naranja y desde el Servicio Geológico Colombiano (SGC) alertan que "existe una probabilidad de que en días o semanas haga una erupción mayor a las que ha hecho en los últimos días 10 años".
+Lea también: (UNGRD recomienda evacuación inmediata de cercanías al cráter del Nevado del Ruiz)En el más reciente reporte entregado por la entidad se indica que la actividad sísmica asociada a fracturamiento de roca al interior del edificio volcánica aumentó el 6 de mayo en comparación con el día inmediatamente anterior. 
+"Esta sismicidad estuvo localizada principalmente en el cráter Arenas y en los sectores nororiental, oriental y suroriental del volcán, a una distancia máxima de 2 km a partir de este y con profundidades entre 2 y 6 km", explica el SGC. 
+Algunos de estos sismos -indica la entidad- se relacionaron a la actividad del domo (protuberancia o montículo) de lava ubicado en el fondo del cráter.
+En cuanto a la emisión de ceniza, el SGC reporta que su expulsión también continúa y su columna, mezclada con gases, alcanzó los 800 metros de altura desde mediados de la cima del volcán.
+Lea además: (Volcán Nevado del Ruiz: ¿por qué la emisión de ceniza es un signo que preocupa?)Se trata de partículas con un tamaño menor a 2 mm, las cuales pueden ser de rocas, vidrio o cristales de minerales. Esta composición puede variar dependiendo del tipo de volcán y erupción, dice el SGC. 
+Se originan porque es la consecuencia de procesos en el interior de un volcán. "En un proceso eruptivo, la presión del magma y sus gases pueden fragmentar la roca al interior del volcán en pedazos. Estos fragmentos salen a gran velocidad a través del cráter", agrega la entidad. Asimismo, el SGC detalla que solo los volcanes que se encuentran en procesos eruptivos o con un comportamiento inestable emiten ceniza. "Esto es más común en volcanes de tipo explosivo" y "aunque no todos los están activos la emiten, sí puede ocurrir en aquellos con nivel de actividad amarillo, naranja y rojo". 
+En cuanto a si es perjudicial para la salud, el Servicio Geológico explica que "grandes cantidades de ceniza en la atmósfera pueden afectar la calidad del agua y del aire, y generar efectos nocivos en el sistema respiratorio. Esto depende de la cercanía al volcán y la dirección de su dispersión". 
+REDACCIÓN MEDIO AMBIENTE¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/comportamiento-del-volcan-nevado-del-ruiz-hoy-domingo-7-de-mayo-766073
+</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nevado del Ruiz sigue inestable: se reportan sismos al interior del volcán</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>En un nuevo informe, el Servicio Geológico Colombiano (SGC) indicó que se mantiene la inestabilidad en el Volcán Nevado del Ruiz.
+(Le recomendamos leer: Nevado del Ruiz: ¿Qué son las cenizas volcánicas y por qué son nocivas?).
+Ya ha pasado un poco más de un mes desde que los organismos de emergencia decretaron el estado de alerta naranja, lo que significa que el volcán puede hacer erupción en los próximos días o semanas.Sin embargo, desde el SGC afirmaron que los sismos continúan al interior del cráter del volcán y que están relacionados con el fracturamiento de rocas en la montaña.
+Así mismo, se informó que continuaba la emisión de cenizas y materia particulado que podría llegar hasta los municipios de Murillo, en Tolima, y de Manizales en Caldas.
+(Le podría interesar: Se mantiene la actividad sísmica en el cráter del volcán Nevado del Ruíz).
+Cámaras y equipos técnicos instalados alrededor del Nevado monitorean su actividad y envían reportes periódicos a los centros de análisis que siguen de cerca el comportamiento del volcán.
+JUAN PABLO CONTRERAS RÍOS
+REDACCIÓN ÚLTIMAS NOTICIASVolcán Nevado del Ruiz: caída de ceniza en Manizales, Villamaría y NeiraVolcán Nevado del Ruiz: ¿por qué la emisión de ceniza es un signo que preocupa?Volcán Nevado del Ruiz: ¿qué es el punto rojo que se ve desde el espacio?¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/asi-se-comporta-el-volcan-nevado-del-ruiz-hoy-6-de-mayo-765922
+</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Se mantiene la actividad sísmica en el cráter del volcán Nevado del Ruíz</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Desde hace más de un mes, el volcán Nevado del Ruiz ha presentado una inestabilidad que ha obligado a las autoridades colombianas a decretar estado de alerta naranja, ante la posible erupción de la falla geológica.
+(Le recomendamos leer: Así afectaría al clima una erupción volcánica y otros datos sobre volcanes).
+Comunidades que rodean las inmediaciones de la montaña ya han sido evacuadas por prevención y los servicios de emergencia en Tolima, Caldas y Risaralda están listos para atender una eventual emergencia.Según el último reporte entregado por el Servicio Geológico Colombiano (SGC), la actividad sísmica ha predominado en el interior del volcán y se han registrado movimiento de fluidos en los conductos de la montaña.
+Así mismo, continúan las emisiones pulsátiles de ceniza y la desgasificación de dióxido de azufre.
+(Le podría interesar: Volcán Nevado del Ruiz: caída de ceniza en Manizales, Villamaría y Neira).
+“Todos estos indicadores ratifican lo que desde el SGC hemos reiterado: la actividad del volcán Nevado del Ruiz sigue siendo muy inestable. Es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros”, se lee en el último informe entregado por el SGC.
+Desde esa entidad también reiteran la necesidad de evacuar las zonas aledañas a la montaña, ya que estar en nivel naranja significa la posibilidad de una erupción mayor a las que se han presentado en los últimos 10 años.
+JUAN PABLO CONTRERAS RÍOS
+REDACCIÓN ÚLTIMAS NOTICIASVolcán Nevado del Ruiz: ¿por qué la emisión de ceniza es un signo que preocupa?Reportan dos temblores cerca al volcán Nevado del Ruiz: esta fue su magnitudVolcán Nevado del Ruiz: ¿qué es una anomalía térmica en un volcán?¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-boletin-extraordinario-5-de-mayo-765679
+</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: caída de ceniza en Manizales, Villamaría y Neira</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano (SGC) informó en su más reciente boletín que, en la mañana de este 5 de mayo, la actividad volcánica del Nevado del Ruiz ha aumentado en comparación a los días anteriores. 
+(Le puede interesar: Reportan dos temblores cerca al volcán Nevado del Ruiz: esta fue su magnitud). "La sismicidad estuvo localizada principalmente en el sector oriental-nororiental del volcán, a distancias entre 2 y 5 km a partir del cráter Arenas y en el cráter mismo y, en menor proporción hubo sismos en el sector suroriental. La profundidad de todos los sismos registrados osciló entre 1 y 5 km", aseguró el SGC por medio de un comunicado. 
+También, se refirieron al sismo que se registró en la mañana que tuvo una magnitud de 2,2 y que se localizó a 4 km, aproximadamente, al oriente-nororiente del cráter. Este sismo se reportó en el sector de La Cabaña, municipio de Casabianca, en el departamento del Tolima.
+Así mismo, indicaron que se presentó caída de ceniza en los municipios de Neira y Manizales en el departamento de Caldas. De igual manera, el Servicio Geológico recibió notificó, en lo corrido de esta mañana, caída de ceniza en el municipio de Villamaría.
+"La actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos continúa predominando en el volcán. Ayer 4 de mayo y en lo que va del día de hoy, esta sismicidad ha presentado un comportamiento similar en cuanto a número de sismos y a energía sísmica liberada respecto al día anterior (3 de mayo). Algunas de las señales sísmicas asociadas a este tipo de sismicidad han sido relacionadas con emisiones pulsátiles de ceniza confirmadas a través de las cámaras web utilizadas para el monitoreo volcánico", afirmó el SGC.
+(Le puede interesar: Volcán Nevado del Ruiz: ¿por qué la emisión de ceniza es un signo que preocupa?).El mensaje del Servicio Geológico sigue siendo el mismo que advierte hace un mes: el nivel de actividad del volcán Nevado del Ruiz permanecerá en nivel naranja por varias semanas. 
+Tenga en cuenta el nivel naranja indica que existe una probabilidad de que en días o semanas haga una erupción mayor a las que ha hecho en los últimos 10 años.
+"Es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros. Sin embargo, esto no implica que el volcán haya retornado a sus niveles normales de actividad, por lo que se recomienda no acostumbrarse a estos cambios oscilatorios de actividad y pensar que es una actividad normal del volcán", dice también el comunicado.
+La entidad invita a los colombianos a permanecer en calma seguir todas las instrucciones de la Unidad Nacional para la Gestión del Riesgo de Desastres (UNGRD) y autoridades locales. De igual manera, sugiere que los ciudadanos estén atentos a la información proporcionada por el Servicio Geológico Colombiano sobre la evolución del estado del volcán.Laura Camila Ramos 
+REDACCIÓN ÚLTIMAS NOTICIAS Volcán Nevado del Ruiz hoy 3 de mayo: leve incremento en la energía sísmicaVolcán Nevado del Ruiz: ¿qué es el punto rojo que se ve desde el espacio?‘Gobierno pide evacuar, pero no hay a dónde ir’: vecinos del Nevado del Ruiz¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/vida/medio-ambiente/volcan-nevado-del-ruiz-por-que-emision-de-ceniza-es-signo-que-preocupa-765235
+</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: ¿por qué la emisión de ceniza es un signo que preocupa?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Aunque en las últimas semanas no ha crecido la columna de ceniza emitida por el volcán Nevado del Ruiz, los científicos del Servicio Geológico Colombiano (SGC) afirman que desde mediados del 2021 se ha observado un mayor número de emisiones con altura mayor a 2.000 metros medidos desde de la cima del volcán.
+De hecho, algunas columnas han pasado los 3.000 metros, como las registradas el 12 de abril de 2022, 10 de mayo de 2022, 18 de agosto de 2022 y 2 de mayo de 2023.
+Lea además: (Nevado del Ruiz: así se ve la actividad del volcán desde el espacio)."Partiendo de que las alturas de columna registradas para en el volcán en los últimos días están dentro del rango de sus valores históricos recientes -un valor como el del 2 de mayo de 2023 de 3.000 metros- no significa que esté incrementando", detallan desde (SGC).
+Para evaluar su incremento -explican los expertos- se deben estudiar los datos con mayor frecuencia en el tiempo, y, además, se tendría que analizar este parámetro junto con otros para indagar qué significa dentro del contexto de la actividad del volcán en ese momento.Entre tanto, el SGC detalla que un incremento en el número de emisiones de ceniza y un aumento en las alturas de columna podrían indicar mayor inestabilidad del sistema volcánico, la cercanía de un cuerpo magmático a la superficie, el aporte de nuevo material magmático, la interacción entre los sistemas hidrotermal y magmático, entre otros fenómenos.
+"Sin embargo, este parámetro se evalúa integralmente con otros, por ejemplo, con la sismicidad, la deformación, el tipo y cantidad de gases volcánicos, para determinar su causa y dependiendo de esta cobra importancia en la determinación de un cambio en el nivel de actividad", dicen los científicos del SGC. (Además: Reportan dos temblores cerca al volcán Nevado del Ruiz: esta fue su magnitud).Asimismo, afirman que las columnas de gas y vapor (plumas volcánicas) son una expresión en superficie de procesos relacionados con la actividad volcánica; no obstante, la altura que alcancen no depende solo de la actividad volcánica, sino también de las condiciones meteorológicas al momento de la emisión. Por eso, a la hora valorar este parámetro se deben tener en cuenta variables meteorológicas.
+"En general, el magma contiene gases, cuando estos se escapan del magma, se emiten temperaturas elevadas y ascienden en forma de columna hasta alcanzar la superficie. Estas columnas de gas caliente son "inyectadas" en la atmósfera y se mezclan con el ambiente, ascendiendo hasta el momento en que la temperatura de la columna se equilibra con la temperatura atmosférica, ahí el ascenso se detiene y la columna queda a disposición de las condiciones meteorológicas (dirección y velocidad de viento) imperantes en la zona", indican los expertos. 
+Lea además: (Nevado del Ruiz: 'Sentimos rugir el volcán, pero no tenemos miedo').
+A partir de este momento -continúa la explicación- los vientos controlan la pluma volcánica y se produce el transporte de gases, vapor de agua, cenizas, aerosoles, mediante el fenómeno de advección (transporte horizontal de un fluido).
+Dependiendo de las características de la pluma volcánica y de la fuerza y velocidad del viento, este puede dispersar la columna cientos de metros e incluso kilómetros desde su foco de emisión."El ascenso vertical y posterior dispersión de las columnas está determinado por variables propias del volcán como la temperatura del gas, la velocidad de salida, la composición de la columna, si tiene o no material particulado, el tamaño de las partículas, y por variables atmosféricas como la temperatura atmosférica, la velocidad del viento, la presión, la humedad, por mencionar algunas. Las columnas de gases y vapor tienen diversas formas, que van desde pequeños chorros sobre la cima hasta columnas robustas que se inyectan a varios kilómetros sobre la cima del volcán y son características de volcanes activos", puntualizan.
+(Siga leyendo: Nevado del Ruiz: ¿qué significan los ruidos en la parte norte del volcán?)
+CAMILO PEÑA CASTAÑEDA
+SUBEDITOR VIDA DE HOY</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/temblor-hoy-en-colombia-se-sintio-cerca-al-volcan-nevado-del-ruiz-765423
+</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Reportan dos temblores cerca al volcán Nevado del Ruiz: esta fue su magnitud</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Dos nuevos sismos se registraron este 4 de mayo. De acuerdo con el Servicio Geológico Colombiano, los movimientos ocurrieron en cercanías al volcán Nevado del Ruiz.(Lea también: Volcán Nevado del Ruiz: ¿qué es el punto rojo que se ve desde el espacio?).La magnitud del primero fue de 2,2 y el epicentro fue a 14 kilómetros del municipio de Murillo, Tolima. La profundidad esta vez fue de 5 kilómetros.Este temblor se reportó directamente en área de influencia del volcán que completa más de un mes en nivel de actividad naranja.(Siga leyendo: Volcán Nevado del Ruiz: ¿por qué la emisión de ceniza es un signo que preocupa?).El segundo sismo ocurrió en la mañana del jueves, sobre las 11:13 a. m., en Armero, Tolima, a varios kilómetros de distancia del complejo volcánico; eso sí, esta zona no está en el área de influencia.La magnitud fue de 2,6 y el epicentro fue a nueve kilómetros del municipio tolimense. La profundidad fue menor a 30 kilómetros.Por el momento, las autoridades no reportan afectaciones ni víctimas.(No deje de leer: Un mes del volcán Nevado del Ruiz en actividad naranja: las impactantes imágenes).Google utiliza el sistema 'ShakeAlert' una red de 1.675 sensores sísmicos para detectar temblores. La aplicación analiza datos de los sensores para determinar la ubicación y la magnitud del terremoto.
+"El sistema de alertas de terremotos de Android es un servicio gratuito que detecta terremotos en todo el mundo y puede alertar a los usuarios de Android antes de que comience el temblor", describe el sitio web de la compañía.
+La opción opera de forma gratuita y su principal objetivo es apoyar a las autoridades y a las personas para prevenir las víctimas fatales en estos eventos naturales.Este es el paso a paso para activar las notificaciones de sismo según el soporte de Google:
+1. Abra la configuración del teléfono.
+2. Presione 'Seguridad y emergencia' y, luego, 'Alertas de terremotos'.
+Si no encuentra 'Seguridad y emergencia', presione 'Ubicación' y, luego, 'Avanzada', posteriormente seleccione 'Alertas de terremotos'.- Mapa: si volcán Nevado del Ruiz hace erupción, estos lugares estarían en riesgo.- ¿Podría ocurrir un terremoto si hay erupción del Nevado del Ruiz? SGC aclara.- Si hay erupción del volcán Nevado del Ruiz, ¿se puede consumir agua de la llave?- Volcán Nevado del Ruiz está emitiendo dióxido de azufre: ¿esto qué significa?REDACCIÓN ÚLTIMAS NOTICIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-volcan-hoy-3-de-mayo-aumento-de-sismos-y-de-fluidos-764828
+</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz hoy 3 de mayo: leve incremento en la energía sísmica</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano (SGC) entregó el boletín de actividad en el volcán Nevado del Ruiz: "Continúa el predominio de la actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos y un leve incremento en la energía sísmica respecto al día anterior (1 de mayo)".
+(Siga leyendo: Volcán Nevado del Ruiz: ¿qué es el punto rojo que se ve desde el espacio?).En el comunicado también se menciona que las señales sísmicas han estado asociadas a emisiones pulsátiles de ceniza que se pueden observar a través de las cámaras web
+utilizadas para el monitoreo volcánico.
+Para el martes 2 de mayo, a actividad sísmica asociada a fracturamiento de roca dentro del volcán mostró una disminución en el número de sismos registrados y en la energía sísmica liberada, en comparación al día anterior. 
+(Además: ‘Gobierno pide evacuar, pero no hay a dónde ir’: vecinos del Nevado del Ruiz).El Servicio Geológico Colombiano puntualizó que los niveles de actividad sísmica, así como los niveles de desgasificación o salida pueden ser mayores o menores en comparación con otros días y hacen un llamado a la precaución.
+"Esto no implica que el volcán haya retornado a sus niveles normales de actividad, por lo que se recomienda no acostumbrarse a estos cambios oscilatorios de actividad y pensar que es una actividad normal del volcán".Video: así esquiaban los colombianos en el Nevado del Ruiz en los años 50Un mes del volcán Nevado del Ruiz en actividad naranja: las impactantes imágenes¿Qué son los lahares? Esto es lo que explica el SGC sobre estos fenómenosPamela Avendaño
+REDACCIÓN ÚLTIMAS NOTICIAS¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-que-es-el-punto-rojo-que-se-vio-desde-el-espacio-764652
+</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: ¿qué es el punto rojo que se ve desde el espacio?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Más de un mes completa el volcán Nevado del Ruiz en nivel de actividad naranja, lo que quiere decir que "existe la probabilidad de que en días o semanas haga una erupción mayor a las que ha hecho en la última década". En medio de los monitoreos, el Servicio Geológico Colombiano detectó una luz o punto rojo.(Además: Un mes del volcán Nevado del Ruiz en actividad naranja: las impactantes imágenes).La entidad sigue minuto a minuto el comportamiento del complejo volcánico gracias a numerosos equipos tecnológicos. Por ejemplo, cuentan con cámaras en distintos lugares alrededor del volcán para observarlo en tiempo real. Fuera de la Tierra, acuden a los satélites.El satélite Sentinel 2 de la Agencia Espacial Europea captó al volcán Nevado del Ruiz el pasado 23 de abril. La imagen muestra la nubosidad y, en medio de ella, un punto rojo.Según el SGC, ese punto es una de las anomalías térmicas "que actualmente hay en el fondo del cráter Arenas y que evidencia el flujo de calor proveniente del interior del volcán".Una anomalía térmica es una variación de temperatura en la superficie. Incluso, Luis Fernando Velasco, anterior director encargado de la Unidad Nacional para la Gestión del Riesgo de Desastres, había manifestado que las temperaturas podían alcanzar los 700 °C.(Siga leyendo: ‘Gobierno pide evacuar, pero no hay a dónde ir’: vecinos del Nevado del Ruiz)."Junto a otros indicadores, las anomalías térmicas son un parámetro crucial del monitoreo de volcanes porque muestran el aumento en la actividad volcánica y podrían ser precursores de una erupción", señaló el SGC.Anteriormente, las autoridades registraron una extraña luz que sorprendió a los habitantes de esta zona.(Le recomendamos: Video: así esquiaban los colombianos en el Nevado del Ruiz en los años 50)."Las emisiones de ceniza son comunes en el volcán Nevado del Ruiz, que lleva cerca de 10 años haciendo erupciones menores. A veces emiten luz, debido a la alta temperatura con la que el material particulado y los gases salen del volcán", manifestó el SGC.- Un mes del volcán Nevado del Ruiz en actividad naranja: las impactantes imágenes.- Mapa: si volcán Nevado del Ruiz hace erupción, estos lugares estarían en riesgo.- Volcán Nevado del Ruiz está emitiendo dióxido de azufre: ¿esto qué significa?REDACCIÓN ÚLTIMAS NOTICIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-alerta-y-evacuacion-preventiva-de-familias-764559
+</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>‘Gobierno pide evacuar, pero no hay a dónde ir’: vecinos del Nevado del Ruiz</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>La preocupación es notoria en las familias de 19 veredas del Tolima que viven a menos de 15 kilómetros del cráter Arenas del Volcán Nevado del Ruiz, y no es para menos toda vez que el sábado anterior la Unidad Nacional para la Gestión del Riesgo de Desastres (UNGRD) pidió a la evacuación inmediata de esas zonas de alto riesgo por una posible erupción.Esas zonas de alto riesgo están en los municipios de Murillo, Villahermosa, Herveo y Casabianca, en el norte del Tolima, por donde descienden los ríos Lagunilla y Azufrado.
+Uno de los campesinos más preocupados es Enrique García, presidente de la Junta de Acción Comunal de La Cabaña, una vereda a 2 kilómetros del cráter del volcán, donde la mayoría de sus habitantes quieren acatar la orden de evacuación, pero no tienen a dónde ir con sus hijos y animales.
+“El gobierno nos pide que salgamos de las veredas, pero al unísono aquí nos preguntamos: ¿para dónde nos vamos si no tenemos a dónde ir?”, dijo el líder comunal que administra una finca con más de 100 reses.Le puede interesar: El colombiano que perdió sus manos en Irak y hoy prepara empanadas y lechona
+En la vereda La Cabaña viven unas 15 familias que por años han convivido con el volcán y muchos a diario repiten lo mismo: “ya nos acostumbramos a convivir con el volcán”.
+Enrique García considera que lo ideal es evacuar hacia la zona urbana de Murillo que está a unos 18 kilómetros, pero le preocupan los temas de vivienda y el sustento para su familia.
+“En Murillo los arriendos de casas están entre 400 y 500.000 pesos al mes que se deben pagar por adelantado”, señaló.Lea también: Mujer tiene una aguja con hilo en su vientre y desde hace 10 años espera cirugía
+De 13 familias de su vereda tan solo 4 bajan en las noches a dormir con sus hijos a la zona urbana en casas de familiares y amigos. Las familias restantes permanecen en sus fincas en medio del peligro.
+“Las familias que no bajan a la zona urbana es porque no tienen dónde pasar la noche y, además, les da temor que los ladrones desocupen sus fincas y hasta se llevan las reses”, afirmó García.
+En las zonas vecinas al volcán muchos no creen en las promesas de subsidios de arriendo que hizo el gobierno y afirman que, “son promesas que al final terminan convertidas en mentiras”.
+“Si todos los campesinos en zona de riesgo nos bajamos a las zonas urbanas, quedamos de brazos cruzados, nadie nos daría empleo ya que solo sabemos criar ganado y sembrar papa”, aseguró el presidente de la Junta Comunal de la vereda La Cabaña.Además: Martín Contreras, el hombre que luchó contra un tiburón y vivió para contarlo
+Edward Ariza también hace parte de los cientos de campesinos que conviven con el Volcán Nevado del Ruiz y él señala que su situación es crítica debido a que carece de recursos para vivir en una zona urbana.
+Su familia la componen 7 personas ya que también ve a sus padres a los que sustenta y cuida en esa montaña fría a más de 5.000 metros de altura.
+“Cuando logramos dormir en la zona urbana, que es de vez en cuando, lo hacemos arrimados en casas de amigos, pero es difícil pues no hay cama para tanta gente, y terminamos incomodando a quienes nos ayudan de muy buena voluntad con el hospedaje”, aseguró Ariza.Le recomendamos: Su mamá los mató: el doloroso crimen de 2 niños y su papá policía en Bogotá
+Lo cierto es que a las familias no les alcanza la plata para pagar arriendos o comprar comida y, para colmo de males, “este año la inflación elevó los precios de los alimentos, el transporte y de todo lo que se necesita para vivir”.
+Alberto Ávila, concejal del municipio de Villahermosa, que está a unos 20 kilómetros en línea recta del volcán, señala que el gobierno nacional debe ofrecer garantías a las familias que salgan de sus veredas.
+“Es muy fácil solicitar la evacuación, pero en la práctica es un proceso complicado pues, ¿para dónde se van 1000 personas del Tolima que viven cerca del volcán?”, dijo.
+El concejal afirmó que, hasta el momento, el gobierno no ha brindado suficientes garantías a las familias para salir de las zonas de alto riesgo.
+También señaló que los mercados que a veces entregan las alcaldías “los consumen las familias en 3 o 4 días y después qué”. IBAGUÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-hoy-2-de-mayo-en-vivo-alerta-naranja-y-evacuaciones-764390
+</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz, EN VIVO: se presentan emisiones pulsátiles de ceniza</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Los sismos, las anomalías térmicas y la salida de una columna de ceniza del volcán Nevado del Ruiz son algunos de los puntos que hacen al Servicio Geológico Colombiano (SGC) mantener el nivel de actividad en naranja luego de un mes de decretada, eso quiere decir que existe una probabilidad o no de que haya una erupción.
+(Siga leyendo: Un mes del volcán Nevado del Ruiz en actividad naranja: las impactantes imágenes)."Hay que estar pendientes del volcán. Hay un magma que está debajo presionando y en los alrededores del volcán se puede presentar sismicidad. Eso es típico de volcán", expresó John Makario Londoño, director técnico de geoamenazas del SGC.(Además: Volcán Nevado del Ruiz: ¿qué es el punto rojo que se ve desde el espacio?).Siga aquí el minuto a minuto de este 2 de mayo:¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-revelan-videos-de-colombianos-esquiando-en-los-anos-50-764436
+</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Video: así esquiaban los colombianos en el Nevado del Ruiz en los años 50</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>En los años cincuenta era posible esquiar en la Cordillera de los Andes, esto debido a la extensa capa de hielo que la recubría. En medio del nivel de actividad naranja, Señal Memoria, desempolvó un video grabado en 1958 donde se muestra a varias personas esquiando en el Nevado del Ruiz.
+En ese momento, el volcán contaba con un área glaciar de 47.5 km², de acuerdo con el Instituto de Hidrología, Meteorología y Estudios Ambientales.
+(Siga leyendo: Volcán Nevado del Ruiz, EN VIVO: se presentan emisiones pulsátiles de ceniza).Según Señal Memoria: "En el período prehispánico, los indígenas quimbayas llamaron a la montaña 'Cumanday', que significa 'blanco hermoso'. Según lo indican las vallas que se encuentran en el Ruiz, este lugar fue especial para hacer pagamentos por parte de comunidades indígenas".
+Pero este fragmento de video muestra solo una parte de lo que era el Nevado del Ruiz, pues en 1996 fue el lugar escogido para retratar a las concursantes del Reinado Internacional del Café.
+(Además: Un mes del volcán Nevado del Ruiz en actividad naranja: las impactantes imágenes).Desde el pasado 30 de marzo se decretó nivel de actividad naranja en el volcán Nevado del Ruiz, esto significa que "existe la probabilidad de que en días o semanas el volcán Nevado del Ruiz haga una erupción mayor a las que ha hecho en la última década", según el Servicio Geológico Colombiano.
+En el último boletín del SGC, se especificó que continúan los movimientos de fluidos al interior de los conductos volcánicos y que algunas señales sísmicas han estado asociadas a emisiones pulsátiles de cenizaVolcán Nevado del Ruiz: Ejército habilita emisora para alertar a la comunidadOjo: solo el 1% de las familias de Caldas en zona de alto riesgo ha evacuadoNevado del Ruiz: más de 50.000 estudiantes se afectarían por posible erupciónPamela Avendaño
+REDACCIÓN ÚLTIMAS NOTICIAS¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-fotos-de-la-evolucion-en-un-mes-de-alerta-naranja-763679
+</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Un mes del volcán Nevado del Ruiz en actividad naranja: las impactantes imágenes</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>El 30 de marzo sobre las 10 p. m., el Servicio Geológico Colombiano (SGC) le informó al país una novedad en el volcán Nevado del Ruiz: el cambio de actividad de nivel amarillo a naranja. Uno de los factores para elevar la situación fue el número de sismos registrados, pues el día anterior -29 de marzo- se contabilizó la mayor cantidad desde 1985, año en el que iniciaron los monitoreos al complejo volcánico.(Además: Volcán Nevado del Ruiz: ¿cuáles son los riesgos de los lahares?).Tras un mes transcurrido con los ojos puestos, las autoridades mantienen el nivel de actividad en naranja, lo que quiere decir que "existe la probabilidad de que en días o semanas haga una erupción mayor a las que ha hecho en la última década".Se ha buscado evacuar a toda la población que está en zona de amenaza alta, mientras el volcán de naturaleza explosiva se mantiene inestable. Esta ha sido su evolución en imágenes:De acuerdo con los informes del SGC, entre el 29 y 30 de marzo hubo más de 12 mil sismos diarios, "siendo esta la mayor tasa diaria de sismicidad registrada desde que se inició el monitoreo sísmico en el volcán".Además, el 30 de marzo la magnitud o cantidad de energía liberada por el fracturamiento de roca fue una de las más altas: 3,1.(Siga leyendo: Volcán Nevado del Ruiz | ¿Rayos y fallas en telefonía son señal de erupción?).Entrado el mes de abril, la magnitud de los sismos incrementó ya que hubo uno con 3,9, calificándose como uno de las mayores registrados desde 1985.Sin embargo, descendió tanto la magnitud como el número de temblores que ocurrían al día (entre 5 mil y 10 mil). Surgió otro aspecto importante para analizar: aumentó la salida de gases volcánicos, vapor de agua y/o ceniza, como quedó registrado en varias imágenes.El Jueves Santo se marcó otro elemento vital para el seguimiento del volcán Nevado del Ruiz. Gracias a las plataformas satelitales, se tuvo reporte de las primeras anomalías térmicas en el cráter Arenas, es decir, la temperatura alcanzó niveles muy altos.(No deje de leer: Así es el poderoso cráter Arenas del volcán Nevado del Ruiz que tiene anomalías)."Desde el SGC este fenómeno fue interpretado como una posible migración de magma desde el suroccidente del volcán, a través de la falla La Palestina, hasta un reservorio de magma", expresaron. Es decir, detectaron movimiento de este material extremadamente caliente por las 'venas' del Nevado del Ruiz durante la Semana Santa."Es imaginarse la tierra como un huevo: la parte interior está la yema y la clara, la cascara es la corteza. Si se calienta por dentro y la cascara se encuentra intacta, no pasaría nada pero, si tuviera fallas, saldría el material caliente; así sucede con las cámaras y La Palestina", dijo Germán Prieto, geólogo y profesor asociado del programa de Geociencias de la Universidad Nacional, para EL TIEMPO.(En contexto: Volcán Nevado del Ruiz: la falla geológica por donde se mueve el magma).Luego de la Semana Santa, el Servicio Geológico Colombiano decidió no reportar más en sus boletines el número de sismos diarios producto del fracturamiento de roca, pues habían descendido notablemente y dejaban de ser "un indicador determinante de la actividad del volcán".El movimiento de magma, en cambio, junto con las anomalías térmicas y la salida constante de ceniza tomaron más relevancia. (Puede leer: Si hay erupción del volcán Nevado del Ruiz, ¿se puede consumir agua de la llave?).Incluso, gracias a los días despejados, ciudadanos en zonas aledañas y algunos pasajeros de avión lograron divisar en las mañanas la columna de ceniza.El cráter Arenas durante esa segunda semana de abril tuvo un aumento de la sismicidad, lo que se traducía en presión del magma al interior en un intento por salir. Deslice para ver más fotografías:(Le recomendamos: 'Será trabajar en call center', comerciantes de Caldas, en quiebra por el volcán).La tercera semana de abril estuvo caracterizada por la presión continúa del magma. Según las plataformas satelitales, las anomalías térmicas del cráter Arenas alcanzaron valores muy cercanos a los observados en 2015, por lo que el magma seguía movilizándose en busca de la superficie.Tres paquetes de imágenes fueron valiosos durante esa semana. Primero, cámaras del Servicio Geológico Colombiano captaron salida de ceniza con incandescencia o de color rojo."Las emisiones de ceniza son comunes en el volcán Nevado del Ruiz, que lleva cerca de 10 años haciendo erupciones menores. A veces emiten luz, debido a la alta temperatura con la que el material particulado y los gases salen del volcán", señaló la entidad.Segundo, la Fuerza Aérea reveló las primeras fotos y videos de sus vuelos a 30.000 pies de altura sobre el volcán con su SR-560, aeronave que, “mediante la utilización de sistemas optrónicos, permite la obtención de imágenes en tiempo real del comportamiento de este fenómeno natural”.(Lea también: Volcán Nevado del Ruiz está emitiendo dióxido de azufre: ¿esto qué significa?)."Pudimos constatar que el domo de lava permanece en el fondo del cráter; tiene un poco más de extensión, probablemente, por el empuje que ha tenido el magma", afirmó John Makario Londoño, director técnico de geoamenazas del SGC, al analizar las imágenes de los sobrevuelos.Tercero, imágenes de una supuesta grieta en el volcán circularon en redes sociales, generando alarma porque algunos creyeron que se trataba de un quiebre en la nieve.Incluso, internautas falsamente atribuyeron el "hallazgo" a personal del Ejército que hace presencia en la zona. De hecho, durante uno de sus monitores la fotografiaron, pero no la describieron como una "grieta".No es ninguna grieta. "Es una pared correspondiente al límite de un cuerpo de lava cristalizado, un rasgo que este volcán presenta desde hace años y que no tiene relación con su actividad actual", sentenció el SGC. Dependiendo de la cantidad de nieve o hielo que haya en la parte superior, esa pared puede ser más o menos visible.(Además: Pese a posible erupción, alcalde prepara Festival del volcán Nevado del Ruiz).Una buena señal, en medio del frenético seguimiento, fue detallada por el SGC: las emisiones de dióxido de azufre. "Indica que el sistema del volcán no está cerrado completamente; si lo estuviera, los gases al interior de la estructura se acumularían haciendo que la probabilidad de una erupción aumente exponencialmente".Deslice para ver más fotografías:El mes de abril en el volcán Nevado del Ruiz finalizó con la palabra más reiterada por las autoridades: intestabilidad. Aunque la cantidad de sismos en algunos días desciende, en otros puede aumentar, estar más cerca del cráter o tener un nivel de energía mayor.La salida de ceniza se ha convertido en un fenómeno también reiterativo a lo largo de las semanas. La columna, que ha alcanzado los 2,5 kilómetros de altura, se ha dispersado en distintas direcciones, cayendo en municipios de Tolima, Caldas, Risaralda y hasta en la ciudad de Manizales.Para pasar del nivel de actividad naranja a amarillo o verde, están atentos de cómo evoluciona el magma, material que está en el fondo del cráter y que busca una salida.  El cambio, como dice el SGC, requiere de "un tiempo prudencial donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad, el cual puede extenderse a varias semanas".- Mapa: si volcán Nevado del Ruiz hace erupción, estos lugares estarían en riesgo.- Volcán Nevado del Ruiz | ‘Los sismos en el cráter son lo que más preocupa’: SGC.- Nevado del Ruiz: ¿una erupción podría activar a otros volcanes? El SGC explica.- Volcán Nevado del Ruiz: estas son las veredas que deberían evacuar de inmediato.REDACCIÓN ÚLTIMAS NOTICIAS¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-que-son-los-lahares-y-que-los-causa-sgc-responde-763798
+</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>¿Qué son los lahares? Esto es lo que explica el SGC sobre estos fenómenos</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>El pasado jueves, el Ideam emitió alerta naranja en municipios cercanos al volcán Nevado del Ruiz y advirtió sobre la creación de lahares. "Suelen ser relativamente pequeños y su descarga y volumen dependen de la intensidad por la lluvia que se genere", aclaró el Servicio Geológico Colombiano (SGC).
+Respecto a esto, el Servicio Geológico Colombiano explicó de qué se tratan estos fenómenos de sedimento.
+(Siga leyendo: Volcán Nevado del Ruiz, EN VIVO: sismos al interior aumentan, uno cerca a cráter)"Los lahares o flujos de lodo (comúnmente conocidos como avalanchas) a los que hemos hecho referencia desde nuestra entidad para describir uno de los fenómenos volcánicos que podrían darse si el volcán Nevado del Ruiz hace una erupción de gran magnitud, técnicamente reciben el nombre de 'lahares primarios'", dice el comunicado.
+Según explica el SGC, este fenómeno se genera por el rápido deshielo de la nieve de los glaciares que cubren el volcán y solo se presenta cuando un volcán entra en erupción. "A medida que van avanzando por los ríos que nacen en el volcán pueden aumentar su volumen y llegar a ser muy destructivos, arrasando todo a su paso".
+Sin embago, se aclara que este no es un fenómeno que se pueda presentar en la alerta naranja que se mantiene desde el pasado 30 de marzo.
+(Además: Si hay erupción del volcán Nevado del Ruiz, ¿se puede consumir agua de la llave?).Este es el fenómeno al que hace referencia el Ideam y en el que se anuncia alerta naranja y amarilla en algunas zonas de influencia del Nevado del Ruiz. Al respecto, el SGC aclara:
+"Los lahares secundarios ocurren cuando material volcánico no consolidado (suelto), depositado en ciertos lugares por erupciones previas, suelen ser relativamente pequeños, y su descarga y volumen depende de la intensidad de la lluvia que los genere".Este fenómeno de lahares solo se presentará si el volcán hace una erupción de gran magnitud. Cabe aclarar que se mantiene en nivel de actividad naranja y que no es predecible.Nevado del Ruiz: ¿una erupción podría activar a otros volcanes? El SGC explicaVolcán Nevado del Ruiz | ¿Rayos y fallas en telefonía son señal de erupción?¿Podría ocurrir un terremoto si hay erupción del Nevado del Ruiz? SGC aclara¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/como-va-el-volcan-nevado-del-ruiz-hoy-en-vivo-reportes-sgc-28-abril-2023-763553
+</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz, EN VIVO: así evoluciona, hay monitoreo permanente</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Los sismos, las anomalías térmicas y la salida de una columna de ceniza del volcán Nevado del Ruiz son algunos de los puntos que hacen al Servicio Geológico Colombiano (SGC) mantener el nivel de actividad en naranja a cerca de cumplir un mes. Eso quiere decir que existe una probabilidad o no de que haya una erupción.(Además: Volcán Nevado del Ruiz: Ideam emite alertas por riesgo de formación de lahares)."Hay que estar pendientes del volcán. Hay un magma que está debajo presionando y en los alrededores del volcán se puede presentar sismicidad. Eso es típico de volcán", expresó John Makario Londoño, director técnico de geoamenazas del SGC.(De su interés: Volcán Nevado del Ruiz | ¿Qué fenómenos podrían ocurrir si hace erupción?).A continuación, siga el minuto a minuto de este 28 de abril del 2023:REDACCIÓN ÚLTIMAS NOTICIAS¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-hoy-en-vivo-ultimas-noticias-alerta-naranja-763182
+</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz, EN VIVO: sismos al interior aumentan, uno cerca a cráter</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A cerca de cumplir un mes el nivel de actividad naranja en el volcán Nevado del Ruiz -lo que significa probabilidad de que haya una erupción mayor a la de los últimos diez años-, la energía de los sismos en las recientes jornadas ha aumentado, así como la longitud de la columna de ceniza que pueden observar habitantes de zonas cercanas.(Lea también: Volcán Nevado del Ruiz | ¿Qué fenómenos podrían ocurrir si hace erupción?)."El volcán no se va a calmar de un día para otro. (...) La actividad fluctúa, puede por momentos disminuir o aumentar. No podemos bajar la guardia", ha dicho John Makario Londoño, director técnico de geoamenazas del Servicio Geológico Colombiano.Siga el minuto a minuto de este 27 de abril del 2023:REDACCIÓN ÚLTIMAS NOTICIAS¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-municipios-en-alerta-naranja-por-lahares-763259
+</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: Ideam emite alertas por riesgo de formación de lahares</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Desde que el 30 de marzo se declaró el nivel de actividad en naranja en el volcán Nevado del Ruiz, las autoridades han desplegado acciones para evacuar a comunidades de las zonas aleñadas que se podrían ver afectadas en caso de una posible erupción. En ese sentido, el Instituto de Hidrología, Meteorología y Estudios Ambientales, Ideam, emitió alerta naranja y amarilla para distintos municipios del área de influencia por riesgos de formación de lahares.(Además: Volcán Nevado del Ruiz: la falla geológica por donde se mueve el magma).Lahares secundarios se contemplan como un fenómeno. Es material volcánico depositado en ciertos lugares por erupciones previas que puede ser removido por la lluvia. "Suelen ser relativamente pequeños y su descarga y volumen dependen de la intensidad por la lluvia que se genere", aclara el SGC.(Siga leyendo: Volcán Nevado del Ruiz está emitiendo dióxido de azufre: ¿esto qué significa?).En Tolima, se recomienda atención a las zonas rurales de Villahermosa, Casabianca, Líbano, Lérida, Falan, Armero Guayabal, Murillo, Venadillo y Ambalema por la formación de lahares que podrían descender por los valles del los ríos Lagunilla, Sabandija y Recio.(Le recomendamos: ¿Hay una 'grieta' en el volcán Nevado del Ruiz? Esta es la verdadera razón).Ese fenómeno podría bajar, así mismo, por la cuenca del río Gualí. Así que las zonas rurales de los municipios de Herveo, Casabianca, Fresno, Palocabildo,
+Falan, Mariquita y Honda (Tolima), y las cabeceras municipales de Mariquita y Honda (Tolima) están en alerta naranja.Por los valles de las quebradas Nereidas, Alfombrales, ríos Molinos, Claro y Chinchiná, igualmente, podrían tener repercusión los lahares. En Caldas, Manizales, Villamaría, Chinchiná, Palestina, Neira y Anserma están en alerta naranja, según el Ideam.Aunque en el boletín del Ideam esté en el pronóstico de amenaza de deslizamiento en área de influencia del volcán Nevado del Ruiz, la alerta en el municipio de Quindío se emite por las lluvias, no por la actividad del complejo volcánico."En Salento estamos en amenaza baja por el nevado. Ideam tiene alerta roja por deslizamientos, las lluvias han afectado las vías y el municipio las ha atendido de manera oportuna", dijo Juan Pablo Granados, coordinador de gestión del riesgo de Salento.- Si hay erupción del volcán Nevado del Ruiz, ¿se puede consumir agua de la llave?- En medio de emergencia por el Nevado del Ruiz, la UNGRD quedaría sin director.- Luis Alfredo Garavito tiene cáncer de ojo; esta es la reveladora foto en cárcel.- Gustavo Bolívar confirma su intención de ser candidato a la Alcaldía de Bogotá.REDACCIÓN ÚLTIMAS NOTICIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/vida/medio-ambiente/volcan-nevado-del-ruiz-ungrd-quedaria-sin-director-por-salida-de-ministros-763081
+</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>En medio de emergencia por el Nevado del Ruiz, la UNGRD quedaría sin director</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>El remezón político que generó los cambios en siete ministerios por parte del presidente Gustavo Petro dejó a un damnificado, del cual no se tiene certeza sobre su futuro: la Unidad Nacional de Gestión de Riesgos y Desastres (UNGRD).
+Esto por cuenta del nombramiento de Luis Fernando Velasco, quien hasta ahora era el director encargado de la entidad, como nuevo ministro de Interior, aprovechando su amplia experiencia en el Congreso, con lo que tiene ahora la misión de sacar adelante en el legislativo las reformas presentadas por el Gobierno.(Lea: Volcán Nevado del Ruiz, EN VIVO: llaman a no bajar la guardia por la actividad).De esta forma, la UNGRD quedaría sin una cabeza, lo cual llama la atención si se tiene en cuenta que esta entidad es la encargada de coordinar con los municipios las diferentes acciones de prevención ante una posible erupción del volcán Nevado del Ruiz.Y es que vale recordar que, según el último informe del Sistema Geológico Colombiano (SGC), "la actividad del volcán Nevado del Ruiz sigue siendo muy inestable", tanto en su actividad sísmica como por sus anomalías térmicas, por lo que continúa habiendo una alta probabilidad de erupción.
+Cabe recordar que Velasco fue nombrado como encargado de la UNGRD al mismo tiempo que se desempeñaba como alto consejero presidencial para las regiones.  De esta forma, según pudo conocer EL TIEMPO, desde la entidad todavía no se conoce si seguirá estando al frente de la misma mientras ejerce como ministro o si, por el contrario se desprenderá por completo de dichas funciones. 
+(Además: Los motivos que explican las salidas de los ministros del gobierno Petro)
+De alejarse de Riesgos y Desastres, esta institución habría quedado sin su segundo director en un poco más de un mes. Cabe recordar que a finales de marzo el anterior director, Javier Pava Sánchez, fue apartado de su cargo días después de que la Procuraduría General de la Nación anunciara que abriría una investigación en su contra por las inundaciones de La Mojana, en Sucre y Bolívar.REDACCIÓN MEDIOAMBIENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-aumento-la-energia-sismica-dentro-del-volcan-762928
+</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: aumentó todavía más la energía sísmica dentro del volcán</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano informó en su más reciente reporte sobre la actividad del volcán Nevado del Ruiz que la actividad sísmica relacionada con el movimiento de fluidos dentro del volcán aumentó con respecto al 24 de abril, que había aumentado ya con respecto al día anterior.
+(Lea también: Volcán Nevado del Ruiz, EN VIVO: columna de ceniza alcanzó 2,5 kilómetros de alto)"La altura máxima de la columna de gases y/o ceniza observada fue de 25.00 metros medidos desde la cima del volcán correspondiente a la emisión de ceniza registrada ayer a las 07:48 a. m., con dirección de dispersión de la columna hacia el noroccidente, la cual fue visible desde varios municipios de Tolima, Caldas y Risaralda, gracias a las condiciones atmosféricas favorables", señaló el SGC en su más reciente informe.
+(Más noticias del volcán Nevado del Ruiz: Servicio Geológico explica cómo sería una posible erupción)Además, el SGC señaló que tanto las anomalías térmicas importantes en el fondo del cráter, las cuales se pudieron observar desde plataformas de monitoreo satelital, como la desgasificación de dióxido de azufre a la atmósfera y la salida de vapor de agua en el volcán continúan.
+(Además: ¿Hay una 'grieta' en el volcán Nevado del Ruiz? Esta es la verdadera razón)"La actividad del volcán Nevado del Ruiz sigue siendo muy inestable. Es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros. Sin embargo, esto no implica que el volcán haya retornado a sus niveles normales de actividad", concluyeron desde la entidad.DUVÁN ÁLVAREZ
+Redactor de NACIÓN - EL TIEMPO¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/vida/ciencia/volcan-nevado-del-ruiz-erupcion-podria-activar-a-otros-volcanes-762328
+</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nevado del Ruiz: ¿una erupción podría activar a otros volcanes? El SGC explica</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Actualmente, el Servicio Geológico Colombiano (SGC) cuenta con tres observatorios vulcanológicos ubicados en Manizales, Pasto y Popayán, desde donde los especialistas le hacen seguimiento a los 21 volcanes activos que se conocen en el país, ubicados principalmente en la zona central.
+(Le recomendamos: Volcán Nevado del Ruiz: columna de ceniza alcanzó 2 kilómetros de alto)
+Desde Manizales, además de monitorear por estos días la actividad del volcán Nevado del Ruiz, también se sigue el comportamiento de volcanes vecinos como el Cerro Bravo, Cerro Machín o el Nevado de Santa Isabel.Debido a la cercanía de estas estructuras geológicas, existe la creencia popular de que estas pueden estar conectadas y que la erupción de una de ellas puede llevar eventualmente a que otras se activen.
+Sin embargo, desde el SGC los expertos han explicado en repetidas ocasiones que se trata solo de un mito. "Cada volcán tiene su propio sistema magmático, es decir, tienen sus propios reservorios o cámaras que son alimentadas por unas fuentes mucho más profundas", explicó Jhon Makario Londoño, director técnico de geoamenazas del Servicio Geológico.Sin embargo, reconoce que en dichas fuentes que se encuentran en las profundidades de la Tierra, a más de 30 kilómetros, sí podría ser compartida por muchos volcanes, pero no implica una relación en su actividad.
+(También: Volcán Nevado del Ruiz | ¿Rayos y fallas en telefonía son señal de erupción?)"En este caso estamos hablando de los edificios volcánicos que son máximo los seis o siete kilómetros más superficiales de la corteza, ahí el Nevado del Ruiz es un elemento totalmente independiente del volcán Cerro Machín, de manera que ese mito que se tiene de que si el Nevado del Ruiz se activa lo hacen también otros volcanes como el del Tolima, el Cerro Bravo y otros, es totalmente falso", enfatiza el experto.Pese a esto, desde la entidad mantienen la alerta porque el volcán Nevado del Ruiz sigue en nivel de actividad en naranja, lo que significa que hay probabilidad de una erupción en los próximos días o semanas.En los últimos días, a la salida de ceniza se le sumó la emisión de dióxido de azufre. Según el Servicio Geológico Colombiano (SG), este fenómeno "indica que el sistema del volcán no está cerrado completamente". Si estuviera cerrado, los gases a su interior "se acumularían haciendo que la probabilidad de una erupción aumente exponencialmente".
+(Siga leyendo: ¿Hay una 'grieta' en el volcán Nevado del Ruiz? Esta es la verdadera razón)Las autoridades hacen un llamado a "no bajar la guardia" y seguir las recomendaciones de los organismos de socorro, sobre todo en zonas aledañas al volcán donde algunos habitantes no han evacuado.
+ALEJANDRA LÓPEZ PLAZAS
+REDACCIÓN CIENCIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/en-vivo-volcan-nevado-del-ruiz-temblores-y-ceniza-mantienen-alerta-naranja-762402
+</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz, EN VIVO: columna de ceniza alcanzó 2 kilómetros de alto</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>El volcán Nevado del Ruiz completa más de 27 días con el nivel de actividad en naranja, lo que significa que hay probabilidad de una erupción en los próximos días o semanas. La evacuación preventiva en algunas zonas no ha sido la esperada; de hecho, en Tolima de las mil familias que deben salir, solo 102 lo han hecho.(Lea también: ¿Podría ocurrir un terremoto si hay erupción del Nevado del Ruiz? SGC aclara)."La actividad de los volcanes es impredecible: no podemos decir que se vaya a comportar como lo hizo en 1985 (...) pero tiene el potencial para hacer una erupción de ese tamaño", afirmó John Londoño, director de Geoamenazas del SCG,(Además: Si hay erupción del volcán Nevado del Ruiz, ¿se puede consumir agua de la llave?).Como "no hay que bajar la guardia", el llamado de las autoridades es a seguir las recomendaciones de los organismos de socorro, mantenerse informados y evitar caer en contenido falso que puede circular por redes sociales, como mito sobre un terremoto: "(Dicen) que si hay una erupción grande va a haber un terremoto que destruirá a Manizales. ¡Eso es falso!".Siga el minuto a minuto de este 25 de abril del 2023:REDACCIÓN ÚLTIMAS NOTICIAS¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-aumento-la-energia-sismica-dentro-del-volcan-762501
+</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: aumentó la actividad sísmica dentro del volcán, SGC</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano informó en su más reciente reporte sobre la actividad del volcán Nevado del Ruiz que la actividad sísmica relacionada con el movimiento de fluidos dentro del volcán aumentó con respecto al 23 de abril y ha estado asociada a varias emisiones pulsátiles de ceniza que fueron confirmadas a través de las cámaras web utilizadas para el monitoreo volcánico.
+(Lea también: Volcán Nevado del Ruiz, EN VIVO: columna de ceniza alcanzó 2 kilómetros de alto)"La altura máxima de la columna de gases y/o ceniza observada fue de 2.200 metros medidos desde la cima del volcán. Además, continúa la desgasificación de dióxido de azufre a la atmósfera y la salida de vapor de agua en el volcán", señalaron desde el SGC.
+(Más noticias del volcán Nevado del Ruiz: Servicio Geológico explica cómo sería una posible erupción)Debido a esto, desde la entidad señalaron que la actividad del volcán Nevado del Ruiz sigue siendo muy inestable. "Es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros. Sin embargo, esto no implica que el volcán haya retornado a sus niveles normales de actividad", asegurarón.
+(Además: ¿Hay una 'grieta' en el volcán Nevado del Ruiz? Esta es la verdadera razón)Finalmente, el SGC precisó que si bien no siempre es posible detectar anomalías térmicas desde las plataformas de monitoreo satelital, principalmente debido al mal tiempo, esto no quiere decir que estas no continúen presentes en el fondo del cráter.DUVÁN ÁLVAREZ
+Redactor de NACIÓN - EL TIEMPO¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-que-significa-falla-en-internet-o-telefonia-762562
+</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz | ¿Rayos y fallas en telefonía son señal de erupción?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>“Evacuar ya”. Este es el contundente mensaje de Luis Fernando Velasco, director encargado de la Unidad Nacional para la Gestión del Riesgo de Desastres, para las comunidades que no han querido salir de la zona de influencia del volcán Nevado del Ruiz, que continúa en alerta naranja ante la posibilidad de una erupción.(Lea: Volcán Nevado del Ruiz, EN VIVO: columna de ceniza alcanzó 2 kilómetros de alto)Son cinco los municipios priorizados para la evacuación: Herveo, Murillo, Casabianca y Villahermosa, en Tolima, y Villamaría, en Caldas. Sin embargo, en algunas de las veredas donde el mapa de riesgo evidencia mayor precaución, todavía hay pobladores que se resisten a evacuar.En algunas de estas veredas, como es el caso de La Cabaña, que es la comunidad del municipio de Murillo más próxima al volcán, los campesinos afirmaron que “la señal de celular es muy mala”.(Además: ¿Podría ocurrir un terremoto si hay erupción del Nevado del Ruiz? SGC aclara)“La señal de celular a veces sirve y las llamadas entran o salen sin problema, pero hay días terribles pues quedamos sin señal 4 y 6 horas”, manifestó un habitante de esta zona.De otro lado, en redes sociales surgió un rumor de que la energía creciente del cráter trae, supuestamente, interferencias a las comunicaciones satelitales, de celulares, televisión e internet. Además, señalaban que era otra señal de una posible erupción.EL TIEMPO consultó a John Jairo Sánchez, geólogo y profesor de la Universidad Nacional, quien explicó cuál es la verdad sobre algunos fenómenos que se presentan en un volcán en actividad, como es el caso del Nevado del Ruiz.(También: Si hay erupción del volcán Nevado del Ruiz, ¿se puede consumir agua de la llave?)Para Sánchez, en estas zonas, al ser tan alejadas, hay dificultades con las señales de telefonía. “Cuando uno sube a esas regiones, que son áreas rurales, la cobertura en comunicaciones es complicada. A medida que te vas alejando, vas experimentando que la señal se hace más débil. Es cuestión de que es una zona lejana, de que no hay mayor cobertura”, señaló.El experto explicó que no es acertado decir que el fenómeno de que no hay señales es un síntoma de que va a ser erupción el volcán. “He subido muchas veces, en épocas cuando obviamente no hay actividad eruptiva, cuando el volcán está calmado, e igual las señales son deficientes”, añadió.(También: Nevado del Ruiz: ¿Una erupción podría activar a otros volcanes? El SGC explica)De hecho, Sánchez pidió estar siempre muy atentos y apegados a la información del SGC como fuente oficial.La zona donde está ubicado el Nevado del Ruiz generalmente es propensa a las lluvias, fenómeno que puede causar tormentas eléctricas en los alrededores, pero estos no necesariamente están asociadas al volcán, dijo Sánchez.Para el experto, se trata de fenómenos asociados al estado del tiempo. Sin embargo, según Sánchez, las tormentas eléctricas podrían ocurrir cuando un volcán hace erupción, con gran cantidad de ceniza expulsada a la atmósfera por varios kilómetros. Es posible que este material genera unos procesos que, eventualmente, terminan en la generación de descargas eléctricas.“En otras palabras, es muy común que cuando un volcán hace erupción ocurra una pequeña tormenta local, como un microclima con descargas eléctricas a causa de eso”, señaló.(Lea: Volcán Nevado del Ruiz: de mil personas que deben evacuar, solo 102 lo han hecho)No obstante, indicó que esto solo ocurre cuando hay una erupción volcánica de grandes proporciones. En el caso de las columnas de ceniza, como la de este martes, de unos dos kilómetros de altura, no tiene el suficiente material para provocar una descarga eléctrica.El SGC ha reiterado que el Nevado del Ruiz es un volcán que está en erupción desde hace aproximadamente 10 años, pero todas las erupciones que ha hecho en este periodo han sido menores y su afectación se ha limitado a caída de cenizas en diferentes lugares dependiendo de la dirección del viento.REDACCIÓN ÚLTIMAS NOTICIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-si-hay-erupcion-se-puede-tomar-agua-de-la-llave-762486
+</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Si hay erupción del volcán Nevado del Ruiz, ¿se puede consumir agua de la llave?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Con el pasar de los días, la actividad del volcán Nevado del Ruiz se mantiene en naranja. La salida de ceniza, las anomalías térmicos del cráter Arenas y los sismos dentro del complejo volcánico son solo algunas señales de la inestabilidad, pues tienden a oscilar.(Siga la cobertura: Volcán Nevado del Ruiz, EN VIVO: columna de ceniza alcanzó 2 kilómetros de alto).En medio de las labores de monitoreo del Servicio Geológico Colombia (SGC) y las autoridades de Gestión del Riesgo de Desastres, circulan en redes sociales falsas previsiones sobre lo que podría ocurrir en caso de una erupción.A continuación, algunos mitos y verdades:Falso. Según John Londoño, director de Geoamenazas del SGC, algunos dicen que "si hay una erupción grande va a haber un terremoto que destruirá a Manizales. ¡Eso es falso!". De acuerdo con las autoridades, "los sismos relacionados con una erupción se presentan al interior del volcán".(Siga leyendo: Volcán Nevado del Ruiz está emitiendo dióxido de azufre: ¿esto qué significa?).Depende de la zona en la que se encuentre y si es potable. La Unidad Nacional para la Gestión del Riesgo de Desastres recomienda evitar consumir agua de ríos o quebradas de montaña o cercanos al volcán, ya que puede estar contaminada.En cambio, en municipios y ciudades el agua, antes de salir por la llave, surte un proceso de potabilización que "elimina la ceniza permitiendo su consumo cotidiano", menciona la Gobernación de Caldas.(Además: Volcán Nevado del Ruiz | ‘Los sismos en el cráter son lo que más preocupa’: SGC).Falso. Como ha explicado la Alcaldía de Manizales y el SGC, la ciudad "solo se vería afectada por caída de ceniza". De hecho, el mapa de riesgo oficial indica que los fragmentos de roca podrían ser transportados por proyección balística y "depositados en las partes cercanas del volcán a distancias menores a 10 kilómetros desde el punto de emisión".Falso. Los vecinos del volcán Nevado del Ruiz son el Cerro Bravo, Cerro Machín y el Nevado de Santa Isabel, pero su actividad es totalmente ajena."En este caso estamos hablando de los edificios volcánicos que son máximo los seis o siete kilómetros más superficiales de la corteza, ahí el Nevado del Ruiz es un elemento totalmente independiente del volcán Cerro Machín, de manera que ese mito que se tiene de que si el Nevado del Ruiz se activa lo hacen también otros volcanes como el del Tolima, el Cerro Bravo y otros, es totalmente falso", señaló Londoño, del SGC.(Amplíe acá: Nevado del Ruiz: ¿Una erupción podría activar a otros volcanes? El SGC explica).Si hay orden de evacuación en su zona, debe salir a los lugares que indiquen las autoridades.Si no hay orden de evacuación para áreas que están a varios kilómetros, como la ciudad de Manizales, las autoridades recomiendan estar en casa porque "la ceniza podría generar afectaciones respiratorias y oculares, así como también las vías podrían tornarse peligrosas y lisas".En caso de caída de ceniza, la Unidad Nacional para la Gestión del Riesgo de Desastres aconseja usar tapabocas N95 y cerrar todas las ventanas, puertas y aberturas por donde pueda ingresar el material. Si quedan alrededor de las ventanas y puertas algunos espacios, cubra con paños húmedos.(Puede leer: ¿Por qué reportan ruidos en volcán Nevado del Ruiz en la madrugada? SGC explica).Falso. Los sismos y otros aspectos pueden variar, pero eso "no significa que vaya a hacer una erupción inminente", precisan las autoridades. Así que el monitoreo para bajar o elevar el nivel de actividad seguirá."Para cambiar de nivel y retornar a nivel amarillo se requiere un tiempo prudencial donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad", dice el SGC.Los flujos de lava "se generan en zonas aledañas al cráter del volcán", precisa las autoridades. Como contempla el mapa de riesgo, llegarían a áreas rurales de la parte alta de los municipios de Villamaría, Herveo, Casabianca, Villahermosa, Murillo (Tolima) y Santa Rosa de Cabal (Risaralda), eso sí cabe resaltar que todo depende de la magnitud que tenga este fenómeno.(Amplíe: Mapa: si volcán Nevado del Ruiz hace erupción, estos lugares estarían en riesgo).- Luis Alfredo Garavito tiene cáncer de ojo; esta es la reveladora foto en cárcel.- ¿Podría ocurrir un terremoto si hay erupción del Nevado del Ruiz? SGC aclara.- Volcán Nevado del Ruiz: de mil personas que deben evacuar, solo 102 lo han hecho.- Preocupantes advertencias sobre la inteligencia artificial de Yuval Noah Harari.REDACCIÓN ÚLTIMAS NOTICIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-podria-ocurrir-un-terremoto-si-hace-eupcion-762170
+</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>¿Podría ocurrir un terremoto si hay erupción del Nevado del Ruiz? SGC aclara</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>El volcán Nevado del Ruiz completa más de 26 días con el nivel de actividad en naranja, lo que significa que hay probabilidad de una erupción en los próximos días o semanas. Los sismos han oscilado en las últimas jornadas, es decir, han aumentado o descendido, por lo que las autoridades ratifican su "inestabilidad".(Siga la cobertura: Volcán Nevado del Ruiz, EN VIVO: en emergencia, campesinos se quejan de la señal)."Hay probabilidad de que explote en días o semanas. Nadie puede decir cuándo. Otra de las opciones es que se vaya calmando y no haga erupción. Nosotros estamos actuando casi como si fuera a hacer una erupción", dijo Luis Fernando Velasco, director encargado de la Unidad Nacional para la Gestión del Riesgo de Desastres (UNGRD).Como "no hay que bajar la guardia", el llamado de las autoridades es a seguir las recomendaciones de los organismos de socorro, mantenerse informados y evitar caer en contenido falso que puede circular por redes sociales.De hecho, para aclarar la información que a algunos ha alarmado, el Servicio Geológico Colombiano se refirió a la posibilidad de la ocurrencia de un terremoto.(Además: Mapa: si volcán Nevado del Ruiz hace erupción, estos lugares estarían en riesgo)."(Dicen) que si hay una erupción grande va a haber un terremoto que destruirá a Manizales. ¡Eso es falso!", expresó John Londoño, director de Geoamenazas del SCG, en el Canal Institucional.En ese sentido, una vez más, les pidió a los colombianos no caer en cadenas que pueden enviarse por aplicaciones de mensajería. Para estar atentos, el SGC minuto a minuto monitorea la actividad con recursos tecnológicos que no tenía en 1985 -cuando la erupción sepultó a Armero-.(Siga leyendo: Nevado del Ruiz: las impresionantes imágenes aéreas de cómo está el volcán)."La actividad de los volcanes es impredecible: no podemos decir que se vaya a comportar como lo hizo en 1985 (...) pero tiene el potencial para hacer una erupción de ese tamaño", precisó.Según explicó Londoño, para bajar el nivel de actividad a amarillo están atentos de cómo evoluciona el magma, material que está en el fondo del cráter y que busca una salida, generando sismos y fracturamiento de roca. El cambio de nivel naranja a amarillo requiere de "un tiempo prudencial donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad, el cual puede extenderse a varias semanas".- Volcán Nevado del Ruiz está emitiendo dióxido de azufre: ¿esto qué significa?- Pese a posible erupción, alcalde prepara Festival del volcán Nevado del Ruiz.- ¿Por qué reportan ruidos en volcán Nevado del Ruiz en la madrugada? SGC explica.- ‘Nevado del Ruiz es paciente crítico’: ¿Se podría saber cuándo haría erupción?REDACCIÓN ÚLTIMAS NOTICIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/campesinos-cerca-al-nevado-del-ruiz-denuncian-mala-senal-762319
+</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Campesinos denuncian mal servicio de comunicaciones en la zona del volcán </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Las deficiencias en las comunicaciones son una constante en las zonas rurales de los municipios del Tolima ubicados en cercanías del Volcán Nevado del Ruiz, principalmente en los municipios de Murillo, Villahermosa, Herveo y Casabianca,
+En La Cabaña, la vereda del municipio de Murillo más próxima al volcán, los campesinos afirmaron que “la señal de celular es muy mala”.
+(Siga leyendo: La Defensoría del Pueblo alertó sobre 266 desplazados en Buenaventura).“La señal de celular a veces sirve y las llamadas entran o salen sin problema, pero hay días terribles pues quedamos sin señal 4 y 6 horas”, aseguraron habitantes de esta región fría que está a más de 4.000 metros de altura y a 2 kilómetros del volcán.
+“La señal de Internet también es deficiente, ojalá nos arreglaran eso especialmente en estos días de emergencia por la alta sismicidad del volcán”, dijo Enrique García, presidente de la Junta de Acción Comunal.
+El campesino Edward Ariza dice que la señal de su celular solo “sirve dentro de mi casa, si me salgo el aparato queda muerto, sin señal”.
+Agregó que, en caso de una emergencia por erupción, “sería imposible informar los cambios en el comportamiento del volcán, debido a las serias deficiencias en las comunicaciones”.
+El alcalde del municipio de Murillo, Antonio José García, señaló que esta región necesita con urgencia una emisora en AM, “porque mucha gente campesina no utiliza los medios digitales, pero si acuden al radio”.
+César Augusto Restrepo, alcalde de Villahermosa, también pidió “una mayor atención y solución a las dificultades que tenemos en temas de comunicaciones”.
+Otros habitantes del norte del Tolima también pidieron a Celsia una mejor prestación del servicio eléctrico “pues tenemos muchas dificultades por las deficiencias eléctricas en estos municipios”.
+Las solicitudes de mejores comunicaciones fueron presentadas en una reunión de los alcaldes de Murillo, Villahermosa, Herveo y Casabianca con la gobernación del Tolima, Ministerio de las TIC, operadores de Internet y telefonía celular. El encuentro fue coordinado por Andrea Mallorquín, directora de Gestión del Riesgo en Tolima y Carlos Sánchez, director de Tecnologías de Información y Comunicaciones, TIC, en el departamento.
+“Trabajamos junto con los operadores para mejorar la conectividad y las comunicaciones en el departamento, pero, sobre todo, en los municipios del norte del Tolima cercanos al volcán, donde sus habitantes lanzaron un S.O.S pidiendo ayuda,” aseguró Carlos Sánchez, director TIC del Tolima.¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/en-vivo-volcan-nevado-del-ruiz-en-alerta-naranja-ultimas-noticias-762033
+</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: nuevo sismo de magnitud 1.7</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>El volcán Nevado del Ruiz sigue en nivel de actividad en naranja, lo que significa que hay probabilidad de una erupción en los próximos días o semanas.(Lea: Volcán Nevado del Ruiz, EN VIVO: en emergencia, campesinos se quejan de la señal).En los últimos días, a la salida de ceniza se une la emisión de dióxido de azufre. Según el Servicio Geológico Colombiano (SG), este fenómeno "indica que el sistema del volcán no está cerrado completamente". Si estuviera cerrado, los gases a su interior "se acumularían haciendo que la probabilidad de una erupción aumente exponencialmente".(No deje de leer: ¿Podría ocurrir un terremoto con erupción del Volcán Nevado del Ruiz? SGC aclara).Las autoridades hacen un llamado a "no bajar la guardia" y seguir las recomendaciones de los organismos de socorro, sobre todo en zonas aledañas al volcán donde algunos habitantes no han evacuado.Siga el minuto a minuto de este 24 de abril del 2023:REDACCIÓN ÚLTIMAS NOTICIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-solo-102-personas-han-evacuado-en-el-tolima-762207
+</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: de mil personas que deben evacuar, solo 102 lo han hecho</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ni la caída permanente de cenizas, ni el elevado número de sismos y mucho menos las fumarolas de más de 1500 metros de altura, parece preocuparles a muchas de las familias campesinas del departamento del Tolima que habitan en zonas aledañas al volcán Nevado del Ruiz que permanece en alerta naranja.
+(Siga la cobertura: Volcán Nevado del Ruiz, EN VIVO: en emergencia, campesinos se quejan de la señal).Así lo confirmó la oficina de Gestión del Riesgo al corroborar que, de 1.000 personas que deben salir de sus casas y veredas ubicadas en un radio de 15 kilómetros del volcán, tan solo 102 han evacuado, o sea el 10 por ciento.
+(Le recomendamos leer: El nevado del Ruiz no es el único: estos son otros volcanes que amenazan al Eje)Andrea Mallorquín, directora de Gestión del Riesgo en Tolima, señaló que las veredas en alto riesgo por su cercanía al volcán, pertenecen a los municipios de Murillo, Villahermosa, Herveo y Casabianca."El mayor riesgo es por estar cerca del volcán ya que, en caso de una erupción, se podría presentar caída de rocas", aseguró la funcionaria.
+De Villahermosa han evacuado 31 personas de las veredas Betulia, Rocío, Entrevalles y Mina Pobre. En Herveo la evacuación la hicieron 15 personas, así como 2 de Casabianca y 54 en Murillo que es el municipio más próximo a esa cima.
+(Más noticias: ¿Podría ocurrir un terremoto con erupción del Volcán Nevado del Ruiz? SGC aclara)
+"Las familias que evacuaron preventivamente viven con sus familiares en las zonas urbanas, pero el jefe del hogar sube a la finca durante el día para alimentar sus animales y, en la noche, vuelve con su familia", dijo la directora de Gestión del Riesgo.Las familias en alto riesgo de Murillo, Herveo, Villahermosa y Casabianca, tienen sus razones para no salir, pues la mayoría, aunque están preocupados por lo que pueda suceder, se sienten tranquilos ya que vivieron la experiencia de la erupción de este volcán en 1985, cuando la avalancha de piedra, lodo y nieve bajó por el río Lagunilla y arrasó con la población de Armero.
+Otros campesinos no salen de sus fincas por temor a la delincuencia que les roba sus pertenencias, pero lo que más les preocupa es dejar solas y sin comida a sus vacas y aves de corral que perderían peso y también caerían en manos de los ladrones.
+(Además: Volcán Nevado del Ruiz: continúan las anomalías térmicas en el fondo del cráter)¿Qué hacen las autoridades para que la evacuación sea efectiva? Andrea Mallorquín responde que, en las zonas aledañas al volcán, "el gobierno departamental tiene 200 personas capacitadas en este tipo de emergencias y su tarea es hacer presencia en ese territorio para orientar a la comunidad y que cada persona sepa qué debe hacer si el volcán cambia su actividad".
+En cuanto a ayudas directas, por ejemplo, para el agro, la gobernación del Tolima en conjunto con la Unidad Nacional para la Gestión del Riesgo de Desastres, UNGRD, cuenta con existencias de alimentos para los animales pero también se tiene previsto el giro de incentivos económicos para combustible de motos y vehículos.FABIO ARENAS
+Para EL TIEMPO
+IBAGUÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-siguen-anomalias-termicas-en-el-fondo-del-crater-762146
+</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: continúan las anomalías térmicas en el fondo del cráter</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano informó en su más reciente reporte sobre la actividad del volcán Nevado del Ruiz que la actividad sísmica asociada a fracturamiento de roca dentro del edificio volcánico y la asociada al movimiento de fluidos en el interior de los conductos fue similar en cuanto a número y energía sísmica respecto al 22 de abril.
+(Lea también: Volcán Nevado del Ruiz, EN VIVO: reportan emisión de ceniza con incandescencia)"Los sismos asociados al fracturamiento de roca se localizaron principalmente en los sectores sur, suroriental y orientalnororiental del volcán, así como en el cráter Arenas, a profundidades entre 0,4 y 4 kilómetros", señalaron.
+(Además: ¿Hay una 'grieta' en el volcán Nevado del Ruiz? Esta es la verdadera razón)Además, precisaron que la máxima magnitud registrada fue de 0,8 correspondiente al sismo registrado el 23 de abril a las 09:20 a. m., el cual se localizó a 0,6 kilómetros al oriente-nororiente del volcán, a 3,5 km de profundidad.
+Asimismo, la altura máxima de la columna de gases y/o ceniza observada fue de 1.400 metros, medidos desde la cima del volcán con una dirección de dispersión que osciló entre el oriente y suroriente. "Continúan las anomalías térmicas en el fondo del cráter, las cuales se observan desde plataformas de monitoreo satelital", agregaron desde el SGC.
+(Más noticias del volcán Nevado del Ruiz: Nevado del Ruiz: Servicio Geológico explica cómo sería una posible erupción)Finalmente, en cuanto a la salida de dióxido de azufre a la atmósfera, el SGC confirmó que este mantuvo niveles similares a los días anteriores. "Todos estos indicadores ratifican lo que desde el SGC hemos reiterado: que la actividad del volcán Nevado del Ruiz sigue siendo muy inestable", concluyeron.DUVÁN ÁLVAREZ
+Redactor de NACIÓN - EL TIEMPO¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-en-vivo-ultimas-noticias-domingo-23-de-abril-761894
+</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: hay anomalías térmicas, sigue la alerta naranja</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>El volcán Nevado del Ruiz sigue muy ‘inestable’ tras varias semanas en estado de alerta naranja, el cráter Arenas continúa con su desgasificación y hay salida de vapor de agua por las anomalías térmicas.
+(Lea la actualización: Volcán Nevado del Ruiz, EN VIVO: hay inestabilidad y emite dióxido de azufre).El Servicio Geológico Colombiano sigue con el monitoreo continuo ante la posible erupción del volcán Nevado del Ruiz que, según confirma la entidad, se puede dar en algunos días o semanas. "Es importante no acostumbrarse a este nivel y bajar la guardia, hay que estar atentos a las comunicaciones oficiales y a la información que se emita”, afirmó John Makario Londoño.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-en-vivo-ultimas-noticias-22-de-abril-761725
+</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz, EN VIVO: hay emisiones de gas y anomalías en el cráter</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>El volcán Nevado del Ruiz ha estado en alerta naranja desde el pasado mes de marzo, el Servicio Geológico Colombiano está vigilando de forma constante la caída de ceniza, los sismos y las anomalías térmicas dentro del cráter.
+(Le reomendamos leer: Volcán Nevado del Ruiz está emitiendo dióxido de azufre: ¿esto qué significa?).Según los últimos reportes de la Unidad Nacional para la Gestión del Riesgo de Desastres, las temperaturas dentro del cráter se han aumentado. "Se han captado temperaturas superiores a 700 °C. Tenemos un volcán muy inestable. Tenemos que mantener la alerta naranja. Por ello, trabajamos en la región para evacuar a la gente y reaccionar", expresó el director encargado de la UNGRD, Luis Fernando Velasco.REDACCIÓN ÚLTIMAS NOTICIAS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/eltiempo.xlsx
+++ b/eltiempo.xlsx
@@ -430,14 +430,14 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruíz: aumenta la cantidad de sismos según SGC</t>
+          <t>Volcán Nevado del Ruiz: aumenta la cantidad de sismos según SGC</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
           <t>El Servicio Geológico Colombiano (SGC) anunció a través de un comunicado, de este 24 de mayo, que la actividad sísmica relacionada con el movimiento de fluidos aumentó en comparación con los registros realizados el pasado 22 de mayo.(Le puede interesar: Nevado del Ruiz: estas son las veredas excluidas de la evacuación inmediata).“Se registró actividad sísmica asociada a fracturamiento de roca al interior del edificio volcánico, la cual mostró aumento en el número de sismos y niveles similares en la energía sísmica”, señaló el SGC.
-También explicó que la actividad del volcán Nevado del Ruíz sigue siendo muy inestable, por ello, la alerta se mantiene en naranja.(También: MinTIC anuncia más de 50 nuevas antenas para municipios cercanos al Nevado del Ruiz).Por esta razón, el Servicio Geológico Colombiano reiteró: “Es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros”.
-En el monitoreo de este miércoles 24 de mayo se reiteró que existe una probabilidad de que en los próximos días o semanas haga una erupción mayor a las que ha hecho en los últimos 10 años.Además, el SGC mencionó que para retornar a nivel de alerta amarillo se requiere un tiempo prudencial, en el cual se puedan observar tendencias y patrones que permitan deducir alguna disminucion de actividad sismica.
+También explicó que la actividad del volcán Nevado del Ruiz sigue siendo muy inestable, por ello, la alerta se mantiene en naranja.(También: MinTIC anuncia más de 50 nuevas antenas para municipios cercanos al Nevado del Ruiz).Por esta razón, el Servicio Geológico Colombiano reiteró: “Es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros”.
+En el monitoreo de este miércoles 24 de mayo se reiteró que existe una probabilidad de que en los próximos días o semanas haga una erupción mayor a las que ha hecho en los últimos 10 años.Además, el SGC mencionó que para retornar a nivel de alerta amarillo se requiere un tiempo prudencial, en el cual se puedan observar tendencias y patrones que permitan deducir alguna disminución de actividad sísmica.
 “En cuanto a la actividad superficial, la altura máxima de la columna de gases y/o ceniza fue de 1800 m medidos desde la cima del volcán y ha presentado una dirección preferencial de dispersión hacia el nororiente. Continúan las variaciones en la desgasificación de dióxido de azufre y la salida de vapor de agua desde el cráter a la atmósfera”, señaló el informe.
 Por último, el Sistema Geológico Colombiano indicó que recomienda a la comunidad mantener la calma, seguir las instrucciones de las autoridades locales y mantenerse informado.(Además: Olor a azufre cerca a volcán Nevado del Ruiz: ¿por qué se ha reportado y qué significa?).Nevado del Ruiz: Gestión del Riesgo excluye a Risaralda de la zona de riesgo del volcánVolcán Nevado del Ruiz: ¿cómo son las condiciones ahora que es menor la zona de riesgo?Volcán Nevado del Ruiz: leve aumento en actividad sísmica del volcánREDACCIÓN ÚLTIMAS NOTICIAS
 VANESSA PÉREZ¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
@@ -634,21 +634,7 @@
           <t>Volcán Nevado del Ruiz: analizan video de supuestas emisiones de vapores en montañas</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Un fuerte olor a azufre, acompañado de intensa caída de ceniza, son las señales de actividad que ha dado durante la mañana de este lunes el volcán Nevado del Ruiz. Además, las autoridades se encuentran evaluando una situación reportada en un video en el que se muestran supuestos vapores emanando de una de las montañas cercanas al volcán Nevado del Ruiz.
-(Le recomendamos leer: SGC aclara si los gases que salen de Cerro Bravo son volcánicos).El video habría sido grabado por algunas personas que circulaban por la vía que de Manizales conduce a Bogotá, a la altura de ‘Cerro bravo’, zona cercana al Ruiz.
-En el video se ve que emanan de la tierra lo que serían supuestos vapores.Las autoridades han informado que se desplazan al lugar para verificar la situación.
-(Le puede interesar: Volcán Nevado del Ruiz: continúa la alerta naranja, advierten caída de ceniza en Tolima)"Tenemos el reporte de un video en el sector de Cerro Bravo, en el que se evidencia emisión de gases y vapores. Hay varias hipótesis, pero ya el Servicio Geológico Colombiano y la Corporación Autónoma Regional (Corpocaldas) enviaron una comisión técnica para hacer una medición y tratar de identificar la génesis de estos gases", explicó Félix Ricardo Giraldo, jefe de la Unidad de Gestión del Riesgo de Caldas.
-Los manizaleños también han reportado un fuerte olor azufre desde tempranas horas de la mañana, además de ceniza en calles, plantas ventanas y vehículos. Todo esto se pudo percibir luego de un fuerte aguacero que se presentó en la madrugada en la capital.
-(Además: Así se ve el volcán Nevado del Ruiz desde los satélites en el espacio)Al respecto, desde Gestión del Riesgo de Caldas señalaron que estas situaciones son normales por la inestabilidad en la que se encuentra el volcán desde que se decretó su nivel de actividad naranja, en marzo.
-"La emisión de ceniza que se presentó sobre las 6:23 de la mañana fue dispersada por los vientos y la lluvia a Manizales y Villamaría y sus áreas urbanas, lo que se vio reflejado en los vehículos y calles . En cuanto al olor a azufre, se están realizando monitoreos con las estaciones ambientales para determinar los niveles que están en la atmósfera y determinar si es necesario emitir alguna alerta", explicó el jefe de la Unidad.
-(Lea también: Volcán Nevado del Ruiz: ¿por qué la emisión de ceniza es un signo que preocupa?)
-Las autoridades han hecho también un llamado a la calma y a no difundir fotos o videos de fuentes desconocidas y estar atentos a las comunicaciones oficiales del Servicio Geológico Colombiano.LAURA USMA CARDONA
-Para EL TIEMPO
-MANIZALES</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1465,16 +1451,7 @@
           <t>Volcán Nevado del Ruiz: continúan las anomalías térmicas en el fondo del cráter</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>El Servicio Geológico Colombiano informó en su más reciente reporte sobre la actividad del volcán Nevado del Ruiz que la actividad sísmica asociada a fracturamiento de roca dentro del edificio volcánico y la asociada al movimiento de fluidos en el interior de los conductos fue similar en cuanto a número y energía sísmica respecto al 22 de abril.
-(Lea también: Volcán Nevado del Ruiz, EN VIVO: reportan emisión de ceniza con incandescencia)"Los sismos asociados al fracturamiento de roca se localizaron principalmente en los sectores sur, suroriental y orientalnororiental del volcán, así como en el cráter Arenas, a profundidades entre 0,4 y 4 kilómetros", señalaron.
-(Además: ¿Hay una 'grieta' en el volcán Nevado del Ruiz? Esta es la verdadera razón)Además, precisaron que la máxima magnitud registrada fue de 0,8 correspondiente al sismo registrado el 23 de abril a las 09:20 a. m., el cual se localizó a 0,6 kilómetros al oriente-nororiente del volcán, a 3,5 km de profundidad.
-Asimismo, la altura máxima de la columna de gases y/o ceniza observada fue de 1.400 metros, medidos desde la cima del volcán con una dirección de dispersión que osciló entre el oriente y suroriente. "Continúan las anomalías térmicas en el fondo del cráter, las cuales se observan desde plataformas de monitoreo satelital", agregaron desde el SGC.
-(Más noticias del volcán Nevado del Ruiz: Nevado del Ruiz: Servicio Geológico explica cómo sería una posible erupción)Finalmente, en cuanto a la salida de dióxido de azufre a la atmósfera, el SGC confirmó que este mantuvo niveles similares a los días anteriores. "Todos estos indicadores ratifican lo que desde el SGC hemos reiterado: que la actividad del volcán Nevado del Ruiz sigue siendo muy inestable", concluyeron.DUVÁN ÁLVAREZ
-Redactor de NACIÓN - EL TIEMPO¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">

--- a/eltiempo.xlsx
+++ b/eltiempo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A2:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,19 +421,81 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/vida/ciencia/nevado-del-ruiz-una-erupcion-podria-activar-a-otros-volcanes-762328
+</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nevado del Ruiz: ¿una erupción podría activar a otros volcanes? El SGC explica</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Actualmente, el Servicio Geológico Colombiano (SGC) cuenta con tres observatorios vulcanológicos ubicados en Manizales, Pasto y Popayán, desde donde los especialistas le hacen seguimiento a los 21 volcanes activos que se conocen en el país, ubicados principalmente en la zona central.
+(Le recomendamos: Volcán Nevado del Ruiz: columna de ceniza alcanzó 2 kilómetros de alto).
+Desde Manizales, además de monitorear por estos días la actividad del volcán Nevado del Ruiz, también se sigue el comportamiento de volcanes vecinos como el Cerro Bravo, Cerro Machín o el Nevado de Santa Isabel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-26-de-mayo-aumento-en-sismos-771893
+</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: su actividad sísmica continua en aumento, según SGC</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando la actividad del volcán Nevado del Ruiz el cual, el día de hoy 26 de mayo, mostró un aumento en su energía sísmica respecto al pasado miércoles.(Lo invitamos a seguir leyendo: ¿Qué produce humo, gases e incandescencia cerca a volcán Cerro Bravo? Minminas detalla).Por lo anterior, se reitera que la actividad del volcán sigue siendo muy inestable, en el sentido de su aumento y disminución de sismos en diferentes días.
+“En cuanto a la sismicidad relacionada con el movimiento de fluidos al interior de los conductos volcánicos, registramos niveles similares en el número de eventos y en la a través de las cámaras web utilizadas para el monitoreo volcánico” explicó el documento oficial.(También:Volcán Nevado del Ruiz | Aumentó actividad sísmica: esto dice el último boletín del SGC).En este último boletín, el SGC señaló que el volcán se mantiene en alerta naranja, sin excluir la posibilidad de que en días o semanas pueda hacer una erupción mayor a las que ha hecho en los últimos 10 años.
+“Continúan las variaciones en la desgasificación de dióxido de azufre y la salida de vapor de agua desde el cráter a la atmósfera. Debido a las condiciones atmosféricas, no se ha tenido reporte de anomalías térmicas del fondo del cráter Arenas a partir de las plataformas de monitoreo satelital”, explica el SGC.(Además: Michelada 'hecha de ceniza' del volcán Popocatépetl se viralizó en redes: qué contiene).Cabe resaltar que, se recomienda conservar la calma, seguir todas las instrucciones de la Unidad Nacional para la Gestión del Riesgo de Desastres (UNGRD) y autoridades locales.Exótico ‘emprendimiento’: venden un kilo de ceniza de volcán por casi $3 millonesVolcán Nevado del Ruiz: persiste emisión de gases en el cráter, según SGC¿Monserrate es un volcán dormido y la iglesia está sobre un cráter? SGC aclaraVANESSA PÉREZ
+REDACCIÓN ÚLTIMAS NOTICIAS ¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-aumento-actividad-sismica-boletin-del-sgc-del-25-de-mayo-771581
+</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz | Aumentó actividad sísmica: esto dice el último boletín del SGC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano (SGC) informó que la actividad registrada dentro del cráter del volcán Nevado del Ruiz, el día de hoy 24 de mayo, aumentó en comparación a este miércoles.(Le puede interesar: ¿Otro volcán en México despertaría a causa de la erupción del Popocatépetl?).Eso sí, explicó que los sismos se localizaron en los sectores nororiente y suroccidente del volcán, a una distancia máxima de 5 km a partir del cráter Arenas y a profundidades que oscilaron entre 3 y 6 km.
+Por esta razón, el Servicio Geológico Colombiano reiteró que la actividad del volcán se mantiene inestable. Sin embargo, destacan que es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza disminuyan.(También: Popocatépetl: 7 datos del volcán de México considerado de los más peligrosos del mundo )."Para cambiar de nivel y retornar a nivel Amarillo se requiere un tiempo prudencial donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad, aspectos que la actual actividad del volcán todavía no muestra", señala el documento oficial.
+Asimismo, en el monitoreo de este jueves, se reiteró que el volcán permanece en alerta naranja: “Lo que indica que existe una probabilidad de que en días o semanas haga una erupción mayor a las que ha hecho en los últimos 10 años”.El llamado del SGC reitera a la comunidad mantenerse informado y acatar las instrucciones de la Unidad Nacional para la Gestión del Riesgo de Desastres (UNGRD) y las autoridades locales.(Además: Volcán Nevado del Ruiz: aumenta la cantidad de sismos según SGC).REDACCIÓN ÚLTIMAS NOTICIAS
+VANESSA PÉREZExpertos plantean nueva hipótesis sobre los gases que salen de Cerro BravoMichelada 'hecha de ceniza' del volcán Popocatépetl se viralizó en redes: qué contieneVolcán Nevado del Ruiz: aumento de sismos en los sectores nororiente, norte y sur¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-aumenta-la-cantidad-de-sismos-segun-sgc-771277
 </t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: aumenta la cantidad de sismos según SGC</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>El Servicio Geológico Colombiano (SGC) anunció a través de un comunicado, de este 24 de mayo, que la actividad sísmica relacionada con el movimiento de fluidos aumentó en comparación con los registros realizados el pasado 22 de mayo.(Le puede interesar: Nevado del Ruiz: estas son las veredas excluidas de la evacuación inmediata).“Se registró actividad sísmica asociada a fracturamiento de roca al interior del edificio volcánico, la cual mostró aumento en el número de sismos y niveles similares en la energía sísmica”, señaló el SGC.
 También explicó que la actividad del volcán Nevado del Ruiz sigue siendo muy inestable, por ello, la alerta se mantiene en naranja.(También: MinTIC anuncia más de 50 nuevas antenas para municipios cercanos al Nevado del Ruiz).Por esta razón, el Servicio Geológico Colombiano reiteró: “Es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros”.
@@ -444,19 +506,19 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/volcan-nevado-del-ruiz-actualizacion-23-de-mayo-770891
 </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: aumento de sismos en los sectores nororiente, norte y sur</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>El Servicio Geológico Colombiano (SGC) informó que desde las 9 a. m. de ayer (22 de mayo) y durante lo corrido del 23 de mayo, “la actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos presentó aumento en el número de sismos y continuó mostrando niveles de energía sísmica liberada similares a los del día anterior (21 de mayo)”.La sismicidad se produjo en los sectores nororiente, norte y sur del volcán y en el cráter Arenas, a una distancia máxima de 6 km a partir de este y a profundidades que oscilaron entre 1 y 7 km.
 “En cuanto a la actividad superficial, la altura máxima de la columna de gases y/o ceniza fue de 1300 metros medidos desde la cima del volcán y ha presentado una dirección preferencial de dispersión hacia el nororiente”, agregó el comunicado.
@@ -467,38 +529,38 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-como-ha-afectado-la-economia-de-caldas-la-alerta-naranja-770533
 </t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>La esperanza del turismo de Caldas para resistir la crisis por el nevado del Ruiz</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Hace 10 días la Unidad Nacional para la Gestión del Riesgo (UNGRD) aceptó la solicitud de Caldas de reducir de 15 a 10 kilómetros la zona de riesgo alto por la actividad del volcán Nevado del Ruiz. Con la determinación, la mayoría de negocios de la zona aledaña reabrieron y, aunque el balance a hoy es positivo, aún no está en valores normales.
 (Le recomendamos leer: 'Será trabajar en call center', comerciantes de Caldas, en quiebra por el volcán)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/vida/medio-ambiente/nevado-del-ruiz-estas-son-las-veredas-excluidas-de-la-evacuacion-inmediata-770215
 </t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Nevado del Ruiz: estas son las veredas excluidas de la evacuación inmediata</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>El director de la Unidad Nacional de Gestión de Riesgos y Desastres (UNGRD), Olmedo López, anunció un cambio en la manera cómo se precisará el área de evacuación alrededor del volcán Nevado del Ruiz.
 "Inicialmente se habían definido 15 kilómetros en un radio completo, en donde se trabajó intensamente en la evacuación, pero hoy se cambia a un modelo establecido por el Servicio Geológico Colombiano en el año 2015", explicó López.
@@ -512,19 +574,19 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/tecnosfera/novedades-tecnologia/antenas-para-municipios-cercanos-al-nevado-del-ruiz-769791
 </t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>MinTIC anuncia más de 50 nuevas antenas para municipios cercanos al Nevado del Ruiz</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Desde el municipio de Villamaría, Caldas, el ministro TIC Mauricio Lizcano anunció la instalación de más de 50 nuevas antenas para dar cobertura en materia de comunicación a los habitantes de municipios aledaños al volcán Nevado del Ruiz.
 (Lea también: Apple prohíbe a sus empleados usar modelos de inteligencia artificial , según informe)La medida corresponde a la estrategia que MinTIC creó con empresas de
@@ -535,19 +597,19 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-cerro-bravo-sgc-dice-que-gases-no-son-de-origen-volcanico-770223
 </t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>SGC realizó estudios sobre el gas que sale de Cerro Bravo y descartó origen volcánico</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>El Servicio Geológico Colombiano logró determinar que la salida de gases y vapor del volcán Cerro Bravo ubicado en la vía que conecta a Bogotá con Manizales, no tiene origen volcánico.
 "Por un lado, durante las inspecciones realizadas se encontró que el gas metano que está saliendo de la ladera de este volcán tiene concentraciones muy superiores a las que suele tener en áreas volcánicas e incluso a las que actualmente tiene en el volcán Nevado del Ruiz", puntualiza la entidad."Así mismo, el análisis y evaluación integral de los parámetros de monitoreo del volcán Cerro Bravo muestra estabilidad a lo largo del tiempo y tampoco se han visto variaciones en los últimos días", según el SGC desde septiembre de 1995, cuando comenzó a monitorearse, se encuentra en nivel de actividad verde, el cual indica que es un volcán activo, pero en reposo, con muy poca actividad.
@@ -555,19 +617,19 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/vida/medio-ambiente/nevado-del-ruiz-gestion-del-riesgo-excluye-a-risaralda-de-la-zona-de-riesgo-del-volcan-770087
 </t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Nevado del Ruiz: Gestión del Riesgo excluye a Risaralda de la zona de riesgo del volcán</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>El director de la Unidad Nacional de Gestión de Riesgos y Desastres (UNGRD), Olmedo López, anunció en rueda de prensa un cambio en la manera cómo se precisará el área de evacuación alrededor del volcán Nevado del Ruiz.
 “Inicialmente se habían definido 15 kilómetros en un radio completo, en donde se trabajó intensamente en la evacuación, pero hoy se cambia a un modelo establecido por el Servicio Geológico Colombiano en el año 2015”, explicó López.
@@ -580,19 +642,19 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/tecnosfera/novedades-tecnologia/claro-fortalece-su-senal-alrededor-del-volcan-nevado-del-ruiz-769709
 </t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Claro fortalece su señal alrededor del volcán Nevado del Ruíz</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>La empresa de servicios de telefonía Claro anunció que se encuentra realizando labores de refuerzo y ampliación de cobertura en zonas aledañas al Volcán Nevado del Ruíz. La medida espera impactar directamente en tres municipios del departamento de Caldas. 
 (Lea también: La inteligencia artificial creará una forma de trabajar completamente nueva)Esta estrategia de ampliación de la red  beneficiará a los municipios de Manizales, Chinchiná y Palestina, con el fin de que puedan mantenerse en contacto con las autoridades y su familiares en cualquier momento.  
@@ -604,51 +666,65 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-que-significa-el-olor-azufre-en-manizales-768621
 </t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Olor a azufre cerca a volcán Nevado del Ruiz: ¿por qué se ha reportado y qué significa?</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>El volcán Nevado del Ruiz ha registrado oscilaciones en el número y la energía de sismos, así como en la salida de ceniza. Además, transcurridos más de un mes y medio con el nivel de actividad en naranja, el Servicio Geológico Colombiano (SGC) recibió reportes de olor a azufre durante el Día de la Madre.(Puede leer: Volcán Nevado del Ruiz: ¿cómo son las condiciones ahora que es menor la zona de riesgo?).Habitantes de Manizales dijeron percibir el fuerte olor el domingo 14 de mayo y en jornadas anteriores. Al respecto, la entidad explicó la razón por la que se estaría notando a varios kilómetros del complejo volcánico. Vale recordar que no solo se tiene prevista la salida de ceniza en un volcán con este tipo de actividad, pues también hay emisión de dióxido de azufre. Para el SGC, "indica que el sistema del volcán no está cerrado completamente". Si estuviera cerrado, los gases en su interior "se acumularían haciendo que la probabilidad de una erupción aumente exponencialmente".(Siga leyendo: Antes de Armero, otras tragedias marcadas por la erupción del Nevado del Ruiz).Durante el fin de semana del Día de la Madre es posible que el volcán haya emitido una alta concentración de dióxido de azufre, al cual se sumaron los componentes de la ceniza que, en conjunto, "pudieron reaccionar con la humedad en el ambiente y percibirse olor y sensación irritante similar a compuestos azufrados".Eso no quiere decir que haya un "cambio relevante en la actividad del volcán", como explica la entidad. Es un aspecto que se tiene contemplado en activad naranja. Sencillamente la concentración de dióxido de azufre y alta humedad lo permitieron en esta ocasión.¿Cuándo resulta nocivo para la salud? El SGC indica solo si hay una exposición directa y prolongada a tal olor de azufre habría una afectación. Sin embargo, en Manizales no fue así, "pues las concentraciones de dióxido de azufre van disminuyendo a medida que estas se dispersan en la atmósfera".(Lea también: Llamado clave sobre volcán Nevado del Ruiz: ¿por qué no hay que acostumbrarse?).El comportamiento del volcán es muy inestable. Por tanto, "continúa la probabilidad de que en días o semanas haga una erupción mayor a las que ha hecho en los últimos 10 años", dice el SGC.El cambio de nivel naranja a amarillo requiere de "un tiempo prudencial donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad, el cual puede extenderse a varias semana".El llamado de las autoridades es a mantenerse informados, "no bajar la guardia" y seguir las recomendaciones de los organismos de socorro.- Volcán Nevado del Ruiz: ¿qué es el punto rojo que se ve desde el espacio?- Un mes del volcán Nevado del Ruiz en actividad naranja: las impactantes imágenes.- Video: así esquiaban los colombianos en el Nevado del Ruiz en los años 50.- Mapa: si volcán Nevado del Ruiz hace erupción, estos lugares estarían en riesgo.REDACCIÓN ÚLTIMAS NOTICIAS</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-hoy-video-de-supuestas-emisiones-de-vapor-en-montanas-768581
 </t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: analizan video de supuestas emisiones de vapores en montañas</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Un fuerte olor a azufre, acompañado de intensa caída de ceniza, son las señales de actividad que ha dado durante la mañana de este lunes el volcán Nevado del Ruiz. Además, las autoridades se encuentran evaluando una situación reportada en un video en el que se muestran supuestos vapores emanando de una de las montañas cercanas al volcán Nevado del Ruiz.
+(Le recomendamos leer: SGC aclara si los gases que salen de Cerro Bravo son volcánicos).El video habría sido grabado por algunas personas que circulaban por la vía que de Manizales conduce a Bogotá, a la altura de ‘Cerro bravo’, zona cercana al Ruiz.
+En el video se ve que emanan de la tierra lo que serían supuestos vapores.Las autoridades han informado que se desplazan al lugar para verificar la situación.
+(Le puede interesar: Volcán Nevado del Ruiz: continúa la alerta naranja, advierten caída de ceniza en Tolima)"Tenemos el reporte de un video en el sector de Cerro Bravo, en el que se evidencia emisión de gases y vapores. Hay varias hipótesis, pero ya el Servicio Geológico Colombiano y la Corporación Autónoma Regional (Corpocaldas) enviaron una comisión técnica para hacer una medición y tratar de identificar la génesis de estos gases", explicó Félix Ricardo Giraldo, jefe de la Unidad de Gestión del Riesgo de Caldas.
+Los manizaleños también han reportado un fuerte olor azufre desde tempranas horas de la mañana, además de ceniza en calles, plantas ventanas y vehículos. Todo esto se pudo percibir luego de un fuerte aguacero que se presentó en la madrugada en la capital.
+(Además: Así se ve el volcán Nevado del Ruiz desde los satélites en el espacio)Al respecto, desde Gestión del Riesgo de Caldas señalaron que estas situaciones son normales por la inestabilidad en la que se encuentra el volcán desde que se decretó su nivel de actividad naranja, en marzo.
+"La emisión de ceniza que se presentó sobre las 6:23 de la mañana fue dispersada por los vientos y la lluvia a Manizales y Villamaría y sus áreas urbanas, lo que se vio reflejado en los vehículos y calles . En cuanto al olor a azufre, se están realizando monitoreos con las estaciones ambientales para determinar los niveles que están en la atmósfera y determinar si es necesario emitir alguna alerta", explicó el jefe de la Unidad.
+(Lea también: Volcán Nevado del Ruiz: ¿por qué la emisión de ceniza es un signo que preocupa?)
+Las autoridades han hecho también un llamado a la calma y a no difundir fotos o videos de fuentes desconocidas y estar atentos a las comunicaciones oficiales del Servicio Geológico Colombiano.LAURA USMA CARDONA
+Para EL TIEMPO
+MANIZALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-hoy-emisiones-de-cenizas-y-sismicidad-14-de-mayo-2023-768349
 </t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: continúan la sismicidad y las emisiones de cenizas</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Desde hace varias semanas, el volcán Nevado del Ruiz se mantiene en alerta naranja. En vista de que su actividad sigue siendo muy inestable, el Servicio Geológico Colombiano (SGC) ha venido monitoreando, día a día, sus tendencias y patrones. (Lea también: Volcán Nevado del Ruiz presentó disminución leve respecto a los sismos). El último reporte realizado por la institución, encargada de evaluar los riesgos de origen geológico, reveló que la actividad sísmica relacionada con el movimiento de fluidos aumentó levemente con respecto al día anterior. "Se registró actividad sísmica asociada a fracturamiento de roca al interior del edificio
 volcánico, la cual mostró niveles similares en el número de sismos y en la energía sísmica respecto al día anterior (13 de mayo)", detalló el SGC. (Siga leyendo: ¿Monserrate es un volcán dormido y la iglesia está sobre un cráter? SGC aclara). Los sismos se presentaron a una distancia aproximada de 7 kilómetros del cráter Arenas. Las profundidades fueron de entre 3 y 5 km.
@@ -661,19 +737,19 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-condiciones-ahora-que-la-zona-de-alto-riesgo-fue-reducida-768452
 </t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: ¿cómo son las condiciones ahora que es menor la zona de riesgo?</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>La Unidad Nacional de Gestión del Riesgo de Desastres (UNGRD) redujo en cinco kilómetros el área alto riesgo del volcán Nevado del Ruiz, que continúa en nivel de actividad naranja por su comportamiento inestable. Ahora el área de alto riesgo ya no es de 15 kilómetros, sino de 10 kilómetros.(Puede leer: Volcán Nevado del Ruiz: continúa la sismicidad y las emisiones de cenizas)
 Las familias que evacuaron y viven en las zonas de entre los 10 y los 15 kilómetros, podrán regresar a sus fincas.La decisión de la UNGRD se debe a una solicitud que el gobernador de Caldas, Luis Carlos Velásquez, le pidió al director de esa entidad, Olmedo López, quien el fin de semana pasado se reunió en Manizales con autoridades locales.
@@ -692,19 +768,19 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-aumento-la-sismicidad-dentro-del-volcan-766692
 </t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: reportan leve aumento de actividad sísmica en el volcán</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>El Servicio Geológico Colombiano informó en su más reciente reporte sobre la actividad del volcán Nevado del Ruiz que la actividad sísmica relacionada con el movimiento de fluidos dentro del volcán aumentó levemente con respecto al 7 de mayo, que había aumentado ya con respecto al día anterior.
 (Lea también: Nevado del Ruiz: en 8 años han descubierto 19 volcanes más en tierras de Caldas)"Los sismos se localizaron en el cráter Arenas y de manera dispersa alrededor del mismo, a una distancia máxima de 5 kilómetros y a profundidades entre 1 y 5 kilómetros. Con respecto a la actividad superficial, la altura máxima de la columna de gases y/o ceniza observada fue de 1.000 metros medidos desde la cima del volcán", dijo el SGC.
@@ -714,19 +790,19 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-boletin-del-servicio-geologico-9-de-mayo-766651
 </t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: leve aumento en actividad sísmica del volcán</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>El Servicio Geológico Colombiano informó en su boletín de este 9 de mayo, que la actividad sísmica del volcán Nevado del Ruiz ha presentado un leve aumento en el número de sismos y en la energía sísmica liberada. 
 (Le puede interesar: Volcán Nevado del Ruiz | Anomalías térmicas alcanzan valores mayores: qué ocurre). Además, indicó que se ha registrado, por medio de las cámaras que monitorean la zona, emisiones pulsátiles de ceniza que "tienen una altura máxima de la columna de gases y ceniza de 1000 metros medidos desde la cima del volcán y estuvo relacionada a una emisión de ceniza y afirman que fue registrada el 8 de mayo a las 07:27 p.m". 
@@ -737,37 +813,37 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-llaman-a-no-acostumbrarse-a-anomalias-por-que-766469
 </t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Llamado clave sobre volcán Nevado del Ruiz: ¿por qué no hay que acostumbrarse?</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Los ojos de las autoridades y los habitantes han estado puestos sobre el volcán Nevado del Ruiz, el cual completa más de un mes en nivel de actividad naranja. Desde entonces, se tiene la posibilidad de que haga una erupción en cuestión de días o semanas.(Siga leyendo: Volcán Nevado del Ruiz | Anomalías térmicas alcanzan valores mayores: qué ocurre).Con el pasar de las semanas, los reportes del Servicio Geológico Colombiano (SGC) dan cuenta del registro de sismicidad, salida de ceniza y azufre y anomalías térmicas detectadas por las plataformas satelitales. Como tienden a ser recurrentes varios de estos aspectos en el volcán, el SGC insiste en no normalizarlos, pues la comunidad y las autoridades pueden "acostumbrase" a que "no haya variaciones por varios días"."Este comportamiento ha permanecido por varias semanas de una manera muy similar. No quiere decir que el volcán ya retornó a sus niveles normales. Por el contrario, la sismicidad sigue siendo muy alta en comparación con la que tenía meses atrás", comentó John Makario Londoño, director técnico de geoamenazas de la entidad.(Le recomendamos: Volcán Nevado del Ruiz: ¿qué es el punto rojo que se ve desde el espacio?).Una vez más reiteran la inestabilidad, es decir, el volcán presentan condiciones irregulares que ameritaron declararlo en nivel de actividad naranja."El volcán no está normal. Tiene un nivel de actividad demasiado alto. Con los días se va acostumbrado a que salga ceniza... ¡No! Es importante no acostumbrarse a esas situaciones que no están en términos normales", señaló el experto.Incluso, Londoño aseguró que "a veces" el volcán ha mostrado que "cuando se calma mucho después de una actividad alta es cuando ha hecho erupciones". Eso sí, aclaró que no es posible predecir su comportamiento ni tampoco estimar si hará o no erupción.(Lea también: Nevado del Ruiz: ¿qué son las cenizas volcánicas y por qué son nocivas?).Por tanto, le hizo el llamado a la comunidad para que siga las recomendaciones de las autoridades, como lo es la evacuación preventiva.El comportamiento del volcán es muy inestable. Por tanto, "continúa la probabilidad de que en días o semanas haga una erupción mayor a las que ha hecho en los últimos 10 años", dice el SGC.El cambio de nivel naranja a amarillo requiere de "un tiempo prudencial donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad, el cual puede extenderse a varias semanas".- Un mes del volcán Nevado del Ruiz en actividad naranja: las impactantes imágenes.- Nevado del Ruiz: Caldas pide reducir zona de alto riesgo para recuperar trabajos.- Si hay erupción del volcán Nevado del Ruiz, ¿se puede consumir agua de la llave?- Volcán Nevado del Ruiz | ¿Rayos y fallas en telefonía son señal de erupción?REDACCIÓN ÚLTIMAS NOTICIAS</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-registra-anomalias-termicas-mayores-766350
 </t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz | Anomalías térmicas alcanzan valores mayores: qué ocurre</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>El director de Geoamenazas del Servicio Geológico Colombiano, John Makario Londoño, informó que la actividad del volcán Nevado del Ruiz el pasado 7 de mayo y hoy, 8 de mayo, sigue con los mismos niveles que los días anteriores, sin embargo, "se han detectado algunas anomalías térmicas que han alcanzado valores mayores a los que se han podido detectar en días anteriores". 
 (Le puede interesar: Llamado clave sobre volcán Nevado del Ruiz: ¿por qué no hay que acostumbrarse?).Además, Londoño afirmó que la actividad que se ha presentado es similar a las que se presentó en el 2015 con el desplazamiento del domo de lava que se dio en el fondo del cráter.No obstante, aclaró que esto no significa que el cráter haga erupción por la presencia de estas anomalías, sino que es otro parámetro a las que uno espera en un nivel de actividad naranja.
@@ -778,19 +854,19 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-piden-reducir-zona-de-alto-riesgo-en-caldas-766372
 </t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Nevado del Ruiz: Caldas pide reducir zona de alto riesgo para recuperar trabajos</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>El nuevo director de la Unidad Nacional de Gestión del Riesgo de Desastres (UNGRD), Olmedo López Martínez, visitó Caldas en las últimas horas. Allí lideró un Puesto de Mando Unificado en el que desde el departamento le hicieron una contundente solicitud: que reduzcan la zona considerada de mayor riesgo en las inmediaciones del volcán Nevado del Ruiz.
 (Lea también: Volcán Nevado del Ruiz | Último boletín reporta sismos por movimiento de fluido)Dada su declaratoria de actividad naranja -en la que está desde el 31 de marzo- la zona que está cerrada y de donde se solicitó una evacuación preventiva de las familias, corresponde a 15 kilómetros a la redonda del cráter arenas. La solicitud es que se reduzca a 10 y así varios establecimientos comerciales puedan abrir sus puertas y no seguir en pérdida total como hasta ahora."Esos cinco kilómetros de diferencia son fundamentales para la economía del departamento. No es relajarnos, es seguir trabajando como lo estamos haciendo, con el objetivo de que los hoteles termales y otros restaurantes y espacios turísticos puedan tener mejor desempeño económico y agroindustrial, al igual que las familias del sector que dependen de ofrecer bienes y servicios de cara al turismo", explicó el gobernador de Caldas, Luis Carlos Velásquez.
@@ -807,19 +883,19 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-aumento-la-sismicidad-dentro-del-volcan-766343
 </t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: sigue aumentando la actividad sísmica dentro del volcán</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>El Servicio Geológico Colombiano informó en su más reciente reporte sobre la actividad del volcán Nevado del Ruiz que la actividad sísmica relacionada con el movimiento de fluidos dentro del volcán aumentó con respecto al 6 de mayo, que había aumentado ya con respecto al día anterior.
 (Lea también: Nevado del Ruiz: en 8 años han descubierto 19 volcanes más en tierras de Caldas)"Los sismos se localizaron en el cráter Arenas y de manera dispersa alrededor del mismo, a una distancia máxima de 6 km y a profundidades entre 1 y 5 kilómetros. Con respecto a la actividad superficial, la altura máxima de la columna de gases y/o ceniza observada fue de 1800 metros medidos desde la cima del volcán", dijo el SGC.
@@ -829,19 +905,19 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/vida/medio-ambiente/nevado-del-ruiz-que-son-las-cenizas-volcanicas-y-por-que-son-nocivas-766048
 </t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Nevado del Ruiz: ¿qué son las cenizas volcánicas y por qué son nocivas?</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>La actividad del volcán Nevado del Ruiz ya completa 38 días en nivel naranja y desde el Servicio Geológico Colombiano (SGC) alertan que "existe una probabilidad de que en días o semanas haga una erupción mayor a las que ha hecho en los últimos días 10 años".
 Lea también: (UNGRD recomienda evacuación inmediata de cercanías al cráter del Nevado del Ruiz)En el más reciente reporte entregado por la entidad se indica que la actividad sísmica asociada a fracturamiento de roca al interior del edificio volcánica aumentó el 6 de mayo en comparación con el día inmediatamente anterior. 
@@ -855,19 +931,19 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/comportamiento-del-volcan-nevado-del-ruiz-hoy-domingo-7-de-mayo-766073
 </t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Nevado del Ruiz sigue inestable: se reportan sismos al interior del volcán</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>En un nuevo informe, el Servicio Geológico Colombiano (SGC) indicó que se mantiene la inestabilidad en el Volcán Nevado del Ruiz.
 (Le recomendamos leer: Nevado del Ruiz: ¿Qué son las cenizas volcánicas y por qué son nocivas?).
@@ -880,19 +956,19 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/asi-se-comporta-el-volcan-nevado-del-ruiz-hoy-6-de-mayo-765922
 </t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Se mantiene la actividad sísmica en el cráter del volcán Nevado del Ruíz</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Desde hace más de un mes, el volcán Nevado del Ruiz ha presentado una inestabilidad que ha obligado a las autoridades colombianas a decretar estado de alerta naranja, ante la posible erupción de la falla geológica.
 (Le recomendamos leer: Así afectaría al clima una erupción volcánica y otros datos sobre volcanes).
@@ -906,19 +982,19 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-boletin-extraordinario-5-de-mayo-765679
 </t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: caída de ceniza en Manizales, Villamaría y Neira</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>El Servicio Geológico Colombiano (SGC) informó en su más reciente boletín que, en la mañana de este 5 de mayo, la actividad volcánica del Nevado del Ruiz ha aumentado en comparación a los días anteriores. 
 (Le puede interesar: Reportan dos temblores cerca al volcán Nevado del Ruiz: esta fue su magnitud). "La sismicidad estuvo localizada principalmente en el sector oriental-nororiental del volcán, a distancias entre 2 y 5 km a partir del cráter Arenas y en el cráter mismo y, en menor proporción hubo sismos en el sector suroriental. La profundidad de todos los sismos registrados osciló entre 1 y 5 km", aseguró el SGC por medio de un comunicado. 
@@ -933,19 +1009,19 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/vida/medio-ambiente/volcan-nevado-del-ruiz-por-que-emision-de-ceniza-es-signo-que-preocupa-765235
 </t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: ¿por qué la emisión de ceniza es un signo que preocupa?</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Aunque en las últimas semanas no ha crecido la columna de ceniza emitida por el volcán Nevado del Ruiz, los científicos del Servicio Geológico Colombiano (SGC) afirman que desde mediados del 2021 se ha observado un mayor número de emisiones con altura mayor a 2.000 metros medidos desde de la cima del volcán.
 De hecho, algunas columnas han pasado los 3.000 metros, como las registradas el 12 de abril de 2022, 10 de mayo de 2022, 18 de agosto de 2022 y 2 de mayo de 2023.
@@ -962,19 +1038,19 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/temblor-hoy-en-colombia-se-sintio-cerca-al-volcan-nevado-del-ruiz-765423
 </t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Reportan dos temblores cerca al volcán Nevado del Ruiz: esta fue su magnitud</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Dos nuevos sismos se registraron este 4 de mayo. De acuerdo con el Servicio Geológico Colombiano, los movimientos ocurrieron en cercanías al volcán Nevado del Ruiz.(Lea también: Volcán Nevado del Ruiz: ¿qué es el punto rojo que se ve desde el espacio?).La magnitud del primero fue de 2,2 y el epicentro fue a 14 kilómetros del municipio de Murillo, Tolima. La profundidad esta vez fue de 5 kilómetros.Este temblor se reportó directamente en área de influencia del volcán que completa más de un mes en nivel de actividad naranja.(Siga leyendo: Volcán Nevado del Ruiz: ¿por qué la emisión de ceniza es un signo que preocupa?).El segundo sismo ocurrió en la mañana del jueves, sobre las 11:13 a. m., en Armero, Tolima, a varios kilómetros de distancia del complejo volcánico; eso sí, esta zona no está en el área de influencia.La magnitud fue de 2,6 y el epicentro fue a nueve kilómetros del municipio tolimense. La profundidad fue menor a 30 kilómetros.Por el momento, las autoridades no reportan afectaciones ni víctimas.(No deje de leer: Un mes del volcán Nevado del Ruiz en actividad naranja: las impactantes imágenes).Google utiliza el sistema 'ShakeAlert' una red de 1.675 sensores sísmicos para detectar temblores. La aplicación analiza datos de los sensores para determinar la ubicación y la magnitud del terremoto.
 "El sistema de alertas de terremotos de Android es un servicio gratuito que detecta terremotos en todo el mundo y puede alertar a los usuarios de Android antes de que comience el temblor", describe el sitio web de la compañía.
@@ -985,19 +1061,19 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-volcan-hoy-3-de-mayo-aumento-de-sismos-y-de-fluidos-764828
 </t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz hoy 3 de mayo: leve incremento en la energía sísmica</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>El Servicio Geológico Colombiano (SGC) entregó el boletín de actividad en el volcán Nevado del Ruiz: "Continúa el predominio de la actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos y un leve incremento en la energía sísmica respecto al día anterior (1 de mayo)".
 (Siga leyendo: Volcán Nevado del Ruiz: ¿qué es el punto rojo que se ve desde el espacio?).En el comunicado también se menciona que las señales sísmicas han estado asociadas a emisiones pulsátiles de ceniza que se pueden observar a través de las cámaras web
@@ -1009,37 +1085,37 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-que-es-el-punto-rojo-que-se-vio-desde-el-espacio-764652
 </t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: ¿qué es el punto rojo que se ve desde el espacio?</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Más de un mes completa el volcán Nevado del Ruiz en nivel de actividad naranja, lo que quiere decir que "existe la probabilidad de que en días o semanas haga una erupción mayor a las que ha hecho en la última década". En medio de los monitoreos, el Servicio Geológico Colombiano detectó una luz o punto rojo.(Además: Un mes del volcán Nevado del Ruiz en actividad naranja: las impactantes imágenes).La entidad sigue minuto a minuto el comportamiento del complejo volcánico gracias a numerosos equipos tecnológicos. Por ejemplo, cuentan con cámaras en distintos lugares alrededor del volcán para observarlo en tiempo real. Fuera de la Tierra, acuden a los satélites.El satélite Sentinel 2 de la Agencia Espacial Europea captó al volcán Nevado del Ruiz el pasado 23 de abril. La imagen muestra la nubosidad y, en medio de ella, un punto rojo.Según el SGC, ese punto es una de las anomalías térmicas "que actualmente hay en el fondo del cráter Arenas y que evidencia el flujo de calor proveniente del interior del volcán".Una anomalía térmica es una variación de temperatura en la superficie. Incluso, Luis Fernando Velasco, anterior director encargado de la Unidad Nacional para la Gestión del Riesgo de Desastres, había manifestado que las temperaturas podían alcanzar los 700 °C.(Siga leyendo: ‘Gobierno pide evacuar, pero no hay a dónde ir’: vecinos del Nevado del Ruiz)."Junto a otros indicadores, las anomalías térmicas son un parámetro crucial del monitoreo de volcanes porque muestran el aumento en la actividad volcánica y podrían ser precursores de una erupción", señaló el SGC.Anteriormente, las autoridades registraron una extraña luz que sorprendió a los habitantes de esta zona.(Le recomendamos: Video: así esquiaban los colombianos en el Nevado del Ruiz en los años 50)."Las emisiones de ceniza son comunes en el volcán Nevado del Ruiz, que lleva cerca de 10 años haciendo erupciones menores. A veces emiten luz, debido a la alta temperatura con la que el material particulado y los gases salen del volcán", manifestó el SGC.- Un mes del volcán Nevado del Ruiz en actividad naranja: las impactantes imágenes.- Mapa: si volcán Nevado del Ruiz hace erupción, estos lugares estarían en riesgo.- Volcán Nevado del Ruiz está emitiendo dióxido de azufre: ¿esto qué significa?REDACCIÓN ÚLTIMAS NOTICIAS</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-alerta-y-evacuacion-preventiva-de-familias-764559
 </t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>‘Gobierno pide evacuar, pero no hay a dónde ir’: vecinos del Nevado del Ruiz</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>La preocupación es notoria en las familias de 19 veredas del Tolima que viven a menos de 15 kilómetros del cráter Arenas del Volcán Nevado del Ruiz, y no es para menos toda vez que el sábado anterior la Unidad Nacional para la Gestión del Riesgo de Desastres (UNGRD) pidió a la evacuación inmediata de esas zonas de alto riesgo por una posible erupción.Esas zonas de alto riesgo están en los municipios de Murillo, Villahermosa, Herveo y Casabianca, en el norte del Tolima, por donde descienden los ríos Lagunilla y Azufrado.
 Uno de los campesinos más preocupados es Enrique García, presidente de la Junta de Acción Comunal de La Cabaña, una vereda a 2 kilómetros del cráter del volcán, donde la mayoría de sus habitantes quieren acatar la orden de evacuación, pero no tienen a dónde ir con sus hijos y animales.
@@ -1062,38 +1138,38 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-hoy-2-de-mayo-en-vivo-alerta-naranja-y-evacuaciones-764390
 </t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz, EN VIVO: se presentan emisiones pulsátiles de ceniza</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Los sismos, las anomalías térmicas y la salida de una columna de ceniza del volcán Nevado del Ruiz son algunos de los puntos que hacen al Servicio Geológico Colombiano (SGC) mantener el nivel de actividad en naranja luego de un mes de decretada, eso quiere decir que existe una probabilidad o no de que haya una erupción.
 (Siga leyendo: Un mes del volcán Nevado del Ruiz en actividad naranja: las impactantes imágenes)."Hay que estar pendientes del volcán. Hay un magma que está debajo presionando y en los alrededores del volcán se puede presentar sismicidad. Eso es típico de volcán", expresó John Makario Londoño, director técnico de geoamenazas del SGC.(Además: Volcán Nevado del Ruiz: ¿qué es el punto rojo que se ve desde el espacio?).Siga aquí el minuto a minuto de este 2 de mayo:¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-revelan-videos-de-colombianos-esquiando-en-los-anos-50-764436
 </t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Video: así esquiaban los colombianos en el Nevado del Ruiz en los años 50</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>En los años cincuenta era posible esquiar en la Cordillera de los Andes, esto debido a la extensa capa de hielo que la recubría. En medio del nivel de actividad naranja, Señal Memoria, desempolvó un video grabado en 1958 donde se muestra a varias personas esquiando en el Nevado del Ruiz.
 En ese momento, el volcán contaba con un área glaciar de 47.5 km², de acuerdo con el Instituto de Hidrología, Meteorología y Estudios Ambientales.
@@ -1105,37 +1181,37 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-fotos-de-la-evolucion-en-un-mes-de-alerta-naranja-763679
 </t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Un mes del volcán Nevado del Ruiz en actividad naranja: las impactantes imágenes</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>El 30 de marzo sobre las 10 p. m., el Servicio Geológico Colombiano (SGC) le informó al país una novedad en el volcán Nevado del Ruiz: el cambio de actividad de nivel amarillo a naranja. Uno de los factores para elevar la situación fue el número de sismos registrados, pues el día anterior -29 de marzo- se contabilizó la mayor cantidad desde 1985, año en el que iniciaron los monitoreos al complejo volcánico.(Además: Volcán Nevado del Ruiz: ¿cuáles son los riesgos de los lahares?).Tras un mes transcurrido con los ojos puestos, las autoridades mantienen el nivel de actividad en naranja, lo que quiere decir que "existe la probabilidad de que en días o semanas haga una erupción mayor a las que ha hecho en la última década".Se ha buscado evacuar a toda la población que está en zona de amenaza alta, mientras el volcán de naturaleza explosiva se mantiene inestable. Esta ha sido su evolución en imágenes:De acuerdo con los informes del SGC, entre el 29 y 30 de marzo hubo más de 12 mil sismos diarios, "siendo esta la mayor tasa diaria de sismicidad registrada desde que se inició el monitoreo sísmico en el volcán".Además, el 30 de marzo la magnitud o cantidad de energía liberada por el fracturamiento de roca fue una de las más altas: 3,1.(Siga leyendo: Volcán Nevado del Ruiz | ¿Rayos y fallas en telefonía son señal de erupción?).Entrado el mes de abril, la magnitud de los sismos incrementó ya que hubo uno con 3,9, calificándose como uno de las mayores registrados desde 1985.Sin embargo, descendió tanto la magnitud como el número de temblores que ocurrían al día (entre 5 mil y 10 mil). Surgió otro aspecto importante para analizar: aumentó la salida de gases volcánicos, vapor de agua y/o ceniza, como quedó registrado en varias imágenes.El Jueves Santo se marcó otro elemento vital para el seguimiento del volcán Nevado del Ruiz. Gracias a las plataformas satelitales, se tuvo reporte de las primeras anomalías térmicas en el cráter Arenas, es decir, la temperatura alcanzó niveles muy altos.(No deje de leer: Así es el poderoso cráter Arenas del volcán Nevado del Ruiz que tiene anomalías)."Desde el SGC este fenómeno fue interpretado como una posible migración de magma desde el suroccidente del volcán, a través de la falla La Palestina, hasta un reservorio de magma", expresaron. Es decir, detectaron movimiento de este material extremadamente caliente por las 'venas' del Nevado del Ruiz durante la Semana Santa."Es imaginarse la tierra como un huevo: la parte interior está la yema y la clara, la cascara es la corteza. Si se calienta por dentro y la cascara se encuentra intacta, no pasaría nada pero, si tuviera fallas, saldría el material caliente; así sucede con las cámaras y La Palestina", dijo Germán Prieto, geólogo y profesor asociado del programa de Geociencias de la Universidad Nacional, para EL TIEMPO.(En contexto: Volcán Nevado del Ruiz: la falla geológica por donde se mueve el magma).Luego de la Semana Santa, el Servicio Geológico Colombiano decidió no reportar más en sus boletines el número de sismos diarios producto del fracturamiento de roca, pues habían descendido notablemente y dejaban de ser "un indicador determinante de la actividad del volcán".El movimiento de magma, en cambio, junto con las anomalías térmicas y la salida constante de ceniza tomaron más relevancia. (Puede leer: Si hay erupción del volcán Nevado del Ruiz, ¿se puede consumir agua de la llave?).Incluso, gracias a los días despejados, ciudadanos en zonas aledañas y algunos pasajeros de avión lograron divisar en las mañanas la columna de ceniza.El cráter Arenas durante esa segunda semana de abril tuvo un aumento de la sismicidad, lo que se traducía en presión del magma al interior en un intento por salir. Deslice para ver más fotografías:(Le recomendamos: 'Será trabajar en call center', comerciantes de Caldas, en quiebra por el volcán).La tercera semana de abril estuvo caracterizada por la presión continúa del magma. Según las plataformas satelitales, las anomalías térmicas del cráter Arenas alcanzaron valores muy cercanos a los observados en 2015, por lo que el magma seguía movilizándose en busca de la superficie.Tres paquetes de imágenes fueron valiosos durante esa semana. Primero, cámaras del Servicio Geológico Colombiano captaron salida de ceniza con incandescencia o de color rojo."Las emisiones de ceniza son comunes en el volcán Nevado del Ruiz, que lleva cerca de 10 años haciendo erupciones menores. A veces emiten luz, debido a la alta temperatura con la que el material particulado y los gases salen del volcán", señaló la entidad.Segundo, la Fuerza Aérea reveló las primeras fotos y videos de sus vuelos a 30.000 pies de altura sobre el volcán con su SR-560, aeronave que, “mediante la utilización de sistemas optrónicos, permite la obtención de imágenes en tiempo real del comportamiento de este fenómeno natural”.(Lea también: Volcán Nevado del Ruiz está emitiendo dióxido de azufre: ¿esto qué significa?)."Pudimos constatar que el domo de lava permanece en el fondo del cráter; tiene un poco más de extensión, probablemente, por el empuje que ha tenido el magma", afirmó John Makario Londoño, director técnico de geoamenazas del SGC, al analizar las imágenes de los sobrevuelos.Tercero, imágenes de una supuesta grieta en el volcán circularon en redes sociales, generando alarma porque algunos creyeron que se trataba de un quiebre en la nieve.Incluso, internautas falsamente atribuyeron el "hallazgo" a personal del Ejército que hace presencia en la zona. De hecho, durante uno de sus monitores la fotografiaron, pero no la describieron como una "grieta".No es ninguna grieta. "Es una pared correspondiente al límite de un cuerpo de lava cristalizado, un rasgo que este volcán presenta desde hace años y que no tiene relación con su actividad actual", sentenció el SGC. Dependiendo de la cantidad de nieve o hielo que haya en la parte superior, esa pared puede ser más o menos visible.(Además: Pese a posible erupción, alcalde prepara Festival del volcán Nevado del Ruiz).Una buena señal, en medio del frenético seguimiento, fue detallada por el SGC: las emisiones de dióxido de azufre. "Indica que el sistema del volcán no está cerrado completamente; si lo estuviera, los gases al interior de la estructura se acumularían haciendo que la probabilidad de una erupción aumente exponencialmente".Deslice para ver más fotografías:El mes de abril en el volcán Nevado del Ruiz finalizó con la palabra más reiterada por las autoridades: intestabilidad. Aunque la cantidad de sismos en algunos días desciende, en otros puede aumentar, estar más cerca del cráter o tener un nivel de energía mayor.La salida de ceniza se ha convertido en un fenómeno también reiterativo a lo largo de las semanas. La columna, que ha alcanzado los 2,5 kilómetros de altura, se ha dispersado en distintas direcciones, cayendo en municipios de Tolima, Caldas, Risaralda y hasta en la ciudad de Manizales.Para pasar del nivel de actividad naranja a amarillo o verde, están atentos de cómo evoluciona el magma, material que está en el fondo del cráter y que busca una salida.  El cambio, como dice el SGC, requiere de "un tiempo prudencial donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad, el cual puede extenderse a varias semanas".- Mapa: si volcán Nevado del Ruiz hace erupción, estos lugares estarían en riesgo.- Volcán Nevado del Ruiz | ‘Los sismos en el cráter son lo que más preocupa’: SGC.- Nevado del Ruiz: ¿una erupción podría activar a otros volcanes? El SGC explica.- Volcán Nevado del Ruiz: estas son las veredas que deberían evacuar de inmediato.REDACCIÓN ÚLTIMAS NOTICIAS¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-que-son-los-lahares-y-que-los-causa-sgc-responde-763798
 </t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>¿Qué son los lahares? Esto es lo que explica el SGC sobre estos fenómenos</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>El pasado jueves, el Ideam emitió alerta naranja en municipios cercanos al volcán Nevado del Ruiz y advirtió sobre la creación de lahares. "Suelen ser relativamente pequeños y su descarga y volumen dependen de la intensidad por la lluvia que se genere", aclaró el Servicio Geológico Colombiano (SGC).
 Respecto a esto, el Servicio Geológico Colombiano explicó de qué se tratan estos fenómenos de sedimento.
@@ -1147,74 +1223,74 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/como-va-el-volcan-nevado-del-ruiz-hoy-en-vivo-reportes-sgc-28-abril-2023-763553
 </t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz, EN VIVO: así evoluciona, hay monitoreo permanente</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Los sismos, las anomalías térmicas y la salida de una columna de ceniza del volcán Nevado del Ruiz son algunos de los puntos que hacen al Servicio Geológico Colombiano (SGC) mantener el nivel de actividad en naranja a cerca de cumplir un mes. Eso quiere decir que existe una probabilidad o no de que haya una erupción.(Además: Volcán Nevado del Ruiz: Ideam emite alertas por riesgo de formación de lahares)."Hay que estar pendientes del volcán. Hay un magma que está debajo presionando y en los alrededores del volcán se puede presentar sismicidad. Eso es típico de volcán", expresó John Makario Londoño, director técnico de geoamenazas del SGC.(De su interés: Volcán Nevado del Ruiz | ¿Qué fenómenos podrían ocurrir si hace erupción?).A continuación, siga el minuto a minuto de este 28 de abril del 2023:REDACCIÓN ÚLTIMAS NOTICIAS¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-hoy-en-vivo-ultimas-noticias-alerta-naranja-763182
 </t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz, EN VIVO: sismos al interior aumentan, uno cerca a cráter</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>A cerca de cumplir un mes el nivel de actividad naranja en el volcán Nevado del Ruiz -lo que significa probabilidad de que haya una erupción mayor a la de los últimos diez años-, la energía de los sismos en las recientes jornadas ha aumentado, así como la longitud de la columna de ceniza que pueden observar habitantes de zonas cercanas.(Lea también: Volcán Nevado del Ruiz | ¿Qué fenómenos podrían ocurrir si hace erupción?)."El volcán no se va a calmar de un día para otro. (...) La actividad fluctúa, puede por momentos disminuir o aumentar. No podemos bajar la guardia", ha dicho John Makario Londoño, director técnico de geoamenazas del Servicio Geológico Colombiano.Siga el minuto a minuto de este 27 de abril del 2023:REDACCIÓN ÚLTIMAS NOTICIAS¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-municipios-en-alerta-naranja-por-lahares-763259
 </t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: Ideam emite alertas por riesgo de formación de lahares</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Desde que el 30 de marzo se declaró el nivel de actividad en naranja en el volcán Nevado del Ruiz, las autoridades han desplegado acciones para evacuar a comunidades de las zonas aleñadas que se podrían ver afectadas en caso de una posible erupción. En ese sentido, el Instituto de Hidrología, Meteorología y Estudios Ambientales, Ideam, emitió alerta naranja y amarilla para distintos municipios del área de influencia por riesgos de formación de lahares.(Además: Volcán Nevado del Ruiz: la falla geológica por donde se mueve el magma).Lahares secundarios se contemplan como un fenómeno. Es material volcánico depositado en ciertos lugares por erupciones previas que puede ser removido por la lluvia. "Suelen ser relativamente pequeños y su descarga y volumen dependen de la intensidad por la lluvia que se genere", aclara el SGC.(Siga leyendo: Volcán Nevado del Ruiz está emitiendo dióxido de azufre: ¿esto qué significa?).En Tolima, se recomienda atención a las zonas rurales de Villahermosa, Casabianca, Líbano, Lérida, Falan, Armero Guayabal, Murillo, Venadillo y Ambalema por la formación de lahares que podrían descender por los valles del los ríos Lagunilla, Sabandija y Recio.(Le recomendamos: ¿Hay una 'grieta' en el volcán Nevado del Ruiz? Esta es la verdadera razón).Ese fenómeno podría bajar, así mismo, por la cuenca del río Gualí. Así que las zonas rurales de los municipios de Herveo, Casabianca, Fresno, Palocabildo,
 Falan, Mariquita y Honda (Tolima), y las cabeceras municipales de Mariquita y Honda (Tolima) están en alerta naranja.Por los valles de las quebradas Nereidas, Alfombrales, ríos Molinos, Claro y Chinchiná, igualmente, podrían tener repercusión los lahares. En Caldas, Manizales, Villamaría, Chinchiná, Palestina, Neira y Anserma están en alerta naranja, según el Ideam.Aunque en el boletín del Ideam esté en el pronóstico de amenaza de deslizamiento en área de influencia del volcán Nevado del Ruiz, la alerta en el municipio de Quindío se emite por las lluvias, no por la actividad del complejo volcánico."En Salento estamos en amenaza baja por el nevado. Ideam tiene alerta roja por deslizamientos, las lluvias han afectado las vías y el municipio las ha atendido de manera oportuna", dijo Juan Pablo Granados, coordinador de gestión del riesgo de Salento.- Si hay erupción del volcán Nevado del Ruiz, ¿se puede consumir agua de la llave?- En medio de emergencia por el Nevado del Ruiz, la UNGRD quedaría sin director.- Luis Alfredo Garavito tiene cáncer de ojo; esta es la reveladora foto en cárcel.- Gustavo Bolívar confirma su intención de ser candidato a la Alcaldía de Bogotá.REDACCIÓN ÚLTIMAS NOTICIAS</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/vida/medio-ambiente/volcan-nevado-del-ruiz-ungrd-quedaria-sin-director-por-salida-de-ministros-763081
 </t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>En medio de emergencia por el Nevado del Ruiz, la UNGRD quedaría sin director</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>El remezón político que generó los cambios en siete ministerios por parte del presidente Gustavo Petro dejó a un damnificado, del cual no se tiene certeza sobre su futuro: la Unidad Nacional de Gestión de Riesgos y Desastres (UNGRD).
 Esto por cuenta del nombramiento de Luis Fernando Velasco, quien hasta ahora era el director encargado de la entidad, como nuevo ministro de Interior, aprovechando su amplia experiencia en el Congreso, con lo que tiene ahora la misión de sacar adelante en el legislativo las reformas presentadas por el Gobierno.(Lea: Volcán Nevado del Ruiz, EN VIVO: llaman a no bajar la guardia por la actividad).De esta forma, la UNGRD quedaría sin una cabeza, lo cual llama la atención si se tiene en cuenta que esta entidad es la encargada de coordinar con los municipios las diferentes acciones de prevención ante una posible erupción del volcán Nevado del Ruiz.Y es que vale recordar que, según el último informe del Sistema Geológico Colombiano (SGC), "la actividad del volcán Nevado del Ruiz sigue siendo muy inestable", tanto en su actividad sísmica como por sus anomalías térmicas, por lo que continúa habiendo una alta probabilidad de erupción.
@@ -1224,19 +1300,19 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-aumento-la-energia-sismica-dentro-del-volcan-762928
 </t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: aumentó todavía más la energía sísmica dentro del volcán</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>El Servicio Geológico Colombiano informó en su más reciente reporte sobre la actividad del volcán Nevado del Ruiz que la actividad sísmica relacionada con el movimiento de fluidos dentro del volcán aumentó con respecto al 24 de abril, que había aumentado ya con respecto al día anterior.
 (Lea también: Volcán Nevado del Ruiz, EN VIVO: columna de ceniza alcanzó 2,5 kilómetros de alto)"La altura máxima de la columna de gases y/o ceniza observada fue de 25.00 metros medidos desde la cima del volcán correspondiente a la emisión de ceniza registrada ayer a las 07:48 a. m., con dirección de dispersión de la columna hacia el noroccidente, la cual fue visible desde varios municipios de Tolima, Caldas y Risaralda, gracias a las condiciones atmosféricas favorables", señaló el SGC en su más reciente informe.
@@ -1246,62 +1322,37 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.eltiempo.com/vida/ciencia/volcan-nevado-del-ruiz-erupcion-podria-activar-a-otros-volcanes-762328
-</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Nevado del Ruiz: ¿una erupción podría activar a otros volcanes? El SGC explica</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Actualmente, el Servicio Geológico Colombiano (SGC) cuenta con tres observatorios vulcanológicos ubicados en Manizales, Pasto y Popayán, desde donde los especialistas le hacen seguimiento a los 21 volcanes activos que se conocen en el país, ubicados principalmente en la zona central.
-(Le recomendamos: Volcán Nevado del Ruiz: columna de ceniza alcanzó 2 kilómetros de alto)
-Desde Manizales, además de monitorear por estos días la actividad del volcán Nevado del Ruiz, también se sigue el comportamiento de volcanes vecinos como el Cerro Bravo, Cerro Machín o el Nevado de Santa Isabel.Debido a la cercanía de estas estructuras geológicas, existe la creencia popular de que estas pueden estar conectadas y que la erupción de una de ellas puede llevar eventualmente a que otras se activen.
-Sin embargo, desde el SGC los expertos han explicado en repetidas ocasiones que se trata solo de un mito. "Cada volcán tiene su propio sistema magmático, es decir, tienen sus propios reservorios o cámaras que son alimentadas por unas fuentes mucho más profundas", explicó Jhon Makario Londoño, director técnico de geoamenazas del Servicio Geológico.Sin embargo, reconoce que en dichas fuentes que se encuentran en las profundidades de la Tierra, a más de 30 kilómetros, sí podría ser compartida por muchos volcanes, pero no implica una relación en su actividad.
-(También: Volcán Nevado del Ruiz | ¿Rayos y fallas en telefonía son señal de erupción?)"En este caso estamos hablando de los edificios volcánicos que son máximo los seis o siete kilómetros más superficiales de la corteza, ahí el Nevado del Ruiz es un elemento totalmente independiente del volcán Cerro Machín, de manera que ese mito que se tiene de que si el Nevado del Ruiz se activa lo hacen también otros volcanes como el del Tolima, el Cerro Bravo y otros, es totalmente falso", enfatiza el experto.Pese a esto, desde la entidad mantienen la alerta porque el volcán Nevado del Ruiz sigue en nivel de actividad en naranja, lo que significa que hay probabilidad de una erupción en los próximos días o semanas.En los últimos días, a la salida de ceniza se le sumó la emisión de dióxido de azufre. Según el Servicio Geológico Colombiano (SG), este fenómeno "indica que el sistema del volcán no está cerrado completamente". Si estuviera cerrado, los gases a su interior "se acumularían haciendo que la probabilidad de una erupción aumente exponencialmente".
-(Siga leyendo: ¿Hay una 'grieta' en el volcán Nevado del Ruiz? Esta es la verdadera razón)Las autoridades hacen un llamado a "no bajar la guardia" y seguir las recomendaciones de los organismos de socorro, sobre todo en zonas aledañas al volcán donde algunos habitantes no han evacuado.
-ALEJANDRA LÓPEZ PLAZAS
-REDACCIÓN CIENCIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/en-vivo-volcan-nevado-del-ruiz-temblores-y-ceniza-mantienen-alerta-naranja-762402
 </t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz, EN VIVO: columna de ceniza alcanzó 2 kilómetros de alto</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>El volcán Nevado del Ruiz completa más de 27 días con el nivel de actividad en naranja, lo que significa que hay probabilidad de una erupción en los próximos días o semanas. La evacuación preventiva en algunas zonas no ha sido la esperada; de hecho, en Tolima de las mil familias que deben salir, solo 102 lo han hecho.(Lea también: ¿Podría ocurrir un terremoto si hay erupción del Nevado del Ruiz? SGC aclara)."La actividad de los volcanes es impredecible: no podemos decir que se vaya a comportar como lo hizo en 1985 (...) pero tiene el potencial para hacer una erupción de ese tamaño", afirmó John Londoño, director de Geoamenazas del SCG,(Además: Si hay erupción del volcán Nevado del Ruiz, ¿se puede consumir agua de la llave?).Como "no hay que bajar la guardia", el llamado de las autoridades es a seguir las recomendaciones de los organismos de socorro, mantenerse informados y evitar caer en contenido falso que puede circular por redes sociales, como mito sobre un terremoto: "(Dicen) que si hay una erupción grande va a haber un terremoto que destruirá a Manizales. ¡Eso es falso!".Siga el minuto a minuto de este 25 de abril del 2023:REDACCIÓN ÚLTIMAS NOTICIAS¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-aumento-la-energia-sismica-dentro-del-volcan-762501
 </t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: aumentó la actividad sísmica dentro del volcán, SGC</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>El Servicio Geológico Colombiano informó en su más reciente reporte sobre la actividad del volcán Nevado del Ruiz que la actividad sísmica relacionada con el movimiento de fluidos dentro del volcán aumentó con respecto al 23 de abril y ha estado asociada a varias emisiones pulsátiles de ceniza que fueron confirmadas a través de las cámaras web utilizadas para el monitoreo volcánico.
 (Lea también: Volcán Nevado del Ruiz, EN VIVO: columna de ceniza alcanzó 2 kilómetros de alto)"La altura máxima de la columna de gases y/o ceniza observada fue de 2.200 metros medidos desde la cima del volcán. Además, continúa la desgasificación de dióxido de azufre a la atmósfera y la salida de vapor de agua en el volcán", señalaron desde el SGC.
@@ -1311,73 +1362,73 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-que-significa-falla-en-internet-o-telefonia-762562
-</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Volcán Nevado del Ruiz | ¿Rayos y fallas en telefonía son señal de erupción?</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>“Evacuar ya”. Este es el contundente mensaje de Luis Fernando Velasco, director encargado de la Unidad Nacional para la Gestión del Riesgo de Desastres, para las comunidades que no han querido salir de la zona de influencia del volcán Nevado del Ruiz, que continúa en alerta naranja ante la posibilidad de una erupción.(Lea: Volcán Nevado del Ruiz, EN VIVO: columna de ceniza alcanzó 2 kilómetros de alto)Son cinco los municipios priorizados para la evacuación: Herveo, Murillo, Casabianca y Villahermosa, en Tolima, y Villamaría, en Caldas. Sin embargo, en algunas de las veredas donde el mapa de riesgo evidencia mayor precaución, todavía hay pobladores que se resisten a evacuar.En algunas de estas veredas, como es el caso de La Cabaña, que es la comunidad del municipio de Murillo más próxima al volcán, los campesinos afirmaron que “la señal de celular es muy mala”.(Además: ¿Podría ocurrir un terremoto si hay erupción del Nevado del Ruiz? SGC aclara)“La señal de celular a veces sirve y las llamadas entran o salen sin problema, pero hay días terribles pues quedamos sin señal 4 y 6 horas”, manifestó un habitante de esta zona.De otro lado, en redes sociales surgió un rumor de que la energía creciente del cráter trae, supuestamente, interferencias a las comunicaciones satelitales, de celulares, televisión e internet. Además, señalaban que era otra señal de una posible erupción.EL TIEMPO consultó a John Jairo Sánchez, geólogo y profesor de la Universidad Nacional, quien explicó cuál es la verdad sobre algunos fenómenos que se presentan en un volcán en actividad, como es el caso del Nevado del Ruiz.(También: Si hay erupción del volcán Nevado del Ruiz, ¿se puede consumir agua de la llave?)Para Sánchez, en estas zonas, al ser tan alejadas, hay dificultades con las señales de telefonía. “Cuando uno sube a esas regiones, que son áreas rurales, la cobertura en comunicaciones es complicada. A medida que te vas alejando, vas experimentando que la señal se hace más débil. Es cuestión de que es una zona lejana, de que no hay mayor cobertura”, señaló.El experto explicó que no es acertado decir que el fenómeno de que no hay señales es un síntoma de que va a ser erupción el volcán. “He subido muchas veces, en épocas cuando obviamente no hay actividad eruptiva, cuando el volcán está calmado, e igual las señales son deficientes”, añadió.(También: Nevado del Ruiz: ¿Una erupción podría activar a otros volcanes? El SGC explica)De hecho, Sánchez pidió estar siempre muy atentos y apegados a la información del SGC como fuente oficial.La zona donde está ubicado el Nevado del Ruiz generalmente es propensa a las lluvias, fenómeno que puede causar tormentas eléctricas en los alrededores, pero estos no necesariamente están asociadas al volcán, dijo Sánchez.Para el experto, se trata de fenómenos asociados al estado del tiempo. Sin embargo, según Sánchez, las tormentas eléctricas podrían ocurrir cuando un volcán hace erupción, con gran cantidad de ceniza expulsada a la atmósfera por varios kilómetros. Es posible que este material genera unos procesos que, eventualmente, terminan en la generación de descargas eléctricas.“En otras palabras, es muy común que cuando un volcán hace erupción ocurra una pequeña tormenta local, como un microclima con descargas eléctricas a causa de eso”, señaló.(Lea: Volcán Nevado del Ruiz: de mil personas que deben evacuar, solo 102 lo han hecho)No obstante, indicó que esto solo ocurre cuando hay una erupción volcánica de grandes proporciones. En el caso de las columnas de ceniza, como la de este martes, de unos dos kilómetros de altura, no tiene el suficiente material para provocar una descarga eléctrica.El SGC ha reiterado que el Nevado del Ruiz es un volcán que está en erupción desde hace aproximadamente 10 años, pero todas las erupciones que ha hecho en este periodo han sido menores y su afectación se ha limitado a caída de cenizas en diferentes lugares dependiendo de la dirección del viento.REDACCIÓN ÚLTIMAS NOTICIAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-si-hay-erupcion-se-puede-tomar-agua-de-la-llave-762486
-</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Si hay erupción del volcán Nevado del Ruiz, ¿se puede consumir agua de la llave?</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Con el pasar de los días, la actividad del volcán Nevado del Ruiz se mantiene en naranja. La salida de ceniza, las anomalías térmicos del cráter Arenas y los sismos dentro del complejo volcánico son solo algunas señales de la inestabilidad, pues tienden a oscilar.(Siga la cobertura: Volcán Nevado del Ruiz, EN VIVO: columna de ceniza alcanzó 2 kilómetros de alto).En medio de las labores de monitoreo del Servicio Geológico Colombia (SGC) y las autoridades de Gestión del Riesgo de Desastres, circulan en redes sociales falsas previsiones sobre lo que podría ocurrir en caso de una erupción.A continuación, algunos mitos y verdades:Falso. Según John Londoño, director de Geoamenazas del SGC, algunos dicen que "si hay una erupción grande va a haber un terremoto que destruirá a Manizales. ¡Eso es falso!". De acuerdo con las autoridades, "los sismos relacionados con una erupción se presentan al interior del volcán".(Siga leyendo: Volcán Nevado del Ruiz está emitiendo dióxido de azufre: ¿esto qué significa?).Depende de la zona en la que se encuentre y si es potable. La Unidad Nacional para la Gestión del Riesgo de Desastres recomienda evitar consumir agua de ríos o quebradas de montaña o cercanos al volcán, ya que puede estar contaminada.En cambio, en municipios y ciudades el agua, antes de salir por la llave, surte un proceso de potabilización que "elimina la ceniza permitiendo su consumo cotidiano", menciona la Gobernación de Caldas.(Además: Volcán Nevado del Ruiz | ‘Los sismos en el cráter son lo que más preocupa’: SGC).Falso. Como ha explicado la Alcaldía de Manizales y el SGC, la ciudad "solo se vería afectada por caída de ceniza". De hecho, el mapa de riesgo oficial indica que los fragmentos de roca podrían ser transportados por proyección balística y "depositados en las partes cercanas del volcán a distancias menores a 10 kilómetros desde el punto de emisión".Falso. Los vecinos del volcán Nevado del Ruiz son el Cerro Bravo, Cerro Machín y el Nevado de Santa Isabel, pero su actividad es totalmente ajena."En este caso estamos hablando de los edificios volcánicos que son máximo los seis o siete kilómetros más superficiales de la corteza, ahí el Nevado del Ruiz es un elemento totalmente independiente del volcán Cerro Machín, de manera que ese mito que se tiene de que si el Nevado del Ruiz se activa lo hacen también otros volcanes como el del Tolima, el Cerro Bravo y otros, es totalmente falso", señaló Londoño, del SGC.(Amplíe acá: Nevado del Ruiz: ¿Una erupción podría activar a otros volcanes? El SGC explica).Si hay orden de evacuación en su zona, debe salir a los lugares que indiquen las autoridades.Si no hay orden de evacuación para áreas que están a varios kilómetros, como la ciudad de Manizales, las autoridades recomiendan estar en casa porque "la ceniza podría generar afectaciones respiratorias y oculares, así como también las vías podrían tornarse peligrosas y lisas".En caso de caída de ceniza, la Unidad Nacional para la Gestión del Riesgo de Desastres aconseja usar tapabocas N95 y cerrar todas las ventanas, puertas y aberturas por donde pueda ingresar el material. Si quedan alrededor de las ventanas y puertas algunos espacios, cubra con paños húmedos.(Puede leer: ¿Por qué reportan ruidos en volcán Nevado del Ruiz en la madrugada? SGC explica).Falso. Los sismos y otros aspectos pueden variar, pero eso "no significa que vaya a hacer una erupción inminente", precisan las autoridades. Así que el monitoreo para bajar o elevar el nivel de actividad seguirá."Para cambiar de nivel y retornar a nivel amarillo se requiere un tiempo prudencial donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad", dice el SGC.Los flujos de lava "se generan en zonas aledañas al cráter del volcán", precisa las autoridades. Como contempla el mapa de riesgo, llegarían a áreas rurales de la parte alta de los municipios de Villamaría, Herveo, Casabianca, Villahermosa, Murillo (Tolima) y Santa Rosa de Cabal (Risaralda), eso sí cabe resaltar que todo depende de la magnitud que tenga este fenómeno.(Amplíe: Mapa: si volcán Nevado del Ruiz hace erupción, estos lugares estarían en riesgo).- Luis Alfredo Garavito tiene cáncer de ojo; esta es la reveladora foto en cárcel.- ¿Podría ocurrir un terremoto si hay erupción del Nevado del Ruiz? SGC aclara.- Volcán Nevado del Ruiz: de mil personas que deben evacuar, solo 102 lo han hecho.- Preocupantes advertencias sobre la inteligencia artificial de Yuval Noah Harari.REDACCIÓN ÚLTIMAS NOTICIAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-podria-ocurrir-un-terremoto-si-hace-eupcion-762170
-</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>¿Podría ocurrir un terremoto si hay erupción del Nevado del Ruiz? SGC aclara</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>El volcán Nevado del Ruiz completa más de 26 días con el nivel de actividad en naranja, lo que significa que hay probabilidad de una erupción en los próximos días o semanas. Los sismos han oscilado en las últimas jornadas, es decir, han aumentado o descendido, por lo que las autoridades ratifican su "inestabilidad".(Siga la cobertura: Volcán Nevado del Ruiz, EN VIVO: en emergencia, campesinos se quejan de la señal)."Hay probabilidad de que explote en días o semanas. Nadie puede decir cuándo. Otra de las opciones es que se vaya calmando y no haga erupción. Nosotros estamos actuando casi como si fuera a hacer una erupción", dijo Luis Fernando Velasco, director encargado de la Unidad Nacional para la Gestión del Riesgo de Desastres (UNGRD).Como "no hay que bajar la guardia", el llamado de las autoridades es a seguir las recomendaciones de los organismos de socorro, mantenerse informados y evitar caer en contenido falso que puede circular por redes sociales.De hecho, para aclarar la información que a algunos ha alarmado, el Servicio Geológico Colombiano se refirió a la posibilidad de la ocurrencia de un terremoto.(Además: Mapa: si volcán Nevado del Ruiz hace erupción, estos lugares estarían en riesgo)."(Dicen) que si hay una erupción grande va a haber un terremoto que destruirá a Manizales. ¡Eso es falso!", expresó John Londoño, director de Geoamenazas del SCG, en el Canal Institucional.En ese sentido, una vez más, les pidió a los colombianos no caer en cadenas que pueden enviarse por aplicaciones de mensajería. Para estar atentos, el SGC minuto a minuto monitorea la actividad con recursos tecnológicos que no tenía en 1985 -cuando la erupción sepultó a Armero-.(Siga leyendo: Nevado del Ruiz: las impresionantes imágenes aéreas de cómo está el volcán)."La actividad de los volcanes es impredecible: no podemos decir que se vaya a comportar como lo hizo en 1985 (...) pero tiene el potencial para hacer una erupción de ese tamaño", precisó.Según explicó Londoño, para bajar el nivel de actividad a amarillo están atentos de cómo evoluciona el magma, material que está en el fondo del cráter y que busca una salida, generando sismos y fracturamiento de roca. El cambio de nivel naranja a amarillo requiere de "un tiempo prudencial donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad, el cual puede extenderse a varias semanas".- Volcán Nevado del Ruiz está emitiendo dióxido de azufre: ¿esto qué significa?- Pese a posible erupción, alcalde prepara Festival del volcán Nevado del Ruiz.- ¿Por qué reportan ruidos en volcán Nevado del Ruiz en la madrugada? SGC explica.- ‘Nevado del Ruiz es paciente crítico’: ¿Se podría saber cuándo haría erupción?REDACCIÓN ÚLTIMAS NOTICIAS</t>
-        </is>
-      </c>
-    </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-que-significa-falla-en-internet-o-telefonia-762562
+</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz | ¿Rayos y fallas en telefonía son señal de erupción?</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>“Evacuar ya”. Este es el contundente mensaje de Luis Fernando Velasco, director encargado de la Unidad Nacional para la Gestión del Riesgo de Desastres, para las comunidades que no han querido salir de la zona de influencia del volcán Nevado del Ruiz, que continúa en alerta naranja ante la posibilidad de una erupción.(Lea: Volcán Nevado del Ruiz, EN VIVO: columna de ceniza alcanzó 2 kilómetros de alto)Son cinco los municipios priorizados para la evacuación: Herveo, Murillo, Casabianca y Villahermosa, en Tolima, y Villamaría, en Caldas. Sin embargo, en algunas de las veredas donde el mapa de riesgo evidencia mayor precaución, todavía hay pobladores que se resisten a evacuar.En algunas de estas veredas, como es el caso de La Cabaña, que es la comunidad del municipio de Murillo más próxima al volcán, los campesinos afirmaron que “la señal de celular es muy mala”.(Además: ¿Podría ocurrir un terremoto si hay erupción del Nevado del Ruiz? SGC aclara)“La señal de celular a veces sirve y las llamadas entran o salen sin problema, pero hay días terribles pues quedamos sin señal 4 y 6 horas”, manifestó un habitante de esta zona.De otro lado, en redes sociales surgió un rumor de que la energía creciente del cráter trae, supuestamente, interferencias a las comunicaciones satelitales, de celulares, televisión e internet. Además, señalaban que era otra señal de una posible erupción.EL TIEMPO consultó a John Jairo Sánchez, geólogo y profesor de la Universidad Nacional, quien explicó cuál es la verdad sobre algunos fenómenos que se presentan en un volcán en actividad, como es el caso del Nevado del Ruiz.(También: Si hay erupción del volcán Nevado del Ruiz, ¿se puede consumir agua de la llave?)Para Sánchez, en estas zonas, al ser tan alejadas, hay dificultades con las señales de telefonía. “Cuando uno sube a esas regiones, que son áreas rurales, la cobertura en comunicaciones es complicada. A medida que te vas alejando, vas experimentando que la señal se hace más débil. Es cuestión de que es una zona lejana, de que no hay mayor cobertura”, señaló.El experto explicó que no es acertado decir que el fenómeno de que no hay señales es un síntoma de que va a ser erupción el volcán. “He subido muchas veces, en épocas cuando obviamente no hay actividad eruptiva, cuando el volcán está calmado, e igual las señales son deficientes”, añadió.(También: Nevado del Ruiz: ¿Una erupción podría activar a otros volcanes? El SGC explica)De hecho, Sánchez pidió estar siempre muy atentos y apegados a la información del SGC como fuente oficial.La zona donde está ubicado el Nevado del Ruiz generalmente es propensa a las lluvias, fenómeno que puede causar tormentas eléctricas en los alrededores, pero estos no necesariamente están asociadas al volcán, dijo Sánchez.Para el experto, se trata de fenómenos asociados al estado del tiempo. Sin embargo, según Sánchez, las tormentas eléctricas podrían ocurrir cuando un volcán hace erupción, con gran cantidad de ceniza expulsada a la atmósfera por varios kilómetros. Es posible que este material genera unos procesos que, eventualmente, terminan en la generación de descargas eléctricas.“En otras palabras, es muy común que cuando un volcán hace erupción ocurra una pequeña tormenta local, como un microclima con descargas eléctricas a causa de eso”, señaló.(Lea: Volcán Nevado del Ruiz: de mil personas que deben evacuar, solo 102 lo han hecho)No obstante, indicó que esto solo ocurre cuando hay una erupción volcánica de grandes proporciones. En el caso de las columnas de ceniza, como la de este martes, de unos dos kilómetros de altura, no tiene el suficiente material para provocar una descarga eléctrica.El SGC ha reiterado que el Nevado del Ruiz es un volcán que está en erupción desde hace aproximadamente 10 años, pero todas las erupciones que ha hecho en este periodo han sido menores y su afectación se ha limitado a caída de cenizas en diferentes lugares dependiendo de la dirección del viento.REDACCIÓN ÚLTIMAS NOTICIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-si-hay-erupcion-se-puede-tomar-agua-de-la-llave-762486
+</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Si hay erupción del volcán Nevado del Ruiz, ¿se puede consumir agua de la llave?</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Con el pasar de los días, la actividad del volcán Nevado del Ruiz se mantiene en naranja. La salida de ceniza, las anomalías térmicos del cráter Arenas y los sismos dentro del complejo volcánico son solo algunas señales de la inestabilidad, pues tienden a oscilar.(Siga la cobertura: Volcán Nevado del Ruiz, EN VIVO: columna de ceniza alcanzó 2 kilómetros de alto).En medio de las labores de monitoreo del Servicio Geológico Colombia (SGC) y las autoridades de Gestión del Riesgo de Desastres, circulan en redes sociales falsas previsiones sobre lo que podría ocurrir en caso de una erupción.A continuación, algunos mitos y verdades:Falso. Según John Londoño, director de Geoamenazas del SGC, algunos dicen que "si hay una erupción grande va a haber un terremoto que destruirá a Manizales. ¡Eso es falso!". De acuerdo con las autoridades, "los sismos relacionados con una erupción se presentan al interior del volcán".(Siga leyendo: Volcán Nevado del Ruiz está emitiendo dióxido de azufre: ¿esto qué significa?).Depende de la zona en la que se encuentre y si es potable. La Unidad Nacional para la Gestión del Riesgo de Desastres recomienda evitar consumir agua de ríos o quebradas de montaña o cercanos al volcán, ya que puede estar contaminada.En cambio, en municipios y ciudades el agua, antes de salir por la llave, surte un proceso de potabilización que "elimina la ceniza permitiendo su consumo cotidiano", menciona la Gobernación de Caldas.(Además: Volcán Nevado del Ruiz | ‘Los sismos en el cráter son lo que más preocupa’: SGC).Falso. Como ha explicado la Alcaldía de Manizales y el SGC, la ciudad "solo se vería afectada por caída de ceniza". De hecho, el mapa de riesgo oficial indica que los fragmentos de roca podrían ser transportados por proyección balística y "depositados en las partes cercanas del volcán a distancias menores a 10 kilómetros desde el punto de emisión".Falso. Los vecinos del volcán Nevado del Ruiz son el Cerro Bravo, Cerro Machín y el Nevado de Santa Isabel, pero su actividad es totalmente ajena."En este caso estamos hablando de los edificios volcánicos que son máximo los seis o siete kilómetros más superficiales de la corteza, ahí el Nevado del Ruiz es un elemento totalmente independiente del volcán Cerro Machín, de manera que ese mito que se tiene de que si el Nevado del Ruiz se activa lo hacen también otros volcanes como el del Tolima, el Cerro Bravo y otros, es totalmente falso", señaló Londoño, del SGC.(Amplíe acá: Nevado del Ruiz: ¿Una erupción podría activar a otros volcanes? El SGC explica).Si hay orden de evacuación en su zona, debe salir a los lugares que indiquen las autoridades.Si no hay orden de evacuación para áreas que están a varios kilómetros, como la ciudad de Manizales, las autoridades recomiendan estar en casa porque "la ceniza podría generar afectaciones respiratorias y oculares, así como también las vías podrían tornarse peligrosas y lisas".En caso de caída de ceniza, la Unidad Nacional para la Gestión del Riesgo de Desastres aconseja usar tapabocas N95 y cerrar todas las ventanas, puertas y aberturas por donde pueda ingresar el material. Si quedan alrededor de las ventanas y puertas algunos espacios, cubra con paños húmedos.(Puede leer: ¿Por qué reportan ruidos en volcán Nevado del Ruiz en la madrugada? SGC explica).Falso. Los sismos y otros aspectos pueden variar, pero eso "no significa que vaya a hacer una erupción inminente", precisan las autoridades. Así que el monitoreo para bajar o elevar el nivel de actividad seguirá."Para cambiar de nivel y retornar a nivel amarillo se requiere un tiempo prudencial donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad", dice el SGC.Los flujos de lava "se generan en zonas aledañas al cráter del volcán", precisa las autoridades. Como contempla el mapa de riesgo, llegarían a áreas rurales de la parte alta de los municipios de Villamaría, Herveo, Casabianca, Villahermosa, Murillo (Tolima) y Santa Rosa de Cabal (Risaralda), eso sí cabe resaltar que todo depende de la magnitud que tenga este fenómeno.(Amplíe: Mapa: si volcán Nevado del Ruiz hace erupción, estos lugares estarían en riesgo).- Luis Alfredo Garavito tiene cáncer de ojo; esta es la reveladora foto en cárcel.- ¿Podría ocurrir un terremoto si hay erupción del Nevado del Ruiz? SGC aclara.- Volcán Nevado del Ruiz: de mil personas que deben evacuar, solo 102 lo han hecho.- Preocupantes advertencias sobre la inteligencia artificial de Yuval Noah Harari.REDACCIÓN ÚLTIMAS NOTICIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-podria-ocurrir-un-terremoto-si-hace-eupcion-762170
+</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>¿Podría ocurrir un terremoto si hay erupción del Nevado del Ruiz? SGC aclara</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>El volcán Nevado del Ruiz completa más de 26 días con el nivel de actividad en naranja, lo que significa que hay probabilidad de una erupción en los próximos días o semanas. Los sismos han oscilado en las últimas jornadas, es decir, han aumentado o descendido, por lo que las autoridades ratifican su "inestabilidad".(Siga la cobertura: Volcán Nevado del Ruiz, EN VIVO: en emergencia, campesinos se quejan de la señal)."Hay probabilidad de que explote en días o semanas. Nadie puede decir cuándo. Otra de las opciones es que se vaya calmando y no haga erupción. Nosotros estamos actuando casi como si fuera a hacer una erupción", dijo Luis Fernando Velasco, director encargado de la Unidad Nacional para la Gestión del Riesgo de Desastres (UNGRD).Como "no hay que bajar la guardia", el llamado de las autoridades es a seguir las recomendaciones de los organismos de socorro, mantenerse informados y evitar caer en contenido falso que puede circular por redes sociales.De hecho, para aclarar la información que a algunos ha alarmado, el Servicio Geológico Colombiano se refirió a la posibilidad de la ocurrencia de un terremoto.(Además: Mapa: si volcán Nevado del Ruiz hace erupción, estos lugares estarían en riesgo)."(Dicen) que si hay una erupción grande va a haber un terremoto que destruirá a Manizales. ¡Eso es falso!", expresó John Londoño, director de Geoamenazas del SCG, en el Canal Institucional.En ese sentido, una vez más, les pidió a los colombianos no caer en cadenas que pueden enviarse por aplicaciones de mensajería. Para estar atentos, el SGC minuto a minuto monitorea la actividad con recursos tecnológicos que no tenía en 1985 -cuando la erupción sepultó a Armero-.(Siga leyendo: Nevado del Ruiz: las impresionantes imágenes aéreas de cómo está el volcán)."La actividad de los volcanes es impredecible: no podemos decir que se vaya a comportar como lo hizo en 1985 (...) pero tiene el potencial para hacer una erupción de ese tamaño", precisó.Según explicó Londoño, para bajar el nivel de actividad a amarillo están atentos de cómo evoluciona el magma, material que está en el fondo del cráter y que busca una salida, generando sismos y fracturamiento de roca. El cambio de nivel naranja a amarillo requiere de "un tiempo prudencial donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad, el cual puede extenderse a varias semanas".- Volcán Nevado del Ruiz está emitiendo dióxido de azufre: ¿esto qué significa?- Pese a posible erupción, alcalde prepara Festival del volcán Nevado del Ruiz.- ¿Por qué reportan ruidos en volcán Nevado del Ruiz en la madrugada? SGC explica.- ‘Nevado del Ruiz es paciente crítico’: ¿Se podría saber cuándo haría erupción?REDACCIÓN ÚLTIMAS NOTICIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/campesinos-cerca-al-nevado-del-ruiz-denuncian-mala-senal-762319
 </t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">Campesinos denuncian mal servicio de comunicaciones en la zona del volcán </t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Las deficiencias en las comunicaciones son una constante en las zonas rurales de los municipios del Tolima ubicados en cercanías del Volcán Nevado del Ruiz, principalmente en los municipios de Murillo, Villahermosa, Herveo y Casabianca,
 En La Cabaña, la vereda del municipio de Murillo más próxima al volcán, los campesinos afirmaron que “la señal de celular es muy mala”.
@@ -1393,37 +1444,37 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/en-vivo-volcan-nevado-del-ruiz-en-alerta-naranja-ultimas-noticias-762033
 </t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: nuevo sismo de magnitud 1.7</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>El volcán Nevado del Ruiz sigue en nivel de actividad en naranja, lo que significa que hay probabilidad de una erupción en los próximos días o semanas.(Lea: Volcán Nevado del Ruiz, EN VIVO: en emergencia, campesinos se quejan de la señal).En los últimos días, a la salida de ceniza se une la emisión de dióxido de azufre. Según el Servicio Geológico Colombiano (SG), este fenómeno "indica que el sistema del volcán no está cerrado completamente". Si estuviera cerrado, los gases a su interior "se acumularían haciendo que la probabilidad de una erupción aumente exponencialmente".(No deje de leer: ¿Podría ocurrir un terremoto con erupción del Volcán Nevado del Ruiz? SGC aclara).Las autoridades hacen un llamado a "no bajar la guardia" y seguir las recomendaciones de los organismos de socorro, sobre todo en zonas aledañas al volcán donde algunos habitantes no han evacuado.Siga el minuto a minuto de este 24 de abril del 2023:REDACCIÓN ÚLTIMAS NOTICIAS</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-solo-102-personas-han-evacuado-en-el-tolima-762207
 </t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: de mil personas que deben evacuar, solo 102 lo han hecho</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Ni la caída permanente de cenizas, ni el elevado número de sismos y mucho menos las fumarolas de más de 1500 metros de altura, parece preocuparles a muchas de las familias campesinas del departamento del Tolima que habitan en zonas aledañas al volcán Nevado del Ruiz que permanece en alerta naranja.
 (Siga la cobertura: Volcán Nevado del Ruiz, EN VIVO: en emergencia, campesinos se quejan de la señal).Así lo confirmó la oficina de Gestión del Riesgo al corroborar que, de 1.000 personas que deben salir de sus casas y veredas ubicadas en un radio de 15 kilómetros del volcán, tan solo 102 han evacuado, o sea el 10 por ciento.
@@ -1439,55 +1490,26 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-siguen-anomalias-termicas-en-el-fondo-del-crater-762146
 </t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: continúan las anomalías térmicas en el fondo del cráter</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-en-vivo-ultimas-noticias-domingo-23-de-abril-761894
-</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Volcán Nevado del Ruiz: hay anomalías térmicas, sigue la alerta naranja</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>El volcán Nevado del Ruiz sigue muy ‘inestable’ tras varias semanas en estado de alerta naranja, el cráter Arenas continúa con su desgasificación y hay salida de vapor de agua por las anomalías térmicas.
-(Lea la actualización: Volcán Nevado del Ruiz, EN VIVO: hay inestabilidad y emite dióxido de azufre).El Servicio Geológico Colombiano sigue con el monitoreo continuo ante la posible erupción del volcán Nevado del Ruiz que, según confirma la entidad, se puede dar en algunos días o semanas. "Es importante no acostumbrarse a este nivel y bajar la guardia, hay que estar atentos a las comunicaciones oficiales y a la información que se emita”, afirmó John Makario Londoño.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-en-vivo-ultimas-noticias-22-de-abril-761725
-</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Volcán Nevado del Ruiz, EN VIVO: hay emisiones de gas y anomalías en el cráter</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>El volcán Nevado del Ruiz ha estado en alerta naranja desde el pasado mes de marzo, el Servicio Geológico Colombiano está vigilando de forma constante la caída de ceniza, los sismos y las anomalías térmicas dentro del cráter.
-(Le reomendamos leer: Volcán Nevado del Ruiz está emitiendo dióxido de azufre: ¿esto qué significa?).Según los últimos reportes de la Unidad Nacional para la Gestión del Riesgo de Desastres, las temperaturas dentro del cráter se han aumentado. "Se han captado temperaturas superiores a 700 °C. Tenemos un volcán muy inestable. Tenemos que mantener la alerta naranja. Por ello, trabajamos en la región para evacuar a la gente y reaccionar", expresó el director encargado de la UNGRD, Luis Fernando Velasco.REDACCIÓN ÚLTIMAS NOTICIAS</t>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano informó en su más reciente reporte sobre la actividad del volcán Nevado del Ruiz que la actividad sísmica asociada a fracturamiento de roca dentro del edificio volcánico y la asociada al movimiento de fluidos en el interior de los conductos fue similar en cuanto a número y energía sísmica respecto al 22 de abril.
+(Lea también: Volcán Nevado del Ruiz, EN VIVO: reportan emisión de ceniza con incandescencia)"Los sismos asociados al fracturamiento de roca se localizaron principalmente en los sectores sur, suroriental y orientalnororiental del volcán, así como en el cráter Arenas, a profundidades entre 0,4 y 4 kilómetros", señalaron.
+(Además: ¿Hay una 'grieta' en el volcán Nevado del Ruiz? Esta es la verdadera razón)Además, precisaron que la máxima magnitud registrada fue de 0,8 correspondiente al sismo registrado el 23 de abril a las 09:20 a. m., el cual se localizó a 0,6 kilómetros al oriente-nororiente del volcán, a 3,5 km de profundidad.
+Asimismo, la altura máxima de la columna de gases y/o ceniza observada fue de 1.400 metros, medidos desde la cima del volcán con una dirección de dispersión que osciló entre el oriente y suroriente. "Continúan las anomalías térmicas en el fondo del cráter, las cuales se observan desde plataformas de monitoreo satelital", agregaron desde el SGC.
+(Más noticias del volcán Nevado del Ruiz: Nevado del Ruiz: Servicio Geológico explica cómo sería una posible erupción)Finalmente, en cuanto a la salida de dióxido de azufre a la atmósfera, el SGC confirmó que este mantuvo niveles similares a los días anteriores. "Todos estos indicadores ratifican lo que desde el SGC hemos reiterado: que la actividad del volcán Nevado del Ruiz sigue siendo muy inestable", concluyeron.DUVÁN ÁLVAREZ
+Redactor de NACIÓN - EL TIEMPO¿Te gusta estar informado? Disfruta del mejor contenido sin límites. Suscríbete aquí.</t>
         </is>
       </c>
     </row>
